--- a/client/src/assets/tracker/task tracker.xlsx
+++ b/client/src/assets/tracker/task tracker.xlsx
@@ -734,8 +734,8 @@
   </sheetPr>
   <dimension ref="B1:J63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1025,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="3">
-        <v>45616</v>
+        <v>45731</v>
       </c>
       <c r="G11" t="s">
         <v>25</v>
@@ -1052,7 +1052,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="3">
-        <v>45617</v>
+        <v>45731</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
@@ -1079,7 +1079,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="3">
-        <v>45619</v>
+        <v>45731</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>

--- a/client/src/assets/tracker/task tracker.xlsx
+++ b/client/src/assets/tracker/task tracker.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
   <si>
     <t>Type</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>websites marketing</t>
+  </si>
+  <si>
+    <t>FeedBack Page Design / Development</t>
+  </si>
+  <si>
+    <t>Donation Page Design / Development</t>
   </si>
 </sst>
 </file>
@@ -503,8 +509,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Issues" displayName="Issues" ref="B1:J63" totalsRowShown="0" headerRowCellStyle="Heading 2">
-  <autoFilter ref="B1:J63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Issues" displayName="Issues" ref="B1:J65" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="B1:J65"/>
   <tableColumns count="9">
     <tableColumn id="10" name="#" dataCellStyle="Normal"/>
     <tableColumn id="1" name="TASK" dataCellStyle="Normal"/>
@@ -732,10 +738,10 @@
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J63"/>
+  <dimension ref="B1:J65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1067,7 +1073,7 @@
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
@@ -1094,10 +1100,10 @@
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1106,19 +1112,22 @@
         <v>15</v>
       </c>
       <c r="F14" s="3">
-        <v>45619</v>
+        <v>45731</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
       </c>
       <c r="H14" s="3"/>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1127,19 +1136,22 @@
         <v>15</v>
       </c>
       <c r="F15" s="3">
-        <v>45619</v>
+        <v>45731</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="3"/>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -1157,10 +1169,10 @@
     </row>
     <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -1178,10 +1190,10 @@
     </row>
     <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -1199,10 +1211,10 @@
     </row>
     <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -1220,10 +1232,10 @@
     </row>
     <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -1241,10 +1253,10 @@
     </row>
     <row r="21" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -1256,16 +1268,16 @@
         <v>45619</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -1277,16 +1289,16 @@
         <v>45619</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -1298,16 +1310,16 @@
         <v>45619</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1319,16 +1331,16 @@
         <v>45619</v>
       </c>
       <c r="G24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
@@ -1346,10 +1358,10 @@
     </row>
     <row r="26" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -1361,16 +1373,16 @@
         <v>45619</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -1379,7 +1391,7 @@
         <v>15</v>
       </c>
       <c r="F27" s="3">
-        <v>45731</v>
+        <v>45619</v>
       </c>
       <c r="G27" t="s">
         <v>25</v>
@@ -1388,255 +1400,297 @@
     </row>
     <row r="28" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28">
-        <v>56</v>
-      </c>
-      <c r="F28" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="3">
+        <v>45619</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29">
-        <v>57</v>
-      </c>
-      <c r="F29" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="3">
+        <v>45731</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F30" s="3"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F31" s="3"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F32" s="3"/>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F33" s="3"/>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F34" s="3"/>
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F35" s="3"/>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F36" s="3"/>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="F37" s="3"/>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="F38" s="3"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="F39" s="3"/>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F40" s="3"/>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F41" s="3"/>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="F42" s="3"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="F43" s="3"/>
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="F44" s="3"/>
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="F45" s="3"/>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="F46" s="3"/>
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="F47" s="3"/>
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="F48" s="3"/>
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="F49" s="3"/>
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="F50" s="3"/>
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="F51" s="3"/>
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F52" s="3"/>
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F53" s="3"/>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="F54" s="3"/>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F55" s="3"/>
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F56" s="3"/>
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F57" s="3"/>
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F58" s="3"/>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F59" s="3"/>
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F60" s="3"/>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F61" s="3"/>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F62" s="3"/>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F63" s="3"/>
       <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>90</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>91</v>
+      </c>
+      <c r="F65" s="3"/>
+      <c r="H65" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="9">

--- a/client/src/assets/tracker/task tracker.xlsx
+++ b/client/src/assets/tracker/task tracker.xlsx
@@ -9,14 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
-    <sheet name="calculations" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="books data" sheetId="3" r:id="rId2"/>
+    <sheet name="quran data" sheetId="4" r:id="rId3"/>
+    <sheet name="images data" sheetId="11" r:id="rId4"/>
+    <sheet name="biograhapy data" sheetId="10" r:id="rId5"/>
+    <sheet name="media data" sheetId="5" r:id="rId6"/>
+    <sheet name="activity data" sheetId="7" r:id="rId7"/>
+    <sheet name="contact us" sheetId="8" r:id="rId8"/>
+    <sheet name="about us" sheetId="9" r:id="rId9"/>
+    <sheet name="calculations" sheetId="2" state="hidden" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="closed">OFFSET(calculations!$J$16,,,days)</definedName>
@@ -51,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="64">
   <si>
     <t>Type</t>
   </si>
@@ -155,9 +163,6 @@
     <t>LOGO Design</t>
   </si>
   <si>
-    <t>Biograhpy data</t>
-  </si>
-  <si>
     <t>all books  file  read / write  / copy format</t>
   </si>
   <si>
@@ -188,9 +193,6 @@
     <t xml:space="preserve">Light mode / Dark mode </t>
   </si>
   <si>
-    <t>add to new tab Al munazrat</t>
-  </si>
-  <si>
     <t>Home Page Design / Development</t>
   </si>
   <si>
@@ -215,9 +217,6 @@
     <t>Ifthikar</t>
   </si>
   <si>
-    <t>Shabaz</t>
-  </si>
-  <si>
     <t>websites marketing</t>
   </si>
   <si>
@@ -225,6 +224,33 @@
   </si>
   <si>
     <t>Donation Page Design / Development</t>
+  </si>
+  <si>
+    <t>Biography Page Design / Development</t>
+  </si>
+  <si>
+    <t>Media URL</t>
+  </si>
+  <si>
+    <t>Books Name</t>
+  </si>
+  <si>
+    <t>Quran Data</t>
+  </si>
+  <si>
+    <t>Images Data</t>
+  </si>
+  <si>
+    <t>Biography Details</t>
+  </si>
+  <si>
+    <t>Activity Data</t>
+  </si>
+  <si>
+    <t>Contact Us Details</t>
+  </si>
+  <si>
+    <t>About Us Details</t>
   </si>
 </sst>
 </file>
@@ -509,8 +535,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Issues" displayName="Issues" ref="B1:J65" totalsRowShown="0" headerRowCellStyle="Heading 2">
-  <autoFilter ref="B1:J65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Issues" displayName="Issues" ref="B1:J64" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="B1:J64"/>
   <tableColumns count="9">
     <tableColumn id="10" name="#" dataCellStyle="Normal"/>
     <tableColumn id="1" name="TASK" dataCellStyle="Normal"/>
@@ -521,6 +547,166 @@
     <tableColumn id="7" name="CLOSED ON" dataCellStyle="Date"/>
     <tableColumn id="8" name="CLOSED BY" dataCellStyle="Normal"/>
     <tableColumn id="9" name="NOTES"/>
+  </tableColumns>
+  <tableStyleInfo name="Project Issue Tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Enter issue Number, description, Type,Priority, Opening &amp; Closing Date, Opened By &amp; Closed By names, and Notes in this table"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Issues36" displayName="Issues36" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A1:F64"/>
+  <tableColumns count="6">
+    <tableColumn id="10" name="#" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Books Name" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
+    <tableColumn id="5" name="OPENED BY" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="Project Issue Tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Enter issue Number, description, Type,Priority, Opening &amp; Closing Date, Opened By &amp; Closed By names, and Notes in this table"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Issues35" displayName="Issues35" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A1:F64"/>
+  <tableColumns count="6">
+    <tableColumn id="10" name="#" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Quran Data" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
+    <tableColumn id="5" name="OPENED BY" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="Project Issue Tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Enter issue Number, description, Type,Priority, Opening &amp; Closing Date, Opened By &amp; Closed By names, and Notes in this table"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Issues39" displayName="Issues39" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A1:F64"/>
+  <tableColumns count="6">
+    <tableColumn id="10" name="#" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Images Data" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
+    <tableColumn id="5" name="OPENED BY" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="Project Issue Tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Enter issue Number, description, Type,Priority, Opening &amp; Closing Date, Opened By &amp; Closed By names, and Notes in this table"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Issues3510" displayName="Issues3510" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A1:F64"/>
+  <tableColumns count="6">
+    <tableColumn id="10" name="#" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Biography Details" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
+    <tableColumn id="5" name="OPENED BY" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="Project Issue Tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Enter issue Number, description, Type,Priority, Opening &amp; Closing Date, Opened By &amp; Closed By names, and Notes in this table"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Issues3" displayName="Issues3" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A1:F64"/>
+  <tableColumns count="6">
+    <tableColumn id="10" name="#" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Media URL" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
+    <tableColumn id="5" name="OPENED BY" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="Project Issue Tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Enter issue Number, description, Type,Priority, Opening &amp; Closing Date, Opened By &amp; Closed By names, and Notes in this table"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Issues34" displayName="Issues34" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A1:F64"/>
+  <tableColumns count="6">
+    <tableColumn id="10" name="#" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Activity Data" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
+    <tableColumn id="5" name="OPENED BY" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="Project Issue Tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Enter issue Number, description, Type,Priority, Opening &amp; Closing Date, Opened By &amp; Closed By names, and Notes in this table"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Issues367" displayName="Issues367" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A1:F64"/>
+  <tableColumns count="6">
+    <tableColumn id="10" name="#" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Contact Us Details" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
+    <tableColumn id="5" name="OPENED BY" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="Project Issue Tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Enter issue Number, description, Type,Priority, Opening &amp; Closing Date, Opened By &amp; Closed By names, and Notes in this table"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Issues3678" displayName="Issues3678" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A1:F64"/>
+  <tableColumns count="6">
+    <tableColumn id="10" name="#" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="About Us Details" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
+    <tableColumn id="5" name="OPENED BY" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="Project Issue Tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -738,10 +924,10 @@
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J65"/>
+  <dimension ref="B1:J64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:I15"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -923,7 +1109,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -942,7 +1128,7 @@
         <v>25</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -950,7 +1136,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -974,7 +1160,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -998,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1022,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1049,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1076,7 +1262,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1103,7 +1289,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1127,7 +1313,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1148,10 +1334,10 @@
     </row>
     <row r="16" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -1160,19 +1346,22 @@
         <v>15</v>
       </c>
       <c r="F16" s="3">
-        <v>45619</v>
+        <v>45731</v>
       </c>
       <c r="G16" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="3"/>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -1190,10 +1379,10 @@
     </row>
     <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -1211,10 +1400,10 @@
     </row>
     <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -1232,10 +1421,10 @@
     </row>
     <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -1253,10 +1442,10 @@
     </row>
     <row r="21" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -1274,10 +1463,10 @@
     </row>
     <row r="22" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -1295,10 +1484,10 @@
     </row>
     <row r="23" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -1310,16 +1499,16 @@
         <v>45619</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1331,16 +1520,16 @@
         <v>45619</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
@@ -1358,10 +1547,10 @@
     </row>
     <row r="26" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -1373,16 +1562,16 @@
         <v>45619</v>
       </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -1400,10 +1589,10 @@
     </row>
     <row r="28" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -1412,7 +1601,7 @@
         <v>15</v>
       </c>
       <c r="F28" s="3">
-        <v>45619</v>
+        <v>45731</v>
       </c>
       <c r="G28" t="s">
         <v>25</v>
@@ -1421,276 +1610,255 @@
     </row>
     <row r="29" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="3">
-        <v>45731</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F29" s="3"/>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" s="3"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F31" s="3"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F32" s="3"/>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F33" s="3"/>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34" s="3"/>
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" s="3"/>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36" s="3"/>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F37" s="3"/>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F38" s="3"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" s="3"/>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40" s="3"/>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F41" s="3"/>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F42" s="3"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" s="3"/>
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" s="3"/>
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F45" s="3"/>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F46" s="3"/>
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F47" s="3"/>
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F48" s="3"/>
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F49" s="3"/>
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F50" s="3"/>
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F51" s="3"/>
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F52" s="3"/>
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F53" s="3"/>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F54" s="3"/>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F55" s="3"/>
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="F56" s="3"/>
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F57" s="3"/>
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F58" s="3"/>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F59" s="3"/>
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F60" s="3"/>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F61" s="3"/>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F62" s="3"/>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F63" s="3"/>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F64" s="3"/>
       <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65">
-        <v>91</v>
-      </c>
-      <c r="F65" s="3"/>
-      <c r="H65" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="9">
@@ -1716,7 +1884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T80"/>
@@ -3436,4 +3604,5815 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="39.08203125" customWidth="1"/>
+    <col min="3" max="6" width="18.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45607</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45608</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45609</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45610</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45611</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45612</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45613</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45614</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45615</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>84</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>85</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>86</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>87</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>88</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>89</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>90</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>91</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Number in this column under this heading. Use heading filters to find specific entries" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Issue description in this column under this heading" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Type in this column under this heading" sqref="C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Priority in this column under this heading" sqref="D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Opening Date in this column under this heading" sqref="E1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Opened By name in this column under this heading" sqref="F1"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:F64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="39.08203125" customWidth="1"/>
+    <col min="3" max="6" width="18.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45607</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45608</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45609</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45610</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45611</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45612</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45613</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45614</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45615</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>84</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>85</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>86</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>87</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>88</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>89</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>90</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>91</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Number in this column under this heading. Use heading filters to find specific entries" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Issue description in this column under this heading" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Type in this column under this heading" sqref="C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Priority in this column under this heading" sqref="D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Opening Date in this column under this heading" sqref="E1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Opened By name in this column under this heading" sqref="F1"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:F64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="39.08203125" customWidth="1"/>
+    <col min="3" max="6" width="18.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45607</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45608</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45609</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45610</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45611</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45612</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45613</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45614</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45615</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>84</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>85</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>86</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>87</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>88</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>89</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>90</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>91</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Number in this column under this heading. Use heading filters to find specific entries" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Issue description in this column under this heading" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Type in this column under this heading" sqref="C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Priority in this column under this heading" sqref="D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Opening Date in this column under this heading" sqref="E1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Opened By name in this column under this heading" sqref="F1"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="26.08203125" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45607</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45608</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45609</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45610</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45611</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45612</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45613</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45614</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45615</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>84</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>85</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>86</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>87</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>88</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>89</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>90</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>91</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Opened By name in this column under this heading" sqref="F1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Opening Date in this column under this heading" sqref="E1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Priority in this column under this heading" sqref="D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Type in this column under this heading" sqref="C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Issue description in this column under this heading" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Number in this column under this heading. Use heading filters to find specific entries" sqref="A1"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="39.08203125" customWidth="1"/>
+    <col min="3" max="6" width="18.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45607</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45608</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45609</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45610</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45611</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45612</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45613</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45614</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45615</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>84</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>85</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>86</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>87</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>88</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>89</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>90</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>91</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Opened By name in this column under this heading" sqref="F1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Opening Date in this column under this heading" sqref="E1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Priority in this column under this heading" sqref="D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Type in this column under this heading" sqref="C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Issue description in this column under this heading" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Number in this column under this heading. Use heading filters to find specific entries" sqref="A1"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="39.08203125" customWidth="1"/>
+    <col min="3" max="6" width="18.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45607</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45608</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45609</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45610</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45611</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45612</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45613</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45614</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45615</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>84</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>85</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>86</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>87</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>88</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>89</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>90</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>91</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Number in this column under this heading. Use heading filters to find specific entries" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Issue description in this column under this heading" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Type in this column under this heading" sqref="C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Priority in this column under this heading" sqref="D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Opening Date in this column under this heading" sqref="E1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Opened By name in this column under this heading" sqref="F1"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="39.08203125" customWidth="1"/>
+    <col min="3" max="6" width="18.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45607</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45608</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45609</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45610</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45611</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45612</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45613</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45614</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45615</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>84</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>85</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>86</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>87</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>88</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>89</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>90</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>91</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Opened By name in this column under this heading" sqref="F1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Opening Date in this column under this heading" sqref="E1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Priority in this column under this heading" sqref="D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Type in this column under this heading" sqref="C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Issue description in this column under this heading" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Number in this column under this heading. Use heading filters to find specific entries" sqref="A1"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="39.08203125" customWidth="1"/>
+    <col min="3" max="6" width="18.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45607</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45608</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45609</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45610</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45611</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45612</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45613</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45614</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45615</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>84</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>85</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>86</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>87</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>88</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>89</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>90</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>91</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Number in this column under this heading. Use heading filters to find specific entries" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Issue description in this column under this heading" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Type in this column under this heading" sqref="C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Priority in this column under this heading" sqref="D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Opening Date in this column under this heading" sqref="E1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Opened By name in this column under this heading" sqref="F1"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/client/src/assets/tracker/task tracker.xlsx
+++ b/client/src/assets/tracker/task tracker.xlsx
@@ -9,22 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="896" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
-    <sheet name="books data" sheetId="3" r:id="rId2"/>
-    <sheet name="quran data" sheetId="4" r:id="rId3"/>
-    <sheet name="images data" sheetId="11" r:id="rId4"/>
-    <sheet name="biograhapy data" sheetId="10" r:id="rId5"/>
-    <sheet name="media data" sheetId="5" r:id="rId6"/>
-    <sheet name="activity data" sheetId="7" r:id="rId7"/>
-    <sheet name="contact us" sheetId="8" r:id="rId8"/>
-    <sheet name="about us" sheetId="9" r:id="rId9"/>
-    <sheet name="calculations" sheetId="2" state="hidden" r:id="rId10"/>
+    <sheet name="Home Data" sheetId="13" r:id="rId2"/>
+    <sheet name="Books Data" sheetId="3" r:id="rId3"/>
+    <sheet name="AL Quran Data" sheetId="4" r:id="rId4"/>
+    <sheet name="Media Data" sheetId="5" r:id="rId5"/>
+    <sheet name="Event Data" sheetId="12" r:id="rId6"/>
+    <sheet name="Activity Data" sheetId="7" r:id="rId7"/>
+    <sheet name="Biograhapy Data" sheetId="10" r:id="rId8"/>
+    <sheet name="Contact Us Data" sheetId="8" r:id="rId9"/>
+    <sheet name="About Us Data" sheetId="9" r:id="rId10"/>
+    <sheet name="Donation Us Data" sheetId="14" r:id="rId11"/>
+    <sheet name="Other Data" sheetId="11" r:id="rId12"/>
+    <sheet name="calculations" sheetId="2" state="hidden" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="closed">OFFSET(calculations!$J$16,,,days)</definedName>
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="67">
   <si>
     <t>Type</t>
   </si>
@@ -235,9 +238,6 @@
     <t>Books Name</t>
   </si>
   <si>
-    <t>Quran Data</t>
-  </si>
-  <si>
     <t>Images Data</t>
   </si>
   <si>
@@ -251,6 +251,18 @@
   </si>
   <si>
     <t>About Us Details</t>
+  </si>
+  <si>
+    <t>Home Data</t>
+  </si>
+  <si>
+    <t>Al Quran Data</t>
+  </si>
+  <si>
+    <t>Event Data</t>
+  </si>
+  <si>
+    <t>Donation Us Details</t>
   </si>
 </sst>
 </file>
@@ -557,7 +569,87 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Issues3678" displayName="Issues3678" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A1:F64"/>
+  <tableColumns count="6">
+    <tableColumn id="10" name="#" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="About Us Details" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
+    <tableColumn id="5" name="OPENED BY" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="Project Issue Tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Enter issue Number, description, Type,Priority, Opening &amp; Closing Date, Opened By &amp; Closed By names, and Notes in this table"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Issues367813" displayName="Issues367813" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A1:F64"/>
+  <tableColumns count="6">
+    <tableColumn id="10" name="#" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Donation Us Details" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
+    <tableColumn id="5" name="OPENED BY" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="Project Issue Tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Enter issue Number, description, Type,Priority, Opening &amp; Closing Date, Opened By &amp; Closed By names, and Notes in this table"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Issues39" displayName="Issues39" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A1:F64"/>
+  <tableColumns count="6">
+    <tableColumn id="10" name="#" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Images Data" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
+    <tableColumn id="5" name="OPENED BY" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="Project Issue Tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Enter issue Number, description, Type,Priority, Opening &amp; Closing Date, Opened By &amp; Closed By names, and Notes in this table"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Issues3611" displayName="Issues3611" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A1:F64"/>
+  <tableColumns count="6">
+    <tableColumn id="10" name="#" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Home Data" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
+    <tableColumn id="5" name="OPENED BY" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="Project Issue Tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Enter issue Number, description, Type,Priority, Opening &amp; Closing Date, Opened By &amp; Closed By names, and Notes in this table"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Issues36" displayName="Issues36" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
   <autoFilter ref="A1:F64"/>
   <tableColumns count="6">
@@ -577,32 +669,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Issues35" displayName="Issues35" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
   <autoFilter ref="A1:F64"/>
   <tableColumns count="6">
     <tableColumn id="10" name="#" dataCellStyle="Normal"/>
-    <tableColumn id="1" name="Quran Data" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
-    <tableColumn id="5" name="OPENED BY" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="Project Issue Tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altTextSummary="Enter issue Number, description, Type,Priority, Opening &amp; Closing Date, Opened By &amp; Closed By names, and Notes in this table"/>
-    </ext>
-  </extLst>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Issues39" displayName="Issues39" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
-  <autoFilter ref="A1:F64"/>
-  <tableColumns count="6">
-    <tableColumn id="10" name="#" dataCellStyle="Normal"/>
-    <tableColumn id="1" name="Images Data" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Al Quran Data" dataCellStyle="Normal"/>
     <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
     <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
     <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
@@ -618,11 +690,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Issues3510" displayName="Issues3510" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Issues3" displayName="Issues3" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
   <autoFilter ref="A1:F64"/>
   <tableColumns count="6">
     <tableColumn id="10" name="#" dataCellStyle="Normal"/>
-    <tableColumn id="1" name="Biography Details" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Media URL" dataCellStyle="Normal"/>
     <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
     <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
     <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
@@ -638,11 +710,11 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Issues3" displayName="Issues3" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Issues312" displayName="Issues312" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
   <autoFilter ref="A1:F64"/>
   <tableColumns count="6">
     <tableColumn id="10" name="#" dataCellStyle="Normal"/>
-    <tableColumn id="1" name="Media URL" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Event Data" dataCellStyle="Normal"/>
     <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
     <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
     <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
@@ -678,11 +750,11 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Issues367" displayName="Issues367" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Issues3510" displayName="Issues3510" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
   <autoFilter ref="A1:F64"/>
   <tableColumns count="6">
     <tableColumn id="10" name="#" dataCellStyle="Normal"/>
-    <tableColumn id="1" name="Contact Us Details" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Biography Details" dataCellStyle="Normal"/>
     <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
     <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
     <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
@@ -698,11 +770,11 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Issues3678" displayName="Issues3678" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Issues367" displayName="Issues367" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
   <autoFilter ref="A1:F64"/>
   <tableColumns count="6">
     <tableColumn id="10" name="#" dataCellStyle="Normal"/>
-    <tableColumn id="1" name="About Us Details" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Contact Us Details" dataCellStyle="Normal"/>
     <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
     <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
     <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
@@ -1886,1727 +1958,731 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:T80"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
-    <col min="14" max="15" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="39.08203125" customWidth="1"/>
+    <col min="3" max="6" width="18.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45607</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45608</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45609</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45610</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45611</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45612</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45613</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45614</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45615</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1">
-        <f ca="1">DATE((YEAR(TODAY())-1),1,1)</f>
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" t="e">
-        <f>'Issue Tracker'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="I8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="1" t="e">
-        <f>'Issue Tracker'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N8">
-        <f ca="1">COUNT(typesUnsorted)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="I9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" t="e">
-        <f>'Issue Tracker'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="I10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" t="e">
-        <f>'Issue Tracker'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="N12" t="e">
-        <f ca="1">OFFSET($N$16,,,$N$13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O12" t="e">
-        <f ca="1">OFFSET($O$16,,,$O$13)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="N13">
-        <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
-        <v>2</v>
-      </c>
-      <c r="O13">
-        <f>COUNTA(O16:O45)-COUNTIF(O16:O45,NA())</f>
-        <v>3</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="T13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="31" x14ac:dyDescent="0.35">
-      <c r="H14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" t="s">
-        <v>9</v>
-      </c>
-      <c r="S14" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="N15" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="e">
-        <f t="shared" ref="H16:H47" si="0">keydate-days+G16</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I16">
-        <f>I15+COUNTIFS(Issues[OPENED ON],H16,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f>J15+COUNTIFS(Issues[CLOSED ON],H16,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" t="str">
-        <f t="array" ref="N16">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N15, Issues[TYPE]),0))</f>
-        <v>Type 2</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="array" ref="O16">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O15,Issues[PRIORITY]),0))</f>
-        <v>High</v>
-      </c>
-      <c r="S16" t="str">
-        <f t="array" aca="1" ref="S16" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(1:1)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>*</v>
-      </c>
-      <c r="T16" t="str">
-        <f t="array" aca="1" ref="T16" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(1:1)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>*</v>
-      </c>
-    </row>
-    <row r="17" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I17">
-        <f>I16+COUNTIFS(Issues[OPENED ON],H17,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f>J16+COUNTIFS(Issues[CLOSED ON],H17,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <f t="array" ref="N17">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N16, Issues[TYPE]),0))</f>
-        <v>0</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="array" ref="O17">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O16,Issues[PRIORITY]),0))</f>
-        <v>Medium</v>
-      </c>
-      <c r="S17" t="str">
-        <f t="array" aca="1" ref="S17" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(2:2)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>*</v>
-      </c>
-      <c r="T17" t="str">
-        <f t="array" aca="1" ref="T17" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(2:2)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>*</v>
-      </c>
-    </row>
-    <row r="18" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I18">
-        <f>I17+COUNTIFS(Issues[OPENED ON],H18,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f>J17+COUNTIFS(Issues[CLOSED ON],H18,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" t="e">
-        <f t="array" ref="N18">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N17, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O18">
-        <f t="array" ref="O18">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O17,Issues[PRIORITY]),0))</f>
-        <v>0</v>
-      </c>
-      <c r="S18" t="str">
-        <f t="array" aca="1" ref="S18" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(3:3)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Type 2</v>
-      </c>
-      <c r="T18" t="str">
-        <f t="array" aca="1" ref="T18" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(3:3)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>High</v>
-      </c>
-    </row>
-    <row r="19" spans="7:20" ht="31" x14ac:dyDescent="0.35">
-      <c r="G19">
-        <v>4</v>
-      </c>
-      <c r="H19" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I19">
-        <f>I18+COUNTIFS(Issues[OPENED ON],H19,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f>J18+COUNTIFS(Issues[CLOSED ON],H19,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" t="e">
-        <f t="array" ref="N19">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N18, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O19" t="e">
-        <f t="array" ref="O19">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O18,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S19" t="e">
-        <f t="array" aca="1" ref="S19" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(4:4)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T19" t="str">
-        <f t="array" aca="1" ref="T19" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(4:4)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>Medium</v>
-      </c>
-    </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I20">
-        <f>I19+COUNTIFS(Issues[OPENED ON],H20,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f>J19+COUNTIFS(Issues[CLOSED ON],H20,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N20" t="e">
-        <f t="array" ref="N20">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N19, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O20" t="e">
-        <f t="array" ref="O20">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O19,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S20" t="e">
-        <f t="array" aca="1" ref="S20" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(5:5)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T20" t="e">
-        <f t="array" aca="1" ref="T20" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(5:5)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G21">
-        <v>6</v>
-      </c>
-      <c r="H21" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I21">
-        <f>I20+COUNTIFS(Issues[OPENED ON],H21,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <f>J20+COUNTIFS(Issues[CLOSED ON],H21,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" t="e">
-        <f t="array" ref="N21">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N20, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O21" t="e">
-        <f t="array" ref="O21">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O20,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S21" t="e">
-        <f t="array" aca="1" ref="S21" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(6:6)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T21" t="e">
-        <f t="array" aca="1" ref="T21" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(6:6)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="22" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G22">
-        <v>7</v>
-      </c>
-      <c r="H22" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I22">
-        <f>I21+COUNTIFS(Issues[OPENED ON],H22,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <f>J21+COUNTIFS(Issues[CLOSED ON],H22,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" t="e">
-        <f t="array" ref="N22">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N21, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O22" t="e">
-        <f t="array" ref="O22">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O21,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S22" t="e">
-        <f t="array" aca="1" ref="S22" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(7:7)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T22" t="e">
-        <f t="array" aca="1" ref="T22" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(7:7)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="23" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G23">
-        <v>8</v>
-      </c>
-      <c r="H23" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I23">
-        <f>I22+COUNTIFS(Issues[OPENED ON],H23,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <f>J22+COUNTIFS(Issues[CLOSED ON],H23,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N23" t="e">
-        <f t="array" ref="N23">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N22, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O23" t="e">
-        <f t="array" ref="O23">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O22,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S23" t="e">
-        <f t="array" aca="1" ref="S23" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(8:8)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T23" t="e">
-        <f t="array" aca="1" ref="T23" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(8:8)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="24" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G24">
-        <v>9</v>
-      </c>
-      <c r="H24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I24">
-        <f>I23+COUNTIFS(Issues[OPENED ON],H24,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <f>J23+COUNTIFS(Issues[CLOSED ON],H24,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" t="e">
-        <f t="array" ref="N24">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N23, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O24" t="e">
-        <f t="array" ref="O24">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O23,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S24" t="e">
-        <f t="array" aca="1" ref="S24" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(9:9)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T24" t="e">
-        <f t="array" aca="1" ref="T24" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(9:9)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="25" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G25">
-        <v>10</v>
-      </c>
-      <c r="H25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I25">
-        <f>I24+COUNTIFS(Issues[OPENED ON],H25,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <f>J24+COUNTIFS(Issues[CLOSED ON],H25,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N25" t="e">
-        <f t="array" ref="N25">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N24, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O25" t="e">
-        <f t="array" ref="O25">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O24,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S25" t="e">
-        <f t="array" aca="1" ref="S25" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(10:10)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T25" t="e">
-        <f t="array" aca="1" ref="T25" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(10:10)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="26" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G26">
-        <v>11</v>
-      </c>
-      <c r="H26" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I26">
-        <f>I25+COUNTIFS(Issues[OPENED ON],H26,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <f>J25+COUNTIFS(Issues[CLOSED ON],H26,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" t="e">
-        <f t="array" ref="N26">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N25, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O26" t="e">
-        <f t="array" ref="O26">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O25,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S26" t="e">
-        <f t="array" aca="1" ref="S26" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(11:11)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T26" t="e">
-        <f t="array" aca="1" ref="T26" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(11:11)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="27" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G27">
-        <v>12</v>
-      </c>
-      <c r="H27" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I27">
-        <f>I26+COUNTIFS(Issues[OPENED ON],H27,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <f>J26+COUNTIFS(Issues[CLOSED ON],H27,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N27" t="e">
-        <f t="array" ref="N27">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N26, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O27" t="e">
-        <f t="array" ref="O27">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O26,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S27" t="e">
-        <f t="array" aca="1" ref="S27" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(12:12)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T27" t="e">
-        <f t="array" aca="1" ref="T27" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(12:12)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="28" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G28">
-        <v>13</v>
-      </c>
-      <c r="H28" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I28">
-        <f>I27+COUNTIFS(Issues[OPENED ON],H28,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <f>J27+COUNTIFS(Issues[CLOSED ON],H28,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" t="e">
-        <f t="array" ref="N28">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N27, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O28" t="e">
-        <f t="array" ref="O28">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O27,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S28" t="e">
-        <f t="array" aca="1" ref="S28" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(13:13)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T28" t="e">
-        <f t="array" aca="1" ref="T28" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(13:13)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="29" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G29">
-        <v>14</v>
-      </c>
-      <c r="H29" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I29">
-        <f>I28+COUNTIFS(Issues[OPENED ON],H29,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <f>J28+COUNTIFS(Issues[CLOSED ON],H29,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N29" t="e">
-        <f t="array" ref="N29">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N28, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O29" t="e">
-        <f t="array" ref="O29">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O28,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S29" t="e">
-        <f t="array" aca="1" ref="S29" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(14:14)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T29" t="e">
-        <f t="array" aca="1" ref="T29" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(14:14)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="30" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G30">
-        <v>15</v>
-      </c>
-      <c r="H30" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I30">
-        <f>I29+COUNTIFS(Issues[OPENED ON],H30,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <f>J29+COUNTIFS(Issues[CLOSED ON],H30,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" t="e">
-        <f t="array" ref="N30">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N29, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O30" t="e">
-        <f t="array" ref="O30">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O29,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S30" t="e">
-        <f t="array" aca="1" ref="S30" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(15:15)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T30" t="e">
-        <f t="array" aca="1" ref="T30" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(15:15)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="31" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G31">
-        <v>16</v>
-      </c>
-      <c r="H31" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I31">
-        <f>I30+COUNTIFS(Issues[OPENED ON],H31,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <f>J30+COUNTIFS(Issues[CLOSED ON],H31,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" t="e">
-        <f t="array" ref="N31">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N30, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O31" t="e">
-        <f t="array" ref="O31">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O30,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S31" t="e">
-        <f t="array" aca="1" ref="S31" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(16:16)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T31" t="e">
-        <f t="array" aca="1" ref="T31" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(16:16)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="32" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G32">
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="H32" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I32">
-        <f>I31+COUNTIFS(Issues[OPENED ON],H32,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <f>J31+COUNTIFS(Issues[CLOSED ON],H32,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" t="e">
-        <f t="array" ref="N32">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N31, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O32" t="e">
-        <f t="array" ref="O32">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O31,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S32" t="e">
-        <f t="array" aca="1" ref="S32" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(17:17)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T32" t="e">
-        <f t="array" aca="1" ref="T32" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(17:17)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="33" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G33">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="H33" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I33">
-        <f>I32+COUNTIFS(Issues[OPENED ON],H33,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <f>J32+COUNTIFS(Issues[CLOSED ON],H33,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N33" t="e">
-        <f t="array" ref="N33">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N32, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O33" t="e">
-        <f t="array" ref="O33">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O32,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S33" t="e">
-        <f t="array" aca="1" ref="S33" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(18:18)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T33" t="e">
-        <f t="array" aca="1" ref="T33" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(18:18)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G34">
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="H34" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I34">
-        <f>I33+COUNTIFS(Issues[OPENED ON],H34,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <f>J33+COUNTIFS(Issues[CLOSED ON],H34,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N34" t="e">
-        <f t="array" ref="N34">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N33, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O34" t="e">
-        <f t="array" ref="O34">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O33,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S34" t="e">
-        <f t="array" aca="1" ref="S34" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(19:19)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T34" t="e">
-        <f t="array" aca="1" ref="T34" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(19:19)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G35">
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="H35" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I35">
-        <f>I34+COUNTIFS(Issues[OPENED ON],H35,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <f>J34+COUNTIFS(Issues[CLOSED ON],H35,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N35" t="e">
-        <f t="array" ref="N35">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N34, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O35" t="e">
-        <f t="array" ref="O35">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O34,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S35" t="e">
-        <f t="array" aca="1" ref="S35" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(20:20)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T35" t="e">
-        <f t="array" aca="1" ref="T35" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(20:20)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G36">
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="H36" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I36">
-        <f>I35+COUNTIFS(Issues[OPENED ON],H36,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <f>J35+COUNTIFS(Issues[CLOSED ON],H36,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N36" t="e">
-        <f t="array" ref="N36">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N35, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O36" t="e">
-        <f t="array" ref="O36">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O35,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S36" t="e">
-        <f t="array" aca="1" ref="S36" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(21:21)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T36" t="e">
-        <f t="array" aca="1" ref="T36" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(21:21)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G37">
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="H37" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I37">
-        <f>I36+COUNTIFS(Issues[OPENED ON],H37,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <f>J36+COUNTIFS(Issues[CLOSED ON],H37,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N37" t="e">
-        <f t="array" ref="N37">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N36, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O37" t="e">
-        <f t="array" ref="O37">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O36,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S37" t="e">
-        <f t="array" aca="1" ref="S37" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(22:22)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T37" t="e">
-        <f t="array" aca="1" ref="T37" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(22:22)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G38">
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="H38" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I38">
-        <f>I37+COUNTIFS(Issues[OPENED ON],H38,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <f>J37+COUNTIFS(Issues[CLOSED ON],H38,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N38" t="e">
-        <f t="array" ref="N38">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N37, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O38" t="e">
-        <f t="array" ref="O38">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O37,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S38" t="e">
-        <f t="array" aca="1" ref="S38" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(23:23)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T38" t="e">
-        <f t="array" aca="1" ref="T38" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(23:23)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="39" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G39">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="H39" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I39">
-        <f>I38+COUNTIFS(Issues[OPENED ON],H39,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <f>J38+COUNTIFS(Issues[CLOSED ON],H39,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N39" t="e">
-        <f t="array" ref="N39">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N38, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O39" t="e">
-        <f t="array" ref="O39">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O38,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S39" t="e">
-        <f t="array" aca="1" ref="S39" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(24:24)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T39" t="e">
-        <f t="array" aca="1" ref="T39" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(24:24)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G40">
-        <v>25</v>
-      </c>
-      <c r="H40" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I40">
-        <f>I39+COUNTIFS(Issues[OPENED ON],H40,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <f>J39+COUNTIFS(Issues[CLOSED ON],H40,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N40" t="e">
-        <f t="array" ref="N40">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N39, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O40" t="e">
-        <f t="array" ref="O40">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O39,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S40" t="e">
-        <f t="array" aca="1" ref="S40" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(25:25)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T40" t="e">
-        <f t="array" aca="1" ref="T40" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(25:25)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G41">
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="H41" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I41">
-        <f>I40+COUNTIFS(Issues[OPENED ON],H41,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <f>J40+COUNTIFS(Issues[CLOSED ON],H41,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N41" t="e">
-        <f t="array" ref="N41">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N40, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O41" t="e">
-        <f t="array" ref="O41">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O40,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S41" t="e">
-        <f t="array" aca="1" ref="S41" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(26:26)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T41" t="e">
-        <f t="array" aca="1" ref="T41" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(26:26)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G42">
-        <v>27</v>
-      </c>
-      <c r="H42" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I42">
-        <f>I41+COUNTIFS(Issues[OPENED ON],H42,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <f>J41+COUNTIFS(Issues[CLOSED ON],H42,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N42" t="e">
-        <f t="array" ref="N42">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N41, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O42" t="e">
-        <f t="array" ref="O42">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O41,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S42" t="e">
-        <f t="array" aca="1" ref="S42" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(27:27)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T42" t="e">
-        <f t="array" aca="1" ref="T42" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(27:27)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="43" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G43">
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>28</v>
       </c>
-      <c r="H43" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I43">
-        <f>I42+COUNTIFS(Issues[OPENED ON],H43,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <f>J42+COUNTIFS(Issues[CLOSED ON],H43,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N43" t="e">
-        <f t="array" ref="N43">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N42, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O43" t="e">
-        <f t="array" ref="O43">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O42,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S43" t="e">
-        <f t="array" aca="1" ref="S43" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(28:28)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T43" t="e">
-        <f t="array" aca="1" ref="T43" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(28:28)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="44" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G44">
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>29</v>
       </c>
-      <c r="H44" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I44">
-        <f>I43+COUNTIFS(Issues[OPENED ON],H44,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <f>J43+COUNTIFS(Issues[CLOSED ON],H44,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N44" t="e">
-        <f t="array" ref="N44">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N43, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O44" t="e">
-        <f t="array" ref="O44">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O43,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S44" t="e">
-        <f t="array" aca="1" ref="S44" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(29:29)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T44" t="e">
-        <f t="array" aca="1" ref="T44" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(29:29)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G45">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>30</v>
       </c>
-      <c r="H45" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I45">
-        <f>I44+COUNTIFS(Issues[OPENED ON],H45,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <f>J44+COUNTIFS(Issues[CLOSED ON],H45,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N45" t="e">
-        <f t="array" ref="N45">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N44, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O45" t="e">
-        <f t="array" ref="O45">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O44,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S45" t="e">
-        <f t="array" aca="1" ref="S45" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(30:30)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T45" t="e">
-        <f t="array" aca="1" ref="T45" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(30:30)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G46">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>31</v>
       </c>
-      <c r="H46" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I46">
-        <f>I45+COUNTIFS(Issues[OPENED ON],H46,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <f>J45+COUNTIFS(Issues[CLOSED ON],H46,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G47">
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>32</v>
       </c>
-      <c r="H47" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I47">
-        <f>I46+COUNTIFS(Issues[OPENED ON],H47,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <f>J46+COUNTIFS(Issues[CLOSED ON],H47,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="7:20" x14ac:dyDescent="0.35">
-      <c r="G48">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>33</v>
       </c>
-      <c r="H48" s="1" t="e">
-        <f t="shared" ref="H48:H79" si="1">keydate-days+G48</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I48">
-        <f>I47+COUNTIFS(Issues[OPENED ON],H48,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <f>J47+COUNTIFS(Issues[CLOSED ON],H48,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G49">
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>34</v>
       </c>
-      <c r="H49" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I49">
-        <f>I48+COUNTIFS(Issues[OPENED ON],H49,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <f>J48+COUNTIFS(Issues[CLOSED ON],H49,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G50">
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>35</v>
       </c>
-      <c r="H50" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I50">
-        <f>I49+COUNTIFS(Issues[OPENED ON],H50,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <f>J49+COUNTIFS(Issues[CLOSED ON],H50,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G51">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>36</v>
       </c>
-      <c r="H51" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I51">
-        <f>I50+COUNTIFS(Issues[OPENED ON],H51,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <f>J50+COUNTIFS(Issues[CLOSED ON],H51,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G52">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>37</v>
       </c>
-      <c r="H52" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I52">
-        <f>I51+COUNTIFS(Issues[OPENED ON],H52,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <f>J51+COUNTIFS(Issues[CLOSED ON],H52,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G53">
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>38</v>
       </c>
-      <c r="H53" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I53">
-        <f>I52+COUNTIFS(Issues[OPENED ON],H53,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <f>J52+COUNTIFS(Issues[CLOSED ON],H53,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G54">
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>39</v>
       </c>
-      <c r="H54" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I54">
-        <f>I53+COUNTIFS(Issues[OPENED ON],H54,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <f>J53+COUNTIFS(Issues[CLOSED ON],H54,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G55">
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>40</v>
       </c>
-      <c r="H55" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I55">
-        <f>I54+COUNTIFS(Issues[OPENED ON],H55,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <f>J54+COUNTIFS(Issues[CLOSED ON],H55,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G56">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>41</v>
       </c>
-      <c r="H56" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I56">
-        <f>I55+COUNTIFS(Issues[OPENED ON],H56,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <f>J55+COUNTIFS(Issues[CLOSED ON],H56,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G57">
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>42</v>
       </c>
-      <c r="H57" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I57">
-        <f>I56+COUNTIFS(Issues[OPENED ON],H57,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <f>J56+COUNTIFS(Issues[CLOSED ON],H57,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G58">
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>43</v>
       </c>
-      <c r="H58" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I58">
-        <f>I57+COUNTIFS(Issues[OPENED ON],H58,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <f>J57+COUNTIFS(Issues[CLOSED ON],H58,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G59">
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>44</v>
       </c>
-      <c r="H59" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I59">
-        <f>I58+COUNTIFS(Issues[OPENED ON],H59,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <f>J58+COUNTIFS(Issues[CLOSED ON],H59,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G60">
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>45</v>
       </c>
-      <c r="H60" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I60">
-        <f>I59+COUNTIFS(Issues[OPENED ON],H60,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <f>J59+COUNTIFS(Issues[CLOSED ON],H60,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G61">
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>46</v>
       </c>
-      <c r="H61" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I61">
-        <f>I60+COUNTIFS(Issues[OPENED ON],H61,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <f>J60+COUNTIFS(Issues[CLOSED ON],H61,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G62">
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>47</v>
       </c>
-      <c r="H62" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I62">
-        <f>I61+COUNTIFS(Issues[OPENED ON],H62,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <f>J61+COUNTIFS(Issues[CLOSED ON],H62,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G63">
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>48</v>
       </c>
-      <c r="H63" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I63">
-        <f>I62+COUNTIFS(Issues[OPENED ON],H63,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <f>J62+COUNTIFS(Issues[CLOSED ON],H63,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G64">
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>49</v>
       </c>
-      <c r="H64" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I64">
-        <f>I63+COUNTIFS(Issues[OPENED ON],H64,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <f>J63+COUNTIFS(Issues[CLOSED ON],H64,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G65">
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50">
         <v>50</v>
       </c>
-      <c r="H65" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I65">
-        <f>I64+COUNTIFS(Issues[OPENED ON],H65,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <f>J64+COUNTIFS(Issues[CLOSED ON],H65,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G66">
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>51</v>
       </c>
-      <c r="H66" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I66">
-        <f>I65+COUNTIFS(Issues[OPENED ON],H66,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <f>J65+COUNTIFS(Issues[CLOSED ON],H66,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G67">
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52">
         <v>52</v>
       </c>
-      <c r="H67" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I67">
-        <f>I66+COUNTIFS(Issues[OPENED ON],H67,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <f>J66+COUNTIFS(Issues[CLOSED ON],H67,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G68">
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53">
         <v>53</v>
       </c>
-      <c r="H68" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I68">
-        <f>I67+COUNTIFS(Issues[OPENED ON],H68,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <f>J67+COUNTIFS(Issues[CLOSED ON],H68,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G69">
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54">
         <v>54</v>
       </c>
-      <c r="H69" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I69">
-        <f>I68+COUNTIFS(Issues[OPENED ON],H69,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <f>J68+COUNTIFS(Issues[CLOSED ON],H69,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G70">
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55">
         <v>55</v>
       </c>
-      <c r="H70" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I70">
-        <f>I69+COUNTIFS(Issues[OPENED ON],H70,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <f>J69+COUNTIFS(Issues[CLOSED ON],H70,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G71">
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56">
         <v>56</v>
       </c>
-      <c r="H71" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I71">
-        <f>I70+COUNTIFS(Issues[OPENED ON],H71,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <f>J70+COUNTIFS(Issues[CLOSED ON],H71,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G72">
-        <v>57</v>
-      </c>
-      <c r="H72" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I72">
-        <f>I71+COUNTIFS(Issues[OPENED ON],H72,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <f>J71+COUNTIFS(Issues[CLOSED ON],H72,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G73">
-        <v>58</v>
-      </c>
-      <c r="H73" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I73">
-        <f>I72+COUNTIFS(Issues[OPENED ON],H73,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <f>J72+COUNTIFS(Issues[CLOSED ON],H73,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G74">
-        <v>59</v>
-      </c>
-      <c r="H74" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I74">
-        <f>I73+COUNTIFS(Issues[OPENED ON],H74,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <f>J73+COUNTIFS(Issues[CLOSED ON],H74,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G75">
-        <v>60</v>
-      </c>
-      <c r="H75" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I75">
-        <f>I74+COUNTIFS(Issues[OPENED ON],H75,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <f>J74+COUNTIFS(Issues[CLOSED ON],H75,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G76">
-        <v>61</v>
-      </c>
-      <c r="H76" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I76">
-        <f>I75+COUNTIFS(Issues[OPENED ON],H76,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <f>J75+COUNTIFS(Issues[CLOSED ON],H76,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G77">
-        <v>62</v>
-      </c>
-      <c r="H77" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I77">
-        <f>I76+COUNTIFS(Issues[OPENED ON],H77,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <f>J76+COUNTIFS(Issues[CLOSED ON],H77,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G78">
-        <v>63</v>
-      </c>
-      <c r="H78" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I78">
-        <f>I77+COUNTIFS(Issues[OPENED ON],H78,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <f>J77+COUNTIFS(Issues[CLOSED ON],H78,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G79">
-        <v>64</v>
-      </c>
-      <c r="H79" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I79">
-        <f>I78+COUNTIFS(Issues[OPENED ON],H79,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <f>J78+COUNTIFS(Issues[CLOSED ON],H79,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G80">
-        <v>65</v>
-      </c>
-      <c r="H80" s="1" t="e">
-        <f t="shared" ref="H80" si="2">keydate-days+G80</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I80">
-        <f>I79+COUNTIFS(Issues[OPENED ON],H80,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <f>J79+COUNTIFS(Issues[CLOSED ON],H80,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>84</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>85</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>86</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>87</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>88</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>89</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>90</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>91</v>
+      </c>
+      <c r="E64" s="3"/>
     </row>
   </sheetData>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Number in this column under this heading. Use heading filters to find specific entries" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Issue description in this column under this heading" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Type in this column under this heading" sqref="C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Priority in this column under this heading" sqref="D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Opening Date in this column under this heading" sqref="E1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Opened By name in this column under this heading" sqref="F1"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
@@ -3626,7 +2702,733 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45607</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45608</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45609</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45610</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45611</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45612</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45613</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45614</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45615</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>84</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>85</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>86</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>87</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>88</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>89</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>90</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>91</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Opened By name in this column under this heading" sqref="F1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Opening Date in this column under this heading" sqref="E1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Priority in this column under this heading" sqref="D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Type in this column under this heading" sqref="C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Issue description in this column under this heading" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Number in this column under this heading. Use heading filters to find specific entries" sqref="A1"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="39.08203125" customWidth="1"/>
+    <col min="3" max="6" width="18.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -4332,12 +4134,2463 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:T80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="14" max="15" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <f ca="1">DATE((YEAR(TODAY())-1),1,1)</f>
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" t="e">
+        <f>'Issue Tracker'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1" t="e">
+        <f>'Issue Tracker'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N8">
+        <f ca="1">COUNT(typesUnsorted)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="e">
+        <f>'Issue Tracker'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" t="e">
+        <f>'Issue Tracker'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="N12" t="e">
+        <f ca="1">OFFSET($N$16,,,$N$13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O12" t="e">
+        <f ca="1">OFFSET($O$16,,,$O$13)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="N13">
+        <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <f>COUNTA(O16:O45)-COUNTIF(O16:O45,NA())</f>
+        <v>3</v>
+      </c>
+      <c r="S13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="31" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" t="s">
+        <v>9</v>
+      </c>
+      <c r="S14" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="N15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="e">
+        <f t="shared" ref="H16:H47" si="0">keydate-days+G16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I16">
+        <f>I15+COUNTIFS(Issues[OPENED ON],H16,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f>J15+COUNTIFS(Issues[CLOSED ON],H16,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="array" ref="N16">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N15, Issues[TYPE]),0))</f>
+        <v>Type 2</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="array" ref="O16">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O15,Issues[PRIORITY]),0))</f>
+        <v>High</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="array" aca="1" ref="S16" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(1:1)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>*</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="array" aca="1" ref="T16" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(1:1)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="17" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I17">
+        <f>I16+COUNTIFS(Issues[OPENED ON],H17,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f>J16+COUNTIFS(Issues[CLOSED ON],H17,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="array" ref="N17">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N16, Issues[TYPE]),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="array" ref="O17">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O16,Issues[PRIORITY]),0))</f>
+        <v>Medium</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="array" aca="1" ref="S17" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(2:2)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>*</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="array" aca="1" ref="T17" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(2:2)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="18" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I18">
+        <f>I17+COUNTIFS(Issues[OPENED ON],H18,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f>J17+COUNTIFS(Issues[CLOSED ON],H18,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" t="e">
+        <f t="array" ref="N18">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N17, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O18">
+        <f t="array" ref="O18">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O17,Issues[PRIORITY]),0))</f>
+        <v>0</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="array" aca="1" ref="S18" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(3:3)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>Type 2</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="array" aca="1" ref="T18" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(3:3)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="19" spans="7:20" ht="31" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I19">
+        <f>I18+COUNTIFS(Issues[OPENED ON],H19,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>J18+COUNTIFS(Issues[CLOSED ON],H19,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" t="e">
+        <f t="array" ref="N19">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N18, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O19" t="e">
+        <f t="array" ref="O19">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O18,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S19" t="e">
+        <f t="array" aca="1" ref="S19" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(4:4)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="array" aca="1" ref="T19" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(4:4)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="20" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I20">
+        <f>I19+COUNTIFS(Issues[OPENED ON],H20,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>J19+COUNTIFS(Issues[CLOSED ON],H20,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" t="e">
+        <f t="array" ref="N20">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N19, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O20" t="e">
+        <f t="array" ref="O20">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O19,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S20" t="e">
+        <f t="array" aca="1" ref="S20" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(5:5)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T20" t="e">
+        <f t="array" aca="1" ref="T20" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(5:5)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="21" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I21">
+        <f>I20+COUNTIFS(Issues[OPENED ON],H21,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f>J20+COUNTIFS(Issues[CLOSED ON],H21,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" t="e">
+        <f t="array" ref="N21">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N20, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O21" t="e">
+        <f t="array" ref="O21">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O20,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S21" t="e">
+        <f t="array" aca="1" ref="S21" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(6:6)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T21" t="e">
+        <f t="array" aca="1" ref="T21" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(6:6)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="22" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I22">
+        <f>I21+COUNTIFS(Issues[OPENED ON],H22,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f>J21+COUNTIFS(Issues[CLOSED ON],H22,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" t="e">
+        <f t="array" ref="N22">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N21, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O22" t="e">
+        <f t="array" ref="O22">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O21,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S22" t="e">
+        <f t="array" aca="1" ref="S22" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(7:7)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T22" t="e">
+        <f t="array" aca="1" ref="T22" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(7:7)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="23" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I23">
+        <f>I22+COUNTIFS(Issues[OPENED ON],H23,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>J22+COUNTIFS(Issues[CLOSED ON],H23,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" t="e">
+        <f t="array" ref="N23">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N22, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O23" t="e">
+        <f t="array" ref="O23">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O22,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S23" t="e">
+        <f t="array" aca="1" ref="S23" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(8:8)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T23" t="e">
+        <f t="array" aca="1" ref="T23" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(8:8)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="24" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G24">
+        <v>9</v>
+      </c>
+      <c r="H24" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I24">
+        <f>I23+COUNTIFS(Issues[OPENED ON],H24,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f>J23+COUNTIFS(Issues[CLOSED ON],H24,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" t="e">
+        <f t="array" ref="N24">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N23, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O24" t="e">
+        <f t="array" ref="O24">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O23,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S24" t="e">
+        <f t="array" aca="1" ref="S24" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(9:9)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T24" t="e">
+        <f t="array" aca="1" ref="T24" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(9:9)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="25" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I25">
+        <f>I24+COUNTIFS(Issues[OPENED ON],H25,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f>J24+COUNTIFS(Issues[CLOSED ON],H25,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" t="e">
+        <f t="array" ref="N25">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N24, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O25" t="e">
+        <f t="array" ref="O25">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O24,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S25" t="e">
+        <f t="array" aca="1" ref="S25" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(10:10)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T25" t="e">
+        <f t="array" aca="1" ref="T25" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(10:10)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="26" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G26">
+        <v>11</v>
+      </c>
+      <c r="H26" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I26">
+        <f>I25+COUNTIFS(Issues[OPENED ON],H26,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>J25+COUNTIFS(Issues[CLOSED ON],H26,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" t="e">
+        <f t="array" ref="N26">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N25, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O26" t="e">
+        <f t="array" ref="O26">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O25,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S26" t="e">
+        <f t="array" aca="1" ref="S26" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(11:11)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T26" t="e">
+        <f t="array" aca="1" ref="T26" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(11:11)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="27" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G27">
+        <v>12</v>
+      </c>
+      <c r="H27" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I27">
+        <f>I26+COUNTIFS(Issues[OPENED ON],H27,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f>J26+COUNTIFS(Issues[CLOSED ON],H27,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" t="e">
+        <f t="array" ref="N27">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N26, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O27" t="e">
+        <f t="array" ref="O27">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O26,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S27" t="e">
+        <f t="array" aca="1" ref="S27" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(12:12)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T27" t="e">
+        <f t="array" aca="1" ref="T27" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(12:12)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="28" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G28">
+        <v>13</v>
+      </c>
+      <c r="H28" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I28">
+        <f>I27+COUNTIFS(Issues[OPENED ON],H28,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f>J27+COUNTIFS(Issues[CLOSED ON],H28,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" t="e">
+        <f t="array" ref="N28">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N27, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O28" t="e">
+        <f t="array" ref="O28">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O27,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S28" t="e">
+        <f t="array" aca="1" ref="S28" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(13:13)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T28" t="e">
+        <f t="array" aca="1" ref="T28" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(13:13)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="29" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G29">
+        <v>14</v>
+      </c>
+      <c r="H29" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I29">
+        <f>I28+COUNTIFS(Issues[OPENED ON],H29,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f>J28+COUNTIFS(Issues[CLOSED ON],H29,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N29" t="e">
+        <f t="array" ref="N29">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N28, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O29" t="e">
+        <f t="array" ref="O29">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O28,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S29" t="e">
+        <f t="array" aca="1" ref="S29" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(14:14)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T29" t="e">
+        <f t="array" aca="1" ref="T29" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(14:14)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="30" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G30">
+        <v>15</v>
+      </c>
+      <c r="H30" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I30">
+        <f>I29+COUNTIFS(Issues[OPENED ON],H30,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f>J29+COUNTIFS(Issues[CLOSED ON],H30,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" t="e">
+        <f t="array" ref="N30">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N29, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O30" t="e">
+        <f t="array" ref="O30">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O29,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S30" t="e">
+        <f t="array" aca="1" ref="S30" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(15:15)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T30" t="e">
+        <f t="array" aca="1" ref="T30" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(15:15)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="31" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G31">
+        <v>16</v>
+      </c>
+      <c r="H31" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I31">
+        <f>I30+COUNTIFS(Issues[OPENED ON],H31,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>J30+COUNTIFS(Issues[CLOSED ON],H31,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" t="e">
+        <f t="array" ref="N31">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N30, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O31" t="e">
+        <f t="array" ref="O31">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O30,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S31" t="e">
+        <f t="array" aca="1" ref="S31" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(16:16)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T31" t="e">
+        <f t="array" aca="1" ref="T31" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(16:16)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="32" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G32">
+        <v>17</v>
+      </c>
+      <c r="H32" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I32">
+        <f>I31+COUNTIFS(Issues[OPENED ON],H32,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f>J31+COUNTIFS(Issues[CLOSED ON],H32,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" t="e">
+        <f t="array" ref="N32">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N31, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O32" t="e">
+        <f t="array" ref="O32">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O31,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S32" t="e">
+        <f t="array" aca="1" ref="S32" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(17:17)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T32" t="e">
+        <f t="array" aca="1" ref="T32" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(17:17)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="33" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G33">
+        <v>18</v>
+      </c>
+      <c r="H33" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I33">
+        <f>I32+COUNTIFS(Issues[OPENED ON],H33,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f>J32+COUNTIFS(Issues[CLOSED ON],H33,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" t="e">
+        <f t="array" ref="N33">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N32, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O33" t="e">
+        <f t="array" ref="O33">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O32,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S33" t="e">
+        <f t="array" aca="1" ref="S33" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(18:18)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T33" t="e">
+        <f t="array" aca="1" ref="T33" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(18:18)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="34" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G34">
+        <v>19</v>
+      </c>
+      <c r="H34" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I34">
+        <f>I33+COUNTIFS(Issues[OPENED ON],H34,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f>J33+COUNTIFS(Issues[CLOSED ON],H34,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" t="e">
+        <f t="array" ref="N34">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N33, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O34" t="e">
+        <f t="array" ref="O34">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O33,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S34" t="e">
+        <f t="array" aca="1" ref="S34" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(19:19)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T34" t="e">
+        <f t="array" aca="1" ref="T34" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(19:19)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="35" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G35">
+        <v>20</v>
+      </c>
+      <c r="H35" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I35">
+        <f>I34+COUNTIFS(Issues[OPENED ON],H35,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f>J34+COUNTIFS(Issues[CLOSED ON],H35,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" t="e">
+        <f t="array" ref="N35">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N34, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O35" t="e">
+        <f t="array" ref="O35">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O34,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S35" t="e">
+        <f t="array" aca="1" ref="S35" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(20:20)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T35" t="e">
+        <f t="array" aca="1" ref="T35" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(20:20)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="36" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G36">
+        <v>21</v>
+      </c>
+      <c r="H36" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I36">
+        <f>I35+COUNTIFS(Issues[OPENED ON],H36,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f>J35+COUNTIFS(Issues[CLOSED ON],H36,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" t="e">
+        <f t="array" ref="N36">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N35, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O36" t="e">
+        <f t="array" ref="O36">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O35,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S36" t="e">
+        <f t="array" aca="1" ref="S36" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(21:21)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T36" t="e">
+        <f t="array" aca="1" ref="T36" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(21:21)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="37" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G37">
+        <v>22</v>
+      </c>
+      <c r="H37" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I37">
+        <f>I36+COUNTIFS(Issues[OPENED ON],H37,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f>J36+COUNTIFS(Issues[CLOSED ON],H37,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N37" t="e">
+        <f t="array" ref="N37">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N36, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O37" t="e">
+        <f t="array" ref="O37">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O36,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S37" t="e">
+        <f t="array" aca="1" ref="S37" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(22:22)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T37" t="e">
+        <f t="array" aca="1" ref="T37" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(22:22)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="38" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G38">
+        <v>23</v>
+      </c>
+      <c r="H38" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I38">
+        <f>I37+COUNTIFS(Issues[OPENED ON],H38,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f>J37+COUNTIFS(Issues[CLOSED ON],H38,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" t="e">
+        <f t="array" ref="N38">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N37, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O38" t="e">
+        <f t="array" ref="O38">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O37,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S38" t="e">
+        <f t="array" aca="1" ref="S38" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(23:23)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T38" t="e">
+        <f t="array" aca="1" ref="T38" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(23:23)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="39" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G39">
+        <v>24</v>
+      </c>
+      <c r="H39" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I39">
+        <f>I38+COUNTIFS(Issues[OPENED ON],H39,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f>J38+COUNTIFS(Issues[CLOSED ON],H39,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N39" t="e">
+        <f t="array" ref="N39">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N38, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O39" t="e">
+        <f t="array" ref="O39">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O38,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S39" t="e">
+        <f t="array" aca="1" ref="S39" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(24:24)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T39" t="e">
+        <f t="array" aca="1" ref="T39" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(24:24)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="40" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G40">
+        <v>25</v>
+      </c>
+      <c r="H40" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I40">
+        <f>I39+COUNTIFS(Issues[OPENED ON],H40,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f>J39+COUNTIFS(Issues[CLOSED ON],H40,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" t="e">
+        <f t="array" ref="N40">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N39, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O40" t="e">
+        <f t="array" ref="O40">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O39,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S40" t="e">
+        <f t="array" aca="1" ref="S40" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(25:25)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T40" t="e">
+        <f t="array" aca="1" ref="T40" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(25:25)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="41" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G41">
+        <v>26</v>
+      </c>
+      <c r="H41" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I41">
+        <f>I40+COUNTIFS(Issues[OPENED ON],H41,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f>J40+COUNTIFS(Issues[CLOSED ON],H41,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" t="e">
+        <f t="array" ref="N41">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N40, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O41" t="e">
+        <f t="array" ref="O41">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O40,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S41" t="e">
+        <f t="array" aca="1" ref="S41" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(26:26)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T41" t="e">
+        <f t="array" aca="1" ref="T41" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(26:26)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="42" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G42">
+        <v>27</v>
+      </c>
+      <c r="H42" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I42">
+        <f>I41+COUNTIFS(Issues[OPENED ON],H42,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f>J41+COUNTIFS(Issues[CLOSED ON],H42,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" t="e">
+        <f t="array" ref="N42">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N41, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O42" t="e">
+        <f t="array" ref="O42">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O41,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S42" t="e">
+        <f t="array" aca="1" ref="S42" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(27:27)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T42" t="e">
+        <f t="array" aca="1" ref="T42" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(27:27)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="43" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G43">
+        <v>28</v>
+      </c>
+      <c r="H43" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I43">
+        <f>I42+COUNTIFS(Issues[OPENED ON],H43,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f>J42+COUNTIFS(Issues[CLOSED ON],H43,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N43" t="e">
+        <f t="array" ref="N43">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N42, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O43" t="e">
+        <f t="array" ref="O43">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O42,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S43" t="e">
+        <f t="array" aca="1" ref="S43" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(28:28)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T43" t="e">
+        <f t="array" aca="1" ref="T43" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(28:28)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="44" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G44">
+        <v>29</v>
+      </c>
+      <c r="H44" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I44">
+        <f>I43+COUNTIFS(Issues[OPENED ON],H44,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f>J43+COUNTIFS(Issues[CLOSED ON],H44,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" t="e">
+        <f t="array" ref="N44">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N43, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O44" t="e">
+        <f t="array" ref="O44">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O43,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S44" t="e">
+        <f t="array" aca="1" ref="S44" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(29:29)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T44" t="e">
+        <f t="array" aca="1" ref="T44" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(29:29)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="45" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G45">
+        <v>30</v>
+      </c>
+      <c r="H45" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I45">
+        <f>I44+COUNTIFS(Issues[OPENED ON],H45,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f>J44+COUNTIFS(Issues[CLOSED ON],H45,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="N45" t="e">
+        <f t="array" ref="N45">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N44, Issues[TYPE]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O45" t="e">
+        <f t="array" ref="O45">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O44,Issues[PRIORITY]),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S45" t="e">
+        <f t="array" aca="1" ref="S45" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(30:30)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T45" t="e">
+        <f t="array" aca="1" ref="T45" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(30:30)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="46" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G46">
+        <v>31</v>
+      </c>
+      <c r="H46" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I46">
+        <f>I45+COUNTIFS(Issues[OPENED ON],H46,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f>J45+COUNTIFS(Issues[CLOSED ON],H46,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G47">
+        <v>32</v>
+      </c>
+      <c r="H47" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I47">
+        <f>I46+COUNTIFS(Issues[OPENED ON],H47,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f>J46+COUNTIFS(Issues[CLOSED ON],H47,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="G48">
+        <v>33</v>
+      </c>
+      <c r="H48" s="1" t="e">
+        <f t="shared" ref="H48:H79" si="1">keydate-days+G48</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I48">
+        <f>I47+COUNTIFS(Issues[OPENED ON],H48,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f>J47+COUNTIFS(Issues[CLOSED ON],H48,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G49">
+        <v>34</v>
+      </c>
+      <c r="H49" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I49">
+        <f>I48+COUNTIFS(Issues[OPENED ON],H49,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <f>J48+COUNTIFS(Issues[CLOSED ON],H49,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G50">
+        <v>35</v>
+      </c>
+      <c r="H50" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I50">
+        <f>I49+COUNTIFS(Issues[OPENED ON],H50,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f>J49+COUNTIFS(Issues[CLOSED ON],H50,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G51">
+        <v>36</v>
+      </c>
+      <c r="H51" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I51">
+        <f>I50+COUNTIFS(Issues[OPENED ON],H51,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f>J50+COUNTIFS(Issues[CLOSED ON],H51,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G52">
+        <v>37</v>
+      </c>
+      <c r="H52" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I52">
+        <f>I51+COUNTIFS(Issues[OPENED ON],H52,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f>J51+COUNTIFS(Issues[CLOSED ON],H52,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G53">
+        <v>38</v>
+      </c>
+      <c r="H53" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I53">
+        <f>I52+COUNTIFS(Issues[OPENED ON],H53,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f>J52+COUNTIFS(Issues[CLOSED ON],H53,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G54">
+        <v>39</v>
+      </c>
+      <c r="H54" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I54">
+        <f>I53+COUNTIFS(Issues[OPENED ON],H54,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f>J53+COUNTIFS(Issues[CLOSED ON],H54,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G55">
+        <v>40</v>
+      </c>
+      <c r="H55" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I55">
+        <f>I54+COUNTIFS(Issues[OPENED ON],H55,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f>J54+COUNTIFS(Issues[CLOSED ON],H55,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G56">
+        <v>41</v>
+      </c>
+      <c r="H56" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I56">
+        <f>I55+COUNTIFS(Issues[OPENED ON],H56,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f>J55+COUNTIFS(Issues[CLOSED ON],H56,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G57">
+        <v>42</v>
+      </c>
+      <c r="H57" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I57">
+        <f>I56+COUNTIFS(Issues[OPENED ON],H57,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <f>J56+COUNTIFS(Issues[CLOSED ON],H57,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G58">
+        <v>43</v>
+      </c>
+      <c r="H58" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I58">
+        <f>I57+COUNTIFS(Issues[OPENED ON],H58,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f>J57+COUNTIFS(Issues[CLOSED ON],H58,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G59">
+        <v>44</v>
+      </c>
+      <c r="H59" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I59">
+        <f>I58+COUNTIFS(Issues[OPENED ON],H59,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f>J58+COUNTIFS(Issues[CLOSED ON],H59,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G60">
+        <v>45</v>
+      </c>
+      <c r="H60" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I60">
+        <f>I59+COUNTIFS(Issues[OPENED ON],H60,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <f>J59+COUNTIFS(Issues[CLOSED ON],H60,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G61">
+        <v>46</v>
+      </c>
+      <c r="H61" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I61">
+        <f>I60+COUNTIFS(Issues[OPENED ON],H61,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <f>J60+COUNTIFS(Issues[CLOSED ON],H61,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G62">
+        <v>47</v>
+      </c>
+      <c r="H62" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I62">
+        <f>I61+COUNTIFS(Issues[OPENED ON],H62,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <f>J61+COUNTIFS(Issues[CLOSED ON],H62,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G63">
+        <v>48</v>
+      </c>
+      <c r="H63" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I63">
+        <f>I62+COUNTIFS(Issues[OPENED ON],H63,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <f>J62+COUNTIFS(Issues[CLOSED ON],H63,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G64">
+        <v>49</v>
+      </c>
+      <c r="H64" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I64">
+        <f>I63+COUNTIFS(Issues[OPENED ON],H64,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <f>J63+COUNTIFS(Issues[CLOSED ON],H64,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G65">
+        <v>50</v>
+      </c>
+      <c r="H65" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I65">
+        <f>I64+COUNTIFS(Issues[OPENED ON],H65,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <f>J64+COUNTIFS(Issues[CLOSED ON],H65,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G66">
+        <v>51</v>
+      </c>
+      <c r="H66" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I66">
+        <f>I65+COUNTIFS(Issues[OPENED ON],H66,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <f>J65+COUNTIFS(Issues[CLOSED ON],H66,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G67">
+        <v>52</v>
+      </c>
+      <c r="H67" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I67">
+        <f>I66+COUNTIFS(Issues[OPENED ON],H67,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <f>J66+COUNTIFS(Issues[CLOSED ON],H67,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G68">
+        <v>53</v>
+      </c>
+      <c r="H68" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I68">
+        <f>I67+COUNTIFS(Issues[OPENED ON],H68,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f>J67+COUNTIFS(Issues[CLOSED ON],H68,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G69">
+        <v>54</v>
+      </c>
+      <c r="H69" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I69">
+        <f>I68+COUNTIFS(Issues[OPENED ON],H69,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <f>J68+COUNTIFS(Issues[CLOSED ON],H69,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G70">
+        <v>55</v>
+      </c>
+      <c r="H70" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I70">
+        <f>I69+COUNTIFS(Issues[OPENED ON],H70,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <f>J69+COUNTIFS(Issues[CLOSED ON],H70,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G71">
+        <v>56</v>
+      </c>
+      <c r="H71" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I71">
+        <f>I70+COUNTIFS(Issues[OPENED ON],H71,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f>J70+COUNTIFS(Issues[CLOSED ON],H71,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G72">
+        <v>57</v>
+      </c>
+      <c r="H72" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I72">
+        <f>I71+COUNTIFS(Issues[OPENED ON],H72,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f>J71+COUNTIFS(Issues[CLOSED ON],H72,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G73">
+        <v>58</v>
+      </c>
+      <c r="H73" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I73">
+        <f>I72+COUNTIFS(Issues[OPENED ON],H73,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f>J72+COUNTIFS(Issues[CLOSED ON],H73,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G74">
+        <v>59</v>
+      </c>
+      <c r="H74" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I74">
+        <f>I73+COUNTIFS(Issues[OPENED ON],H74,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <f>J73+COUNTIFS(Issues[CLOSED ON],H74,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G75">
+        <v>60</v>
+      </c>
+      <c r="H75" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I75">
+        <f>I74+COUNTIFS(Issues[OPENED ON],H75,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <f>J74+COUNTIFS(Issues[CLOSED ON],H75,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G76">
+        <v>61</v>
+      </c>
+      <c r="H76" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I76">
+        <f>I75+COUNTIFS(Issues[OPENED ON],H76,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <f>J75+COUNTIFS(Issues[CLOSED ON],H76,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G77">
+        <v>62</v>
+      </c>
+      <c r="H77" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I77">
+        <f>I76+COUNTIFS(Issues[OPENED ON],H77,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f>J76+COUNTIFS(Issues[CLOSED ON],H77,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G78">
+        <v>63</v>
+      </c>
+      <c r="H78" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I78">
+        <f>I77+COUNTIFS(Issues[OPENED ON],H78,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f>J77+COUNTIFS(Issues[CLOSED ON],H78,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G79">
+        <v>64</v>
+      </c>
+      <c r="H79" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I79">
+        <f>I78+COUNTIFS(Issues[OPENED ON],H79,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <f>J78+COUNTIFS(Issues[CLOSED ON],H79,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G80">
+        <v>65</v>
+      </c>
+      <c r="H80" s="1" t="e">
+        <f t="shared" ref="H80" si="2">keydate-days+G80</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I80">
+        <f>I79+COUNTIFS(Issues[OPENED ON],H80,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <f>J79+COUNTIFS(Issues[CLOSED ON],H80,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45607</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45608</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45609</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45610</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45611</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45612</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45613</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45614</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45615</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>84</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>85</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>86</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>87</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>88</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>89</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>90</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>91</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Opened By name in this column under this heading" sqref="F1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Opening Date in this column under this heading" sqref="E1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Priority in this column under this heading" sqref="D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Type in this column under this heading" sqref="C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Issue description in this column under this heading" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Number in this column under this heading. Use heading filters to find specific entries" sqref="A1"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:F64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4352,7 +6605,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -5063,7 +7316,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:F64"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5078,7 +7331,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -5789,735 +8042,6 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="26.08203125" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3">
-        <v>45607</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3">
-        <v>45608</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3">
-        <v>45609</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3">
-        <v>45610</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3">
-        <v>45611</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3">
-        <v>45612</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>45613</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3">
-        <v>45614</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3">
-        <v>45615</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>41</v>
-      </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>42</v>
-      </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>43</v>
-      </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>44</v>
-      </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>45</v>
-      </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>46</v>
-      </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>47</v>
-      </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>48</v>
-      </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>49</v>
-      </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>50</v>
-      </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>51</v>
-      </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>52</v>
-      </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>53</v>
-      </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>54</v>
-      </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>55</v>
-      </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>56</v>
-      </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>84</v>
-      </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>85</v>
-      </c>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>86</v>
-      </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>87</v>
-      </c>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>88</v>
-      </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>89</v>
-      </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>90</v>
-      </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>91</v>
-      </c>
-      <c r="E64" s="3"/>
-    </row>
-  </sheetData>
-  <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Opened By name in this column under this heading" sqref="F1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Opening Date in this column under this heading" sqref="E1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Priority in this column under this heading" sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Type in this column under this heading" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Issue description in this column under this heading" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Number in this column under this heading. Use heading filters to find specific entries" sqref="A1"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7231,6 +8755,732 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Type in this column under this heading" sqref="C1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Issue description in this column under this heading" sqref="B1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Number in this column under this heading. Use heading filters to find specific entries" sqref="A1"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="39.08203125" customWidth="1"/>
+    <col min="3" max="6" width="18.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45607</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45608</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45609</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45610</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45611</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45612</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45613</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45614</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45615</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>84</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>85</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>86</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>87</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>88</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>89</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>90</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>91</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Number in this column under this heading. Use heading filters to find specific entries" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Issue description in this column under this heading" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Type in this column under this heading" sqref="C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Priority in this column under this heading" sqref="D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Opening Date in this column under this heading" sqref="E1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Opened By name in this column under this heading" sqref="F1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7259,7 +9509,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -7969,6 +10219,735 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="26.08203125" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45607</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45608</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45609</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45610</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45611</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45612</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45613</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45614</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45615</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>84</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>85</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>86</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>87</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>88</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>89</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>90</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>91</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Opened By name in this column under this heading" sqref="F1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Opening Date in this column under this heading" sqref="E1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Priority in this column under this heading" sqref="D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Type in this column under this heading" sqref="C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Issue description in this column under this heading" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Number in this column under this heading. Use heading filters to find specific entries" sqref="A1"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
@@ -7985,7 +10964,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -8689,730 +11668,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
-    <col min="2" max="2" width="39.08203125" customWidth="1"/>
-    <col min="3" max="6" width="18.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3">
-        <v>45607</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3">
-        <v>45608</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3">
-        <v>45609</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3">
-        <v>45610</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3">
-        <v>45611</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3">
-        <v>45612</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>45613</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3">
-        <v>45614</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3">
-        <v>45615</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>41</v>
-      </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>42</v>
-      </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>43</v>
-      </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>44</v>
-      </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>45</v>
-      </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>46</v>
-      </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>47</v>
-      </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>48</v>
-      </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>49</v>
-      </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>50</v>
-      </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>51</v>
-      </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>52</v>
-      </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>53</v>
-      </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>54</v>
-      </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>55</v>
-      </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>56</v>
-      </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>84</v>
-      </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>85</v>
-      </c>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>86</v>
-      </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>87</v>
-      </c>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>88</v>
-      </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>89</v>
-      </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>90</v>
-      </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>91</v>
-      </c>
-      <c r="E64" s="3"/>
-    </row>
-  </sheetData>
-  <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Number in this column under this heading. Use heading filters to find specific entries" sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Issue description in this column under this heading" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Type in this column under this heading" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Priority in this column under this heading" sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Opening Date in this column under this heading" sqref="E1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Opened By name in this column under this heading" sqref="F1"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/client/src/assets/tracker/task tracker.xlsx
+++ b/client/src/assets/tracker/task tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="896" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="896" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="69">
   <si>
     <t>Type</t>
   </si>
@@ -235,9 +235,6 @@
     <t>Media URL</t>
   </si>
   <si>
-    <t>Books Name</t>
-  </si>
-  <si>
     <t>Images Data</t>
   </si>
   <si>
@@ -263,6 +260,15 @@
   </si>
   <si>
     <t>Donation Us Details</t>
+  </si>
+  <si>
+    <t>Book Name</t>
+  </si>
+  <si>
+    <t>Books Categories</t>
+  </si>
+  <si>
+    <t>Author Name</t>
   </si>
 </sst>
 </file>
@@ -650,11 +656,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Issues36" displayName="Issues36" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
-  <autoFilter ref="A1:F64"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Issues36" displayName="Issues36" ref="A1:H64" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A1:H64"/>
+  <tableColumns count="8">
     <tableColumn id="10" name="#" dataCellStyle="Normal"/>
-    <tableColumn id="1" name="Books Name" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Books Categories" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Book Name"/>
+    <tableColumn id="7" name="Author Name"/>
     <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
     <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
     <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
@@ -1976,7 +1984,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -2702,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -3428,7 +3436,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -5860,7 +5868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5879,7 +5887,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -6587,722 +6595,729 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.25" customWidth="1"/>
     <col min="2" max="2" width="39.08203125" customWidth="1"/>
-    <col min="3" max="6" width="18.08203125" customWidth="1"/>
+    <col min="3" max="4" width="21.08203125" customWidth="1"/>
+    <col min="5" max="8" width="18.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3">
         <v>45607</v>
       </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3">
         <v>45608</v>
       </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3">
         <v>45609</v>
       </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3">
         <v>45610</v>
       </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3">
         <v>45611</v>
       </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3">
         <v>45612</v>
       </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3">
         <v>45613</v>
       </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3">
         <v>45614</v>
       </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3">
         <v>45615</v>
       </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3">
         <v>45731</v>
       </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="3">
         <v>45731</v>
       </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3">
         <v>45731</v>
       </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="3">
         <v>45731</v>
       </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="3">
         <v>45731</v>
       </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3">
         <v>45731</v>
       </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="3">
-        <v>45619</v>
+      <c r="E17" t="s">
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="G17" s="3">
+        <v>45619</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="3">
-        <v>45619</v>
+      <c r="E18" t="s">
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45619</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="3">
-        <v>45619</v>
+      <c r="E19" t="s">
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3">
+        <v>45619</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="3">
-        <v>45619</v>
+      <c r="E20" t="s">
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45619</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="3">
-        <v>45619</v>
+      <c r="E21" t="s">
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="G21" s="3">
+        <v>45619</v>
+      </c>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3">
-        <v>45619</v>
+      <c r="E22" t="s">
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45619</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="3">
-        <v>45619</v>
+      <c r="E23" t="s">
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="G23" s="3">
+        <v>45619</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="3">
-        <v>45619</v>
+      <c r="E24" t="s">
+        <v>14</v>
       </c>
       <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="3">
+        <v>45619</v>
+      </c>
+      <c r="H24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="3">
-        <v>45619</v>
+      <c r="E25" t="s">
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="G25" s="3">
+        <v>45619</v>
+      </c>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="3">
-        <v>45619</v>
+      <c r="E26" t="s">
+        <v>14</v>
       </c>
       <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45619</v>
+      </c>
+      <c r="H26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="3">
-        <v>45619</v>
+      <c r="E27" t="s">
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="G27" s="3">
+        <v>45619</v>
+      </c>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="3">
         <v>45731</v>
       </c>
-      <c r="F28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>29</v>
       </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>30</v>
       </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>31</v>
       </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>32</v>
       </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>33</v>
       </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>34</v>
       </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>35</v>
       </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>36</v>
       </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>37</v>
       </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>38</v>
       </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>39</v>
       </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>40</v>
       </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>41</v>
       </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>42</v>
       </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>43</v>
       </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>44</v>
       </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>45</v>
       </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>46</v>
       </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>47</v>
       </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>48</v>
       </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>49</v>
       </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>50</v>
       </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>51</v>
       </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>52</v>
       </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>53</v>
       </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>54</v>
       </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>55</v>
       </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>56</v>
       </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>84</v>
       </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>85</v>
       </c>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>86</v>
       </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>87</v>
       </c>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>88</v>
       </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>89</v>
       </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>90</v>
       </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>91</v>
       </c>
-      <c r="E64" s="3"/>
+      <c r="G64" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Number in this column under this heading. Use heading filters to find specific entries" sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Issue description in this column under this heading" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Type in this column under this heading" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Priority in this column under this heading" sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Opening Date in this column under this heading" sqref="E1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Opened By name in this column under this heading" sqref="F1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Issue description in this column under this heading" sqref="B1:D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Type in this column under this heading" sqref="E1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Priority in this column under this heading" sqref="F1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Opening Date in this column under this heading" sqref="G1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Opened By name in this column under this heading" sqref="H1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7331,7 +7346,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -8783,7 +8798,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -9509,7 +9524,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -10237,7 +10252,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -10964,7 +10979,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>

--- a/client/src/assets/tracker/task tracker.xlsx
+++ b/client/src/assets/tracker/task tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="896" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="896"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
@@ -1006,7 +1006,7 @@
   </sheetPr>
   <dimension ref="B1:J64"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6597,7 +6597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/client/src/assets/tracker/task tracker.xlsx
+++ b/client/src/assets/tracker/task tracker.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="71">
   <si>
     <t>Type</t>
   </si>
@@ -193,9 +193,6 @@
     <t xml:space="preserve">need to improve mobile based menu </t>
   </si>
   <si>
-    <t xml:space="preserve">Light mode / Dark mode </t>
-  </si>
-  <si>
     <t>Home Page Design / Development</t>
   </si>
   <si>
@@ -269,6 +266,15 @@
   </si>
   <si>
     <t>Author Name</t>
+  </si>
+  <si>
+    <t>Light mode / Dark mode (create a reusable CSS class that defines properties like color, font-size, and font-family ,radius etc all in one place)</t>
+  </si>
+  <si>
+    <t>UI / UX Design based page</t>
+  </si>
+  <si>
+    <t>convert css file into scss for better code readabilty</t>
   </si>
 </sst>
 </file>
@@ -1006,8 +1012,8 @@
   </sheetPr>
   <dimension ref="B1:J64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1189,7 +1195,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1216,7 +1222,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1240,7 +1246,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1264,7 +1270,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1288,7 +1294,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1315,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1342,7 +1348,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1369,7 +1375,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1393,7 +1399,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1417,7 +1423,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -1600,7 +1606,7 @@
         <v>45619</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -1642,16 +1648,16 @@
         <v>45619</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -1672,7 +1678,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -1692,14 +1698,42 @@
       <c r="B29">
         <v>29</v>
       </c>
-      <c r="F29" s="3"/>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="3">
+        <v>45731</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>30</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="3">
+        <v>45731</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1984,7 +2018,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -2387,7 +2421,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2421,7 +2455,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2710,7 +2744,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -3113,7 +3147,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -3147,7 +3181,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -3436,7 +3470,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -3839,7 +3873,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -3873,7 +3907,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -5887,7 +5921,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -6290,7 +6324,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -6324,7 +6358,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -6614,13 +6648,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>17</v>
@@ -7023,7 +7057,7 @@
         <v>45619</v>
       </c>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -7057,7 +7091,7 @@
         <v>45619</v>
       </c>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -7346,7 +7380,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -7749,7 +7783,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -7783,7 +7817,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -8072,7 +8106,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -8475,7 +8509,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -8509,7 +8543,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -8798,7 +8832,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -9201,7 +9235,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -9235,7 +9269,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -9524,7 +9558,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -9927,7 +9961,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -9961,7 +9995,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -10252,7 +10286,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -10655,7 +10689,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -10689,7 +10723,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -10979,7 +11013,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -11382,7 +11416,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -11416,7 +11450,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">

--- a/client/src/assets/tracker/task tracker.xlsx
+++ b/client/src/assets/tracker/task tracker.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="74">
   <si>
     <t>Type</t>
   </si>
@@ -268,13 +268,22 @@
     <t>Author Name</t>
   </si>
   <si>
-    <t>Light mode / Dark mode (create a reusable CSS class that defines properties like color, font-size, and font-family ,radius etc all in one place)</t>
-  </si>
-  <si>
     <t>UI / UX Design based page</t>
   </si>
   <si>
     <t>convert css file into scss for better code readabilty</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Light / Dark features</t>
+  </si>
+  <si>
+    <t>website scrolling issues / Fit all content in same page without scrolling</t>
+  </si>
+  <si>
+    <t>centralized color , bg color , font-size and family etc</t>
   </si>
 </sst>
 </file>
@@ -1012,8 +1021,8 @@
   </sheetPr>
   <dimension ref="B1:J64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:G30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1657,7 +1666,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -1699,7 +1708,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
@@ -1720,7 +1729,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -1740,21 +1749,60 @@
       <c r="B31">
         <v>31</v>
       </c>
-      <c r="F31" s="3"/>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="3">
+        <v>45731</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>32</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="3">
+        <v>45731</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>33</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="3">
+        <v>45731</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -4263,7 +4311,7 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="N13">
         <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O13">
         <f>COUNTA(O16:O45)-COUNTIF(O16:O45,NA())</f>
@@ -4356,9 +4404,9 @@
         <f>J16+COUNTIFS(Issues[CLOSED ON],H17,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="str">
         <f t="array" ref="N17">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N16, Issues[TYPE]),0))</f>
-        <v>0</v>
+        <v>Bug</v>
       </c>
       <c r="O17" t="str">
         <f t="array" ref="O17">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O16,Issues[PRIORITY]),0))</f>
@@ -4389,9 +4437,9 @@
         <f>J17+COUNTIFS(Issues[CLOSED ON],H18,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
-      <c r="N18" t="e">
+      <c r="N18">
         <f t="array" ref="N18">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N17, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <f t="array" ref="O18">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O17,Issues[PRIORITY]),0))</f>
@@ -4399,7 +4447,7 @@
       </c>
       <c r="S18" t="str">
         <f t="array" aca="1" ref="S18" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(3:3)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Type 2</v>
+        <v>Bug</v>
       </c>
       <c r="T18" t="str">
         <f t="array" aca="1" ref="T18" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(3:3)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -4430,9 +4478,9 @@
         <f t="array" ref="O19">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O18,Issues[PRIORITY]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S19" t="e">
+      <c r="S19" t="str">
         <f t="array" aca="1" ref="S19" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(4:4)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
+        <v>Type 2</v>
       </c>
       <c r="T19" t="str">
         <f t="array" aca="1" ref="T19" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(4:4)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>

--- a/client/src/assets/tracker/task tracker.xlsx
+++ b/client/src/assets/tracker/task tracker.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="84">
   <si>
     <t>Type</t>
   </si>
@@ -190,9 +190,6 @@
     <t>code optimzation / security / UAT test</t>
   </si>
   <si>
-    <t xml:space="preserve">need to improve mobile based menu </t>
-  </si>
-  <si>
     <t>Home Page Design / Development</t>
   </si>
   <si>
@@ -284,6 +281,39 @@
   </si>
   <si>
     <t>centralized color , bg color , font-size and family etc</t>
+  </si>
+  <si>
+    <t>InProgress</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biography  content writing </t>
+  </si>
+  <si>
+    <t>Shabaz</t>
+  </si>
+  <si>
+    <t>Book  data Collection</t>
+  </si>
+  <si>
+    <t>AI Quran Data Collection</t>
+  </si>
+  <si>
+    <t>Media Data Collection ( Links Youtube )</t>
+  </si>
+  <si>
+    <t>Donation Data Collection ( Bank Data )</t>
+  </si>
+  <si>
+    <t>Product Owner</t>
+  </si>
+  <si>
+    <t>Ifthikar / Product Owner</t>
+  </si>
+  <si>
+    <t>Activities  Data and websites images Collection ( Lanagar khana  etc  )</t>
   </si>
 </sst>
 </file>
@@ -1021,8 +1051,8 @@
   </sheetPr>
   <dimension ref="B1:J64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1083,13 +1113,13 @@
       <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3">
@@ -1110,13 +1140,13 @@
       <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4">
@@ -1137,13 +1167,13 @@
       <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5">
@@ -1165,12 +1195,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6">
@@ -1192,19 +1217,14 @@
         <v>25</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1218,20 +1238,20 @@
       <c r="G7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I7" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1245,7 +1265,9 @@
       <c r="G8" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I8" t="s">
         <v>25</v>
       </c>
@@ -1255,7 +1277,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1269,7 +1291,9 @@
       <c r="G9" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I9" t="s">
         <v>25</v>
       </c>
@@ -1279,7 +1303,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1293,7 +1317,9 @@
       <c r="G10" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I10" t="s">
         <v>25</v>
       </c>
@@ -1303,7 +1329,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1317,12 +1343,11 @@
       <c r="G11" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I11" t="s">
         <v>25</v>
-      </c>
-      <c r="J11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1330,7 +1355,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1344,12 +1369,11 @@
       <c r="G12" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I12" t="s">
         <v>25</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1357,7 +1381,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1371,12 +1395,11 @@
       <c r="G13" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I13" t="s">
         <v>25</v>
-      </c>
-      <c r="J13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1384,7 +1407,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1398,7 +1421,9 @@
       <c r="G14" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I14" t="s">
         <v>25</v>
       </c>
@@ -1408,7 +1433,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1422,7 +1447,9 @@
       <c r="G15" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I15" t="s">
         <v>25</v>
       </c>
@@ -1432,7 +1459,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -1446,12 +1473,14 @@
       <c r="G16" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="I16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>16</v>
       </c>
@@ -1470,9 +1499,14 @@
       <c r="G17" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>17</v>
       </c>
@@ -1491,9 +1525,14 @@
       <c r="G18" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>18</v>
       </c>
@@ -1514,7 +1553,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>19</v>
       </c>
@@ -1535,7 +1574,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>20</v>
       </c>
@@ -1554,9 +1593,14 @@
       <c r="G21" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>21</v>
       </c>
@@ -1575,9 +1619,14 @@
       <c r="G22" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>22</v>
       </c>
@@ -1596,9 +1645,14 @@
       <c r="G23" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>23</v>
       </c>
@@ -1615,11 +1669,16 @@
         <v>45619</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>24</v>
       </c>
@@ -1638,9 +1697,14 @@
       <c r="G25" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>25</v>
       </c>
@@ -1657,16 +1721,21 @@
         <v>45619</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="2:8" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -1682,12 +1751,12 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -1703,12 +1772,12 @@
       </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
@@ -1724,12 +1793,12 @@
       </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -1745,15 +1814,15 @@
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
@@ -1766,15 +1835,15 @@
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
         <v>15</v>
@@ -1791,17 +1860,20 @@
       <c r="B33">
         <v>33</v>
       </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
         <v>15</v>
       </c>
       <c r="F33" s="3">
-        <v>45731</v>
+        <v>45619</v>
       </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="H33" s="3"/>
     </row>
@@ -1809,36 +1881,116 @@
       <c r="B34">
         <v>34</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="3">
+        <v>45619</v>
+      </c>
+      <c r="G34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="35" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>35</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="3">
+        <v>45619</v>
+      </c>
+      <c r="G35" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="36" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>36</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="3">
+        <v>45619</v>
+      </c>
+      <c r="G36" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="37" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>37</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="3">
+        <v>45619</v>
+      </c>
+      <c r="G37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="38" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>38</v>
       </c>
-      <c r="F38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="3">
+        <v>45619</v>
+      </c>
+      <c r="G38" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="39" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39">
@@ -2066,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -2469,7 +2621,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2503,7 +2655,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2792,7 +2944,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -3195,7 +3347,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -3229,7 +3381,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -3518,7 +3670,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -3921,7 +4073,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -3955,7 +4107,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -5969,7 +6121,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -6372,7 +6524,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -6406,7 +6558,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -6696,13 +6848,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>17</v>
@@ -7105,7 +7257,7 @@
         <v>45619</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -7139,7 +7291,7 @@
         <v>45619</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -7428,7 +7580,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -7831,7 +7983,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -7865,7 +8017,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -8154,7 +8306,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -8557,7 +8709,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -8591,7 +8743,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -8880,7 +9032,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -9283,7 +9435,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -9317,7 +9469,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -9606,7 +9758,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -10009,7 +10161,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -10043,7 +10195,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -10334,7 +10486,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -10737,7 +10889,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -10771,7 +10923,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -11061,7 +11213,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -11464,7 +11616,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -11498,7 +11650,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">

--- a/client/src/assets/tracker/task tracker.xlsx
+++ b/client/src/assets/tracker/task tracker.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="85">
   <si>
     <t>Type</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>Activities  Data and websites images Collection ( Lanagar khana  etc  )</t>
+  </si>
+  <si>
+    <t>Local DB setup</t>
   </si>
 </sst>
 </file>
@@ -1051,8 +1054,8 @@
   </sheetPr>
   <dimension ref="B1:J64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1996,8 +1999,24 @@
       <c r="B39">
         <v>39</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="3">
+        <v>45619</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="40" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40">

--- a/client/src/assets/tracker/task tracker.xlsx
+++ b/client/src/assets/tracker/task tracker.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="89">
   <si>
     <t>Type</t>
   </si>
@@ -244,9 +244,6 @@
     <t>About Us Details</t>
   </si>
   <si>
-    <t>Home Data</t>
-  </si>
-  <si>
     <t>Al Quran Data</t>
   </si>
   <si>
@@ -316,7 +313,23 @@
     <t>Activities  Data and websites images Collection ( Lanagar khana  etc  )</t>
   </si>
   <si>
-    <t>Local DB setup</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>11-11-2024</t>
+  </si>
+  <si>
+    <t>Local DB setup.
+create json database and angular sevices for all components</t>
   </si>
 </sst>
 </file>
@@ -466,7 +479,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -487,6 +500,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -684,15 +703,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Issues3611" displayName="Issues3611" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
-  <autoFilter ref="A1:F64"/>
-  <tableColumns count="6">
-    <tableColumn id="10" name="#" dataCellStyle="Normal"/>
-    <tableColumn id="1" name="Home Data" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
-    <tableColumn id="5" name="OPENED BY" dataCellStyle="Normal"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Issues3611" displayName="Issues3611" ref="A1:H64" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A1:H64"/>
+  <tableColumns count="8">
+    <tableColumn id="10" name="1" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="2" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="3" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="4" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Type 2" dataCellStyle="Date"/>
+    <tableColumn id="5" name="High" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="11-11-2024" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="Ramzan" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="Project Issue Tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1054,8 +1075,8 @@
   </sheetPr>
   <dimension ref="B1:J64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1477,7 +1498,7 @@
         <v>25</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s">
         <v>25</v>
@@ -1503,7 +1524,7 @@
         <v>25</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s">
         <v>25</v>
@@ -1597,7 +1618,7 @@
         <v>25</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s">
         <v>25</v>
@@ -1623,7 +1644,7 @@
         <v>25</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s">
         <v>25</v>
@@ -1649,7 +1670,7 @@
         <v>25</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s">
         <v>25</v>
@@ -1675,7 +1696,7 @@
         <v>49</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" t="s">
         <v>25</v>
@@ -1727,7 +1748,7 @@
         <v>49</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I26" t="s">
         <v>25</v>
@@ -1738,7 +1759,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -1780,7 +1801,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
@@ -1801,7 +1822,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -1822,10 +1843,10 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
@@ -1843,10 +1864,10 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
         <v>15</v>
@@ -1864,19 +1885,19 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="3">
+        <v>45619</v>
+      </c>
+      <c r="G33" t="s">
         <v>75</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="3">
-        <v>45619</v>
-      </c>
-      <c r="G33" t="s">
-        <v>76</v>
       </c>
       <c r="H33" s="3"/>
     </row>
@@ -1885,7 +1906,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
@@ -1900,7 +1921,7 @@
         <v>49</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1908,7 +1929,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -1920,10 +1941,10 @@
         <v>45619</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1931,7 +1952,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
@@ -1943,10 +1964,10 @@
         <v>45619</v>
       </c>
       <c r="G36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1954,22 +1975,22 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="3">
+        <v>45619</v>
+      </c>
+      <c r="G37" t="s">
         <v>80</v>
       </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="3">
-        <v>45619</v>
-      </c>
-      <c r="G37" t="s">
-        <v>81</v>
-      </c>
       <c r="H37" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1977,7 +1998,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
@@ -1989,18 +2010,18 @@
         <v>45619</v>
       </c>
       <c r="G38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
@@ -2015,7 +2036,7 @@
         <v>25</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2963,7 +2984,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -6119,10 +6140,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:XFD1048576"/>
+      <selection sqref="A1:H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6135,694 +6156,653 @@
     <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="42" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>45608</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>45609</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>45610</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>45611</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>45612</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>45613</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>45614</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>45615</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>45731</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>45731</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>45731</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>45731</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>45731</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>45731</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>45619</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>45619</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>18</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>45619</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>45619</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3">
-        <v>45607</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3">
-        <v>45608</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3">
-        <v>45609</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3">
-        <v>45610</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3">
-        <v>45611</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3">
-        <v>45612</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>45613</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3">
-        <v>45614</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3">
-        <v>45615</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>45619</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>45619</v>
+      </c>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>45619</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>45619</v>
+      </c>
+      <c r="H23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>45619</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>45619</v>
+      </c>
+      <c r="H25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>45619</v>
+      </c>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27">
         <v>45731</v>
       </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>41</v>
-      </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>42</v>
-      </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>43</v>
-      </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>44</v>
-      </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>45</v>
-      </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>46</v>
-      </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>47</v>
-      </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>48</v>
-      </c>
-      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>49</v>
-      </c>
-      <c r="E49" s="3"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>50</v>
-      </c>
-      <c r="E50" s="3"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>51</v>
-      </c>
-      <c r="E51" s="3"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>52</v>
-      </c>
-      <c r="E52" s="3"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>53</v>
-      </c>
-      <c r="E53" s="3"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>54</v>
-      </c>
-      <c r="E54" s="3"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>55</v>
-      </c>
-      <c r="E55" s="3"/>
+        <v>56</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>56</v>
-      </c>
-      <c r="E56" s="3"/>
+        <v>84</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>84</v>
-      </c>
-      <c r="E57" s="3"/>
+        <v>85</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>85</v>
-      </c>
-      <c r="E58" s="3"/>
+        <v>86</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>86</v>
-      </c>
-      <c r="E59" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>87</v>
-      </c>
-      <c r="E60" s="3"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>88</v>
-      </c>
-      <c r="E61" s="3"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>89</v>
-      </c>
-      <c r="E62" s="3"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>90</v>
-      </c>
-      <c r="E63" s="3"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
@@ -6831,14 +6811,6 @@
       <c r="E64" s="3"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Opened By name in this column under this heading" sqref="F1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Opening Date in this column under this heading" sqref="E1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Priority in this column under this heading" sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Type in this column under this heading" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Issue description in this column under this heading" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Number in this column under this heading. Use heading filters to find specific entries" sqref="A1"/>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -6850,8 +6822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="A61" sqref="A2:H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6867,13 +6839,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>17</v>
@@ -7599,7 +7571,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -9051,7 +9023,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -9761,8 +9733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/client/src/assets/tracker/task tracker.xlsx
+++ b/client/src/assets/tracker/task tracker.xlsx
@@ -271,9 +271,6 @@
     <t>Bug</t>
   </si>
   <si>
-    <t>Light / Dark features</t>
-  </si>
-  <si>
     <t>website scrolling issues / Fit all content in same page without scrolling</t>
   </si>
   <si>
@@ -330,6 +327,10 @@
   <si>
     <t>Local DB setup.
 create json database and angular sevices for all components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light / Dark features ( https://web.dev/ )
+</t>
   </si>
 </sst>
 </file>
@@ -1075,8 +1076,8 @@
   </sheetPr>
   <dimension ref="B1:J64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1498,7 +1499,7 @@
         <v>25</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s">
         <v>25</v>
@@ -1524,7 +1525,7 @@
         <v>25</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I17" t="s">
         <v>25</v>
@@ -1618,7 +1619,7 @@
         <v>25</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I21" t="s">
         <v>25</v>
@@ -1644,7 +1645,7 @@
         <v>25</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" t="s">
         <v>25</v>
@@ -1670,7 +1671,7 @@
         <v>25</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" t="s">
         <v>25</v>
@@ -1696,7 +1697,7 @@
         <v>49</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I24" t="s">
         <v>25</v>
@@ -1748,7 +1749,7 @@
         <v>49</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I26" t="s">
         <v>25</v>
@@ -1759,7 +1760,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -1843,7 +1844,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
         <v>68</v>
@@ -1864,7 +1865,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
         <v>68</v>
@@ -1885,19 +1886,19 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="3">
+        <v>45619</v>
+      </c>
+      <c r="G33" t="s">
         <v>74</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="3">
-        <v>45619</v>
-      </c>
-      <c r="G33" t="s">
-        <v>75</v>
       </c>
       <c r="H33" s="3"/>
     </row>
@@ -1906,7 +1907,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
@@ -1921,7 +1922,7 @@
         <v>49</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1929,7 +1930,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -1941,10 +1942,10 @@
         <v>45619</v>
       </c>
       <c r="G35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1952,7 +1953,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
@@ -1964,10 +1965,10 @@
         <v>45619</v>
       </c>
       <c r="G36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1975,22 +1976,22 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="3">
+        <v>45619</v>
+      </c>
+      <c r="G37" t="s">
         <v>79</v>
       </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="3">
-        <v>45619</v>
-      </c>
-      <c r="G37" t="s">
-        <v>80</v>
-      </c>
       <c r="H37" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1998,7 +1999,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
@@ -2010,10 +2011,10 @@
         <v>45619</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="49" customHeight="1" x14ac:dyDescent="0.35">
@@ -2021,7 +2022,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
@@ -2036,7 +2037,7 @@
         <v>25</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -6158,25 +6159,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="42" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>25</v>

--- a/client/src/assets/tracker/task tracker.xlsx
+++ b/client/src/assets/tracker/task tracker.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="91">
   <si>
     <t>Type</t>
   </si>
@@ -274,9 +274,6 @@
     <t>website scrolling issues / Fit all content in same page without scrolling</t>
   </si>
   <si>
-    <t>centralized color , bg color , font-size and family etc</t>
-  </si>
-  <si>
     <t>InProgress</t>
   </si>
   <si>
@@ -329,15 +326,46 @@
 create json database and angular sevices for all components</t>
   </si>
   <si>
-    <t xml:space="preserve">Light / Dark features ( https://web.dev/ )
+    <r>
+      <t xml:space="preserve">Light / Dark features </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( https://web.dev/ )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
+    </r>
+  </si>
+  <si>
+    <t>follow the naming convention</t>
+  </si>
+  <si>
+    <t>Finalize website color , bgcolor and font-family and font-size across the web site for all lang like urdu hindi arbic and english</t>
+  </si>
+  <si>
+    <t>In repo create folder abulfatah and paste all books into this</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="0"/>
@@ -416,6 +444,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1076,8 +1111,8 @@
   </sheetPr>
   <dimension ref="B1:J64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1499,7 +1534,7 @@
         <v>25</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I16" t="s">
         <v>25</v>
@@ -1525,7 +1560,7 @@
         <v>25</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I17" t="s">
         <v>25</v>
@@ -1619,7 +1654,7 @@
         <v>25</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I21" t="s">
         <v>25</v>
@@ -1645,7 +1680,7 @@
         <v>25</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" t="s">
         <v>25</v>
@@ -1671,7 +1706,7 @@
         <v>25</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" t="s">
         <v>25</v>
@@ -1697,7 +1732,7 @@
         <v>49</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I24" t="s">
         <v>25</v>
@@ -1749,7 +1784,7 @@
         <v>49</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I26" t="s">
         <v>25</v>
@@ -1760,7 +1795,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -1860,12 +1895,12 @@
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
         <v>68</v>
@@ -1886,19 +1921,19 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="3">
+        <v>45619</v>
+      </c>
+      <c r="G33" t="s">
         <v>73</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="3">
-        <v>45619</v>
-      </c>
-      <c r="G33" t="s">
-        <v>74</v>
       </c>
       <c r="H33" s="3"/>
     </row>
@@ -1907,7 +1942,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
@@ -1922,7 +1957,7 @@
         <v>49</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1930,7 +1965,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -1942,10 +1977,10 @@
         <v>45619</v>
       </c>
       <c r="G35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1953,7 +1988,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
@@ -1965,10 +2000,10 @@
         <v>45619</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1976,22 +2011,22 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="3">
+        <v>45619</v>
+      </c>
+      <c r="G37" t="s">
         <v>78</v>
       </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="3">
-        <v>45619</v>
-      </c>
-      <c r="G37" t="s">
-        <v>79</v>
-      </c>
       <c r="H37" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1999,7 +2034,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
@@ -2011,10 +2046,10 @@
         <v>45619</v>
       </c>
       <c r="G38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="49" customHeight="1" x14ac:dyDescent="0.35">
@@ -2022,7 +2057,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
@@ -2037,19 +2072,25 @@
         <v>25</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>40</v>
       </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
       <c r="F40" s="3"/>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
       </c>
       <c r="F41" s="3"/>
       <c r="H41" s="3"/>
@@ -6159,25 +6200,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="42" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>25</v>

--- a/client/src/assets/tracker/task tracker.xlsx
+++ b/client/src/assets/tracker/task tracker.xlsx
@@ -1111,7 +1111,7 @@
   </sheetPr>
   <dimension ref="B1:J64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>

--- a/client/src/assets/tracker/task tracker.xlsx
+++ b/client/src/assets/tracker/task tracker.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="104">
   <si>
     <t>Type</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>api design / development</t>
-  </si>
-  <si>
-    <t>mobile app -  PWA</t>
   </si>
   <si>
     <t>LOGO Design</t>
@@ -326,6 +323,18 @@
 create json database and angular sevices for all components</t>
   </si>
   <si>
+    <t>follow the naming convention</t>
+  </si>
+  <si>
+    <t>Finalize website color , bgcolor and font-family and font-size across the web site for all lang like urdu hindi arbic and english</t>
+  </si>
+  <si>
+    <t>In repo create folder abulfatah and paste all books into this</t>
+  </si>
+  <si>
+    <t>mobile app -  PWA ( https://www.crocs.in/ )</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Light / Dark features </t>
     </r>
@@ -337,7 +346,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>( https://web.dev/ )</t>
+      <t xml:space="preserve">( https://web.dev/ )               </t>
     </r>
     <r>
       <rPr>
@@ -352,13 +361,43 @@
     </r>
   </si>
   <si>
-    <t>follow the naming convention</t>
+    <t>Kanjul Iman</t>
   </si>
   <si>
-    <t>Finalize website color , bgcolor and font-family and font-size across the web site for all lang like urdu hindi arbic and english</t>
+    <t>Quran</t>
   </si>
   <si>
-    <t>In repo create folder abulfatah and paste all books into this</t>
+    <t>Pakisatan</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>ok ok normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">books Books page </t>
+  </si>
+  <si>
+    <t>book mobile view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomePage - on click carusol image click </t>
+  </si>
+  <si>
+    <t>Book mobile view - remove category part and implement as discuused approch oly</t>
+  </si>
+  <si>
+    <t>Add read books from website</t>
+  </si>
+  <si>
+    <t>show 2books in same row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onclick of of images open it or zoom it </t>
+  </si>
+  <si>
+    <t>remove catroy part and design as per old approach</t>
   </si>
 </sst>
 </file>
@@ -1111,8 +1150,8 @@
   </sheetPr>
   <dimension ref="B1:J64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1284,7 +1323,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1311,7 +1350,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1337,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1363,7 +1402,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1389,7 +1428,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1415,7 +1454,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1441,7 +1480,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1467,7 +1506,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1493,7 +1532,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1519,7 +1558,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -1534,7 +1573,7 @@
         <v>25</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I16" t="s">
         <v>25</v>
@@ -1545,7 +1584,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -1560,7 +1599,7 @@
         <v>25</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I17" t="s">
         <v>25</v>
@@ -1571,7 +1610,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -1597,7 +1636,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -1618,7 +1657,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -1639,7 +1678,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -1654,7 +1693,7 @@
         <v>25</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I21" t="s">
         <v>25</v>
@@ -1665,7 +1704,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -1680,7 +1719,7 @@
         <v>25</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" t="s">
         <v>25</v>
@@ -1691,7 +1730,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -1706,7 +1745,7 @@
         <v>25</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" t="s">
         <v>25</v>
@@ -1717,7 +1756,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1729,10 +1768,10 @@
         <v>45619</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I24" t="s">
         <v>25</v>
@@ -1743,7 +1782,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
@@ -1769,7 +1808,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -1781,10 +1820,10 @@
         <v>45619</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I26" t="s">
         <v>25</v>
@@ -1795,7 +1834,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -1816,7 +1855,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -1837,7 +1876,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
@@ -1858,7 +1897,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -1879,10 +1918,10 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
@@ -1900,10 +1939,10 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
         <v>15</v>
@@ -1921,19 +1960,19 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="3">
+        <v>45619</v>
+      </c>
+      <c r="G33" t="s">
         <v>72</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="3">
-        <v>45619</v>
-      </c>
-      <c r="G33" t="s">
-        <v>73</v>
       </c>
       <c r="H33" s="3"/>
     </row>
@@ -1942,7 +1981,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
@@ -1954,10 +1993,10 @@
         <v>45619</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1965,7 +2004,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -1977,10 +2016,10 @@
         <v>45619</v>
       </c>
       <c r="G35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1988,7 +2027,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
@@ -2000,10 +2039,10 @@
         <v>45619</v>
       </c>
       <c r="G36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2011,22 +2050,22 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="3">
+        <v>45619</v>
+      </c>
+      <c r="G37" t="s">
         <v>77</v>
       </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="3">
-        <v>45619</v>
-      </c>
-      <c r="G37" t="s">
-        <v>78</v>
-      </c>
       <c r="H37" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2034,7 +2073,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
@@ -2046,10 +2085,10 @@
         <v>45619</v>
       </c>
       <c r="G38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="49" customHeight="1" x14ac:dyDescent="0.35">
@@ -2057,7 +2096,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
@@ -2072,7 +2111,7 @@
         <v>25</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2080,7 +2119,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F40" s="3"/>
       <c r="H40" s="3"/>
@@ -2090,7 +2129,7 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F41" s="3"/>
       <c r="H41" s="3"/>
@@ -2106,43 +2145,76 @@
       <c r="B43">
         <v>43</v>
       </c>
-      <c r="F43" s="3"/>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" t="s">
+        <v>95</v>
+      </c>
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>44</v>
       </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" t="s">
+        <v>100</v>
+      </c>
       <c r="F44" s="3"/>
-      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>45</v>
       </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
       <c r="F45" s="3"/>
-      <c r="H45" s="3"/>
     </row>
     <row r="46" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>46</v>
       </c>
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" t="s">
+        <v>102</v>
+      </c>
       <c r="F46" s="3"/>
-      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>47</v>
       </c>
+      <c r="C47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" t="s">
+        <v>103</v>
+      </c>
       <c r="F47" s="3"/>
-      <c r="H47" s="3"/>
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>48</v>
       </c>
       <c r="F48" s="3"/>
-      <c r="H48" s="3"/>
     </row>
     <row r="49" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49">
@@ -2300,7 +2372,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -2703,7 +2775,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2737,7 +2809,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -3026,7 +3098,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -3429,7 +3501,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -3463,7 +3535,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -3752,7 +3824,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -4155,7 +4227,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -4189,7 +4261,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -4545,11 +4617,11 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="N13">
         <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O13">
         <f>COUNTA(O16:O45)-COUNTIF(O16:O45,NA())</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S13" t="s">
         <v>16</v>
@@ -4681,7 +4753,7 @@
       </c>
       <c r="S18" t="str">
         <f t="array" aca="1" ref="S18" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(3:3)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Bug</v>
+        <v>Add read books from website</v>
       </c>
       <c r="T18" t="str">
         <f t="array" aca="1" ref="T18" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(3:3)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -4704,17 +4776,17 @@
         <f>J18+COUNTIFS(Issues[CLOSED ON],H19,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
-      <c r="N19" t="e">
+      <c r="N19" t="str">
         <f t="array" ref="N19">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N18, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O19" t="e">
+        <v>Quran</v>
+      </c>
+      <c r="O19" t="str">
         <f t="array" ref="O19">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O18,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
+        <v>Pakisatan</v>
       </c>
       <c r="S19" t="str">
         <f t="array" aca="1" ref="S19" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(4:4)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Type 2</v>
+        <v>Bug</v>
       </c>
       <c r="T19" t="str">
         <f t="array" aca="1" ref="T19" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(4:4)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -4737,21 +4809,21 @@
         <f>J19+COUNTIFS(Issues[CLOSED ON],H20,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
-      <c r="N20" t="e">
+      <c r="N20" t="str">
         <f t="array" ref="N20">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N19, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
+        <v>Add read books from website</v>
       </c>
       <c r="O20" t="e">
         <f t="array" ref="O20">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O19,Issues[PRIORITY]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S20" t="e">
+      <c r="S20" t="str">
         <f t="array" aca="1" ref="S20" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(5:5)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T20" t="e">
+        <v xml:space="preserve">onclick of of images open it or zoom it </v>
+      </c>
+      <c r="T20" t="str">
         <f t="array" aca="1" ref="T20" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(5:5)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
+        <v>Pakisatan</v>
       </c>
     </row>
     <row r="21" spans="7:20" x14ac:dyDescent="0.35">
@@ -4770,17 +4842,17 @@
         <f>J20+COUNTIFS(Issues[CLOSED ON],H21,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
-      <c r="N21" t="e">
+      <c r="N21" t="str">
         <f t="array" ref="N21">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N20, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
+        <v>show 2books in same row</v>
       </c>
       <c r="O21" t="e">
         <f t="array" ref="O21">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O20,Issues[PRIORITY]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S21" t="e">
+      <c r="S21" t="str">
         <f t="array" aca="1" ref="S21" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(6:6)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
+        <v>Quran</v>
       </c>
       <c r="T21" t="e">
         <f t="array" aca="1" ref="T21" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(6:6)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -4803,17 +4875,17 @@
         <f>J21+COUNTIFS(Issues[CLOSED ON],H22,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
-      <c r="N22" t="e">
+      <c r="N22" t="str">
         <f t="array" ref="N22">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N21, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">onclick of of images open it or zoom it </v>
       </c>
       <c r="O22" t="e">
         <f t="array" ref="O22">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O21,Issues[PRIORITY]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S22" t="e">
+      <c r="S22" t="str">
         <f t="array" aca="1" ref="S22" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(7:7)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
+        <v>remove catroy part and design as per old approach</v>
       </c>
       <c r="T22" t="e">
         <f t="array" aca="1" ref="T22" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(7:7)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -4836,17 +4908,17 @@
         <f>J22+COUNTIFS(Issues[CLOSED ON],H23,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
-      <c r="N23" t="e">
+      <c r="N23" t="str">
         <f t="array" ref="N23">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N22, Issues[TYPE]),0))</f>
-        <v>#N/A</v>
+        <v>remove catroy part and design as per old approach</v>
       </c>
       <c r="O23" t="e">
         <f t="array" ref="O23">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O22,Issues[PRIORITY]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S23" t="e">
+      <c r="S23" t="str">
         <f t="array" aca="1" ref="S23" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(8:8)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
+        <v>show 2books in same row</v>
       </c>
       <c r="T23" t="e">
         <f t="array" aca="1" ref="T23" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(8:8)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -4877,9 +4949,9 @@
         <f t="array" ref="O24">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O23,Issues[PRIORITY]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S24" t="e">
+      <c r="S24" t="str">
         <f t="array" aca="1" ref="S24" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(9:9)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
+        <v>Type 2</v>
       </c>
       <c r="T24" t="e">
         <f t="array" aca="1" ref="T24" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(9:9)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -6200,16 +6272,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="42" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -6218,7 +6290,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>25</v>
@@ -6595,7 +6667,7 @@
         <v>45619</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -6629,7 +6701,7 @@
         <v>45619</v>
       </c>
       <c r="H25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -6881,13 +6953,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>17</v>
@@ -7290,7 +7362,7 @@
         <v>45619</v>
       </c>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -7324,7 +7396,7 @@
         <v>45619</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -7597,7 +7669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -7613,7 +7685,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -8016,7 +8088,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -8050,7 +8122,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -8339,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -8742,7 +8814,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -8776,7 +8848,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -9065,7 +9137,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -9468,7 +9540,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -9502,7 +9574,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -9791,7 +9863,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -10194,7 +10266,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -10228,7 +10300,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -10519,7 +10591,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -10922,7 +10994,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -10956,7 +11028,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -11246,7 +11318,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -11649,7 +11721,7 @@
         <v>45619</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -11683,7 +11755,7 @@
         <v>45619</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">

--- a/client/src/assets/tracker/task tracker.xlsx
+++ b/client/src/assets/tracker/task tracker.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="896"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="896" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="Home Data" sheetId="13" r:id="rId2"/>
     <sheet name="Books Data" sheetId="3" r:id="rId3"/>
     <sheet name="AL Quran Data" sheetId="4" r:id="rId4"/>
-    <sheet name="Media Data" sheetId="5" r:id="rId5"/>
-    <sheet name="Event Data" sheetId="12" r:id="rId6"/>
-    <sheet name="Activity Data" sheetId="7" r:id="rId7"/>
+    <sheet name="Event Data" sheetId="12" r:id="rId5"/>
+    <sheet name="Activity Data" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="16" r:id="rId7"/>
     <sheet name="Biograhapy Data" sheetId="10" r:id="rId8"/>
     <sheet name="Contact Us Data" sheetId="8" r:id="rId9"/>
     <sheet name="About Us Data" sheetId="9" r:id="rId10"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="189">
   <si>
     <t>Type</t>
   </si>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>Biography Page Design / Development</t>
-  </si>
-  <si>
-    <t>Media URL</t>
   </si>
   <si>
     <t>Images Data</t>
@@ -399,12 +396,270 @@
   <si>
     <t>remove catroy part and design as per old approach</t>
   </si>
+  <si>
+    <t>Sr. No</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Writer</t>
+  </si>
+  <si>
+    <t>Recitor</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Faaslon ko taqalluf hai humse agar</t>
+  </si>
+  <si>
+    <t>Naat</t>
+  </si>
+  <si>
+    <t>Qari Waheed Zafar</t>
+  </si>
+  <si>
+    <t>https://youtu.be/GZkbK1NXuas?si=OmuTbMDXgrzSfdRE</t>
+  </si>
+  <si>
+    <t>Huzoor Aisa Koi Intezam Hojaye</t>
+  </si>
+  <si>
+    <t>Syed Fasihuddin Soharwardi</t>
+  </si>
+  <si>
+    <t>https://youtu.be/yIOo1gRbb-U?si=bAYXK1moHW8VZA8w</t>
+  </si>
+  <si>
+    <t>Maula Ya Salli Wa sallim- Qaseeda Burda Shareef</t>
+  </si>
+  <si>
+    <t>Mahmood ul hassan Ashrafi</t>
+  </si>
+  <si>
+    <t>https://youtu.be/y4LerDDGoNM?si=SlabsW4g1LkljAnM</t>
+  </si>
+  <si>
+    <t>Sabse Aula wa Aala hamara Nabi</t>
+  </si>
+  <si>
+    <t>Aalahazrat</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ntOvZoTFTRY?si=KDSaN2IrARoFjjQG</t>
+  </si>
+  <si>
+    <t>Koi Duniya e Ata mai nahi Hamta Tera</t>
+  </si>
+  <si>
+    <t>Syed Hassan Ullah Hussaini</t>
+  </si>
+  <si>
+    <t>https://youtu.be/i8YyekWrbhU?si=fXzHpxMwWIukZUJJ</t>
+  </si>
+  <si>
+    <t>Dar Bada ho to sawali bhi khada sajta hai</t>
+  </si>
+  <si>
+    <t>https://youtu.be/-SZajol3vpI?si=NAmIcpqv3Iod4CJ7</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ipaKE4bcQ4Y?si=irUJZgpf09M9uXpY</t>
+  </si>
+  <si>
+    <t>Lutf Unka aam Ho hi jayega</t>
+  </si>
+  <si>
+    <t>Allama Farooq ul hasan</t>
+  </si>
+  <si>
+    <t>https://youtu.be/bzFPkYc6AzM?si=fOWY2jsKC3SoxoMY</t>
+  </si>
+  <si>
+    <t>Koi Gul baqi rahega na Chaman Reh jayega</t>
+  </si>
+  <si>
+    <t>Syed Kafi Miyan</t>
+  </si>
+  <si>
+    <t>https://youtu.be/imgpBLb6g0E?si=KhQ2VRRMIjX3oX-I</t>
+  </si>
+  <si>
+    <t>Subho taiba mai huwi Batta Hai baada Noor ka</t>
+  </si>
+  <si>
+    <t>https://youtu.be/FwP6SfqdVlM?si=1_HF7x8lBJRnLzIU</t>
+  </si>
+  <si>
+    <t>Tere Qadmo mai aana mera kaam tha</t>
+  </si>
+  <si>
+    <t>Muhammad Hassan Raza Qadri</t>
+  </si>
+  <si>
+    <t>https://youtu.be/BaPTR0SSXZo?si=krBvP7wDsuMUjGdt</t>
+  </si>
+  <si>
+    <t>Shere Sunnat Hain</t>
+  </si>
+  <si>
+    <t>Manqabat</t>
+  </si>
+  <si>
+    <t>Mahmood Raza/ Hassan Raza</t>
+  </si>
+  <si>
+    <t>https://youtu.be/kSOpCVJ-uxM?si=l9xDa5LD-FyQ1tzh</t>
+  </si>
+  <si>
+    <t>Shere Beshae Ahlesunnat Maulana Hashmat Ali</t>
+  </si>
+  <si>
+    <t>Hafiz Bilal Qadri</t>
+  </si>
+  <si>
+    <t>https://youtu.be/OPu8PjYYW7Y?si=HiIKCqaUDRm5wu9W</t>
+  </si>
+  <si>
+    <t>Hashmati Rang mai rang jao mere yaar</t>
+  </si>
+  <si>
+    <t>Allama Faraan Raza</t>
+  </si>
+  <si>
+    <t>Rao Brothers</t>
+  </si>
+  <si>
+    <t>https://youtu.be/A8sS_qxCWJg?si=7vzaUNSG9-aln0Df</t>
+  </si>
+  <si>
+    <t>Mazhare Aalahazrat Chale aaiye</t>
+  </si>
+  <si>
+    <t>Sarkar Mashood e Millat</t>
+  </si>
+  <si>
+    <t>https://youtu.be/nnFJwA6vwQg?si=EpgW-sNln-SldjnM</t>
+  </si>
+  <si>
+    <t>Shere Sunnat rehnuma Hashmat Ali Khan Qadri</t>
+  </si>
+  <si>
+    <t>Hafiz Mazhar Ashrafi</t>
+  </si>
+  <si>
+    <t>https://youtu.be/w-jpQaMBWmM?si=qg5fV9dvvDEqBsb-</t>
+  </si>
+  <si>
+    <t>Jo tujhe bhool gaya mazhare Aalahazrat</t>
+  </si>
+  <si>
+    <t>Shakeel Aarfi</t>
+  </si>
+  <si>
+    <t>https://youtu.be/mbP0rKor95A?si=X9AzFreEMAm7sek2</t>
+  </si>
+  <si>
+    <t>Nadroon ko ilm ke moti Aaqa ne Ata kiye</t>
+  </si>
+  <si>
+    <t>Hassan Nizami</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Bly17hO2O6A?si=0Dd0pcefjeDYcdKM</t>
+  </si>
+  <si>
+    <t>Muhammad Hamare Badi shaan wale (Sallallahu Alaihi wasallam)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/XHvFELfqFkw?si=wH2LHfhM31VyuOsV</t>
+  </si>
+  <si>
+    <t>Aankho ka tara Naame Muhammad (Sallallahu Alaihi wasallam)</t>
+  </si>
+  <si>
+    <t>Allama Manahil Raza Hashmati</t>
+  </si>
+  <si>
+    <t>https://youtu.be/jIWQnFVPDLA?si=b1jqCgXNx_Tz54d5</t>
+  </si>
+  <si>
+    <t>Waah kya ilm Hai hazrate Aala Tera</t>
+  </si>
+  <si>
+    <t>Sarkar Mazhar e Aalahazrat</t>
+  </si>
+  <si>
+    <t>https://youtu.be/B5ouofBAsJc?si=IS8Nk5JgqvnYd9UN</t>
+  </si>
+  <si>
+    <t>Chalo Dekhlen wo haqeeqaten jinhe dekhna bhi misaal hai</t>
+  </si>
+  <si>
+    <t>https://youtu.be/aTcRF2gHf-Q?si=i45LjW8WUqQ48bkA</t>
+  </si>
+  <si>
+    <t>Tere Jalwo Ki tabani Moinuddin Ajmeri</t>
+  </si>
+  <si>
+    <t>https://youtu.be/BiR4R6t1Tm4?si=GVlt1jPa9Nu9w8oo</t>
+  </si>
+  <si>
+    <t>Hazaro mai 72 Tan the tasleem o raza wale</t>
+  </si>
+  <si>
+    <t>https://youtu.be/t2GPjYft0q4?si=l_kv_q9ntyuVfiRl</t>
+  </si>
+  <si>
+    <t>Baghe jannat ke hain behre madhkhwane Ahlebait</t>
+  </si>
+  <si>
+    <t>Sarkar Ustade Zaman</t>
+  </si>
+  <si>
+    <t>https://youtu.be/EDyA9Op51uo?si=x1wdPQ52SHVVMet-</t>
+  </si>
+  <si>
+    <t>Peshe Haq Muzda Shafa'at ka sunate jayenge</t>
+  </si>
+  <si>
+    <t>Sarkar Aalahazrat</t>
+  </si>
+  <si>
+    <t>https://youtu.be/cBmWTjcxWBk?si=rhXkJVt8u3qFEtE6</t>
+  </si>
+  <si>
+    <t>Karte hain jinno bashar har waqt charcha Ghous ka</t>
+  </si>
+  <si>
+    <t>https://youtu.be/3vCZ6Zz8D00?si=knjYd_Nr4omwiFrL</t>
+  </si>
+  <si>
+    <t>Zameeno zaman tumhare liye</t>
+  </si>
+  <si>
+    <t>https://youtu.be/CVSJeZf9MG8?si=9eljinBRkKTlm52W</t>
+  </si>
+  <si>
+    <t>Zeenate Yaseen Tui</t>
+  </si>
+  <si>
+    <t>Sarkar Jami</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Pz3MR8Wqblw?si=l51C-Y2QmOb1oHem</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="0"/>
@@ -494,8 +749,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,8 +792,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -530,6 +814,21 @@
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -554,7 +853,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -581,6 +880,17 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -718,26 +1028,6 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Issues3678" displayName="Issues3678" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
-  <autoFilter ref="A1:F64"/>
-  <tableColumns count="6">
-    <tableColumn id="10" name="#" dataCellStyle="Normal"/>
-    <tableColumn id="1" name="About Us Details" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
-    <tableColumn id="5" name="OPENED BY" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="Project Issue Tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altTextSummary="Enter issue Number, description, Type,Priority, Opening &amp; Closing Date, Opened By &amp; Closed By names, and Notes in this table"/>
-    </ext>
-  </extLst>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Issues367813" displayName="Issues367813" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
   <autoFilter ref="A1:F64"/>
   <tableColumns count="6">
@@ -757,7 +1047,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Issues39" displayName="Issues39" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
   <autoFilter ref="A1:F64"/>
   <tableColumns count="6">
@@ -842,26 +1132,6 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Issues3" displayName="Issues3" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
-  <autoFilter ref="A1:F64"/>
-  <tableColumns count="6">
-    <tableColumn id="10" name="#" dataCellStyle="Normal"/>
-    <tableColumn id="1" name="Media URL" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
-    <tableColumn id="5" name="OPENED BY" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="Project Issue Tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altTextSummary="Enter issue Number, description, Type,Priority, Opening &amp; Closing Date, Opened By &amp; Closed By names, and Notes in this table"/>
-    </ext>
-  </extLst>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Issues312" displayName="Issues312" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
   <autoFilter ref="A1:F64"/>
   <tableColumns count="6">
@@ -881,7 +1151,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Issues34" displayName="Issues34" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
   <autoFilter ref="A1:F64"/>
   <tableColumns count="6">
@@ -901,7 +1171,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Issues3510" displayName="Issues3510" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
   <autoFilter ref="A1:F64"/>
   <tableColumns count="6">
@@ -921,12 +1191,32 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Issues367" displayName="Issues367" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
   <autoFilter ref="A1:F64"/>
   <tableColumns count="6">
     <tableColumn id="10" name="#" dataCellStyle="Normal"/>
     <tableColumn id="1" name="Contact Us Details" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
+    <tableColumn id="5" name="OPENED BY" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="Project Issue Tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Enter issue Number, description, Type,Priority, Opening &amp; Closing Date, Opened By &amp; Closed By names, and Notes in this table"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Issues3678" displayName="Issues3678" ref="A1:F64" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A1:F64"/>
+  <tableColumns count="6">
+    <tableColumn id="10" name="#" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="About Us Details" dataCellStyle="Normal"/>
     <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
     <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
     <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
@@ -1150,7 +1440,7 @@
   </sheetPr>
   <dimension ref="B1:J64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B41" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B41" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -1573,7 +1863,7 @@
         <v>25</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I16" t="s">
         <v>25</v>
@@ -1584,7 +1874,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -1599,7 +1889,7 @@
         <v>25</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I17" t="s">
         <v>25</v>
@@ -1693,7 +1983,7 @@
         <v>25</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I21" t="s">
         <v>25</v>
@@ -1719,7 +2009,7 @@
         <v>25</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" t="s">
         <v>25</v>
@@ -1745,7 +2035,7 @@
         <v>25</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" t="s">
         <v>25</v>
@@ -1771,7 +2061,7 @@
         <v>48</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I24" t="s">
         <v>25</v>
@@ -1823,7 +2113,7 @@
         <v>48</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I26" t="s">
         <v>25</v>
@@ -1834,7 +2124,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -1876,7 +2166,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
@@ -1897,7 +2187,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -1918,10 +2208,10 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
@@ -1939,10 +2229,10 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
         <v>15</v>
@@ -1960,19 +2250,19 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="3">
+        <v>45619</v>
+      </c>
+      <c r="G33" t="s">
         <v>71</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="3">
-        <v>45619</v>
-      </c>
-      <c r="G33" t="s">
-        <v>72</v>
       </c>
       <c r="H33" s="3"/>
     </row>
@@ -1981,7 +2271,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
@@ -1996,7 +2286,7 @@
         <v>48</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2004,7 +2294,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -2016,10 +2306,10 @@
         <v>45619</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2027,7 +2317,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
@@ -2039,10 +2329,10 @@
         <v>45619</v>
       </c>
       <c r="G36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2050,22 +2340,22 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="3">
+        <v>45619</v>
+      </c>
+      <c r="G37" t="s">
         <v>76</v>
       </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="3">
-        <v>45619</v>
-      </c>
-      <c r="G37" t="s">
-        <v>77</v>
-      </c>
       <c r="H37" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2073,7 +2363,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
@@ -2085,10 +2375,10 @@
         <v>45619</v>
       </c>
       <c r="G38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="49" customHeight="1" x14ac:dyDescent="0.35">
@@ -2096,7 +2386,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
@@ -2111,7 +2401,7 @@
         <v>25</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2119,7 +2409,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F40" s="3"/>
       <c r="H40" s="3"/>
@@ -2129,7 +2419,7 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F41" s="3"/>
       <c r="H41" s="3"/>
@@ -2146,19 +2436,19 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
         <v>91</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>92</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" t="s">
         <v>94</v>
-      </c>
-      <c r="G43" t="s">
-        <v>95</v>
       </c>
       <c r="H43" s="3"/>
     </row>
@@ -2167,10 +2457,10 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F44" s="3"/>
     </row>
@@ -2179,10 +2469,10 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3"/>
     </row>
@@ -2191,10 +2481,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F46" s="3"/>
     </row>
@@ -2203,10 +2493,10 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F47" s="3"/>
     </row>
@@ -2372,7 +2662,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -3098,7 +3388,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -3824,7 +4114,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -6272,16 +6562,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="42" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>82</v>
-      </c>
-      <c r="D1" t="s">
-        <v>83</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -6290,7 +6580,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>25</v>
@@ -6953,13 +7243,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>17</v>
@@ -7685,7 +7975,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -8396,732 +8686,6 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
-    <col min="2" max="2" width="39.08203125" customWidth="1"/>
-    <col min="3" max="6" width="18.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3">
-        <v>45607</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3">
-        <v>45608</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3">
-        <v>45609</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3">
-        <v>45610</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3">
-        <v>45611</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3">
-        <v>45612</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>45613</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3">
-        <v>45614</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3">
-        <v>45615</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>41</v>
-      </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>42</v>
-      </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>43</v>
-      </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>44</v>
-      </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>45</v>
-      </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>46</v>
-      </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>47</v>
-      </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>48</v>
-      </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>49</v>
-      </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>50</v>
-      </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>51</v>
-      </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>52</v>
-      </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>53</v>
-      </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>54</v>
-      </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>55</v>
-      </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>56</v>
-      </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>84</v>
-      </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>85</v>
-      </c>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>86</v>
-      </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>87</v>
-      </c>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>88</v>
-      </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>89</v>
-      </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>90</v>
-      </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>91</v>
-      </c>
-      <c r="E64" s="3"/>
-    </row>
-  </sheetData>
-  <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Opened By name in this column under this heading" sqref="F1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Opening Date in this column under this heading" sqref="E1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Priority in this column under this heading" sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Type in this column under this heading" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Issue description in this column under this heading" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Number in this column under this heading. Use heading filters to find specific entries" sqref="A1"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -9137,7 +8701,733 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45607</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45608</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45609</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45610</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45611</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45612</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45613</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45614</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45615</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45619</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45731</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>84</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>85</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>86</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>87</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>88</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>89</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>90</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>91</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Number in this column under this heading. Use heading filters to find specific entries" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Issue description in this column under this heading" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Type in this column under this heading" sqref="C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Priority in this column under this heading" sqref="D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Opening Date in this column under this heading" sqref="E1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Opened By name in this column under this heading" sqref="F1"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="39.08203125" customWidth="1"/>
+    <col min="3" max="6" width="18.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -9845,727 +10135,600 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
-    <col min="2" max="2" width="39.08203125" customWidth="1"/>
-    <col min="3" max="6" width="18.08203125" customWidth="1"/>
+    <col min="1" max="1" width="18" style="9" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="23" style="9" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="9" customWidth="1"/>
+    <col min="6" max="6" width="63.75" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B18" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="B19" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B20" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3">
-        <v>45607</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3">
-        <v>45608</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3">
-        <v>45609</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3">
-        <v>45610</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3">
-        <v>45611</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3">
-        <v>45612</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>45613</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3">
-        <v>45614</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3">
-        <v>45615</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22">
+      <c r="B21" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23">
+      <c r="B22" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="B23" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="B24" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="B25" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="3">
-        <v>45619</v>
-      </c>
-      <c r="F27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28">
+      <c r="B27" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="3">
-        <v>45731</v>
-      </c>
-      <c r="F28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29">
+      <c r="B29" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>41</v>
-      </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>42</v>
-      </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>43</v>
-      </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>44</v>
-      </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>45</v>
-      </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>46</v>
-      </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>47</v>
-      </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>48</v>
-      </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>49</v>
-      </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>50</v>
-      </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>51</v>
-      </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>52</v>
-      </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>53</v>
-      </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>54</v>
-      </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>55</v>
-      </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>56</v>
-      </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>84</v>
-      </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>85</v>
-      </c>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>86</v>
-      </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>87</v>
-      </c>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>88</v>
-      </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>89</v>
-      </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>90</v>
-      </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>91</v>
-      </c>
-      <c r="E64" s="3"/>
+      <c r="B30" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>188</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Number in this column under this heading. Use heading filters to find specific entries" sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Issue description in this column under this heading" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Type in this column under this heading" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Priority in this column under this heading" sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter issue Opening Date in this column under this heading" sqref="E1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Opened By name in this column under this heading" sqref="F1"/>
-  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F24" r:id="rId1"/>
+    <hyperlink ref="F23" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -10591,7 +10754,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -11318,7 +11481,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>

--- a/client/src/assets/tracker/task tracker.xlsx
+++ b/client/src/assets/tracker/task tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="896" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" tabRatio="896" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
@@ -773,7 +773,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -795,6 +795,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,7 +859,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -891,6 +897,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1440,8 +1449,8 @@
   </sheetPr>
   <dimension ref="B1:J64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView showGridLines="0" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2468,7 +2477,7 @@
       <c r="B45">
         <v>45</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="14" t="s">
         <v>96</v>
       </c>
       <c r="D45" t="s">
@@ -2492,7 +2501,7 @@
       <c r="B47">
         <v>47</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="14" t="s">
         <v>98</v>
       </c>
       <c r="D47" t="s">
@@ -5017,7 +5026,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="18" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="7:20" ht="77.5" x14ac:dyDescent="0.35">
       <c r="G18">
         <v>3</v>
       </c>
@@ -5083,7 +5092,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="7:20" ht="93" x14ac:dyDescent="0.35">
       <c r="G20">
         <v>5</v>
       </c>
@@ -5116,7 +5125,7 @@
         <v>Pakisatan</v>
       </c>
     </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="7:20" ht="31" x14ac:dyDescent="0.35">
       <c r="G21">
         <v>6</v>
       </c>
@@ -5149,7 +5158,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="22" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="7:20" ht="139.5" x14ac:dyDescent="0.35">
       <c r="G22">
         <v>7</v>
       </c>
@@ -5182,7 +5191,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="7:20" ht="77.5" x14ac:dyDescent="0.35">
       <c r="G23">
         <v>8</v>
       </c>
@@ -6546,7 +6555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection sqref="A1:H63"/>
     </sheetView>
   </sheetViews>
@@ -7226,7 +7235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="B55" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A61" sqref="A2:H64"/>
     </sheetView>
   </sheetViews>
@@ -10137,7 +10146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -10736,7 +10745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/client/src/assets/tracker/task tracker.xlsx
+++ b/client/src/assets/tracker/task tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" tabRatio="896" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" tabRatio="896"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="175">
   <si>
     <t>Type</t>
   </si>
@@ -607,6 +607,9 @@
   </si>
   <si>
     <t>BIO</t>
+  </si>
+  <si>
+    <t>media page isssue</t>
   </si>
 </sst>
 </file>
@@ -1196,8 +1199,8 @@
   </sheetPr>
   <dimension ref="B1:J64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2230,6 +2233,9 @@
       <c r="D45" t="s">
         <v>84</v>
       </c>
+      <c r="E45" t="s">
+        <v>58</v>
+      </c>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2242,6 +2248,9 @@
       <c r="D46" t="s">
         <v>85</v>
       </c>
+      <c r="E46" t="s">
+        <v>58</v>
+      </c>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2254,11 +2263,20 @@
       <c r="D47" t="s">
         <v>86</v>
       </c>
+      <c r="E47" t="s">
+        <v>58</v>
+      </c>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48" t="s">
+        <v>58</v>
       </c>
       <c r="F48" s="3"/>
     </row>
@@ -2489,7 +2507,7 @@
       </c>
       <c r="O13">
         <f>COUNTA(O16:O45)-COUNTIF(O16:O45,NA())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S13" t="s">
         <v>16</v>
@@ -2625,10 +2643,10 @@
       </c>
       <c r="T18" t="str">
         <f t="array" aca="1" ref="T18" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(3:3)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>High</v>
-      </c>
-    </row>
-    <row r="19" spans="7:20" ht="31" x14ac:dyDescent="0.35">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="19" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G19">
         <v>4</v>
       </c>
@@ -2658,7 +2676,7 @@
       </c>
       <c r="T19" t="str">
         <f t="array" aca="1" ref="T19" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(4:4)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>Medium</v>
+        <v>High</v>
       </c>
     </row>
     <row r="20" spans="7:20" ht="93" x14ac:dyDescent="0.35">
@@ -2681,9 +2699,9 @@
         <f t="array" ref="N20">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N19, Issues[TYPE]),0))</f>
         <v>Add read books from website</v>
       </c>
-      <c r="O20" t="e">
+      <c r="O20" t="str">
         <f t="array" ref="O20">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O19,Issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
+        <v>done</v>
       </c>
       <c r="S20" t="str">
         <f t="array" aca="1" ref="S20" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(5:5)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
@@ -2691,7 +2709,7 @@
       </c>
       <c r="T20" t="str">
         <f t="array" aca="1" ref="T20" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(5:5)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>Pakisatan</v>
+        <v>Medium</v>
       </c>
     </row>
     <row r="21" spans="7:20" ht="31" x14ac:dyDescent="0.35">
@@ -2722,9 +2740,9 @@
         <f t="array" aca="1" ref="S21" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(6:6)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
         <v>Quran</v>
       </c>
-      <c r="T21" t="e">
+      <c r="T21" t="str">
         <f t="array" aca="1" ref="T21" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(6:6)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
+        <v>Pakisatan</v>
       </c>
     </row>
     <row r="22" spans="7:20" ht="139.5" x14ac:dyDescent="0.35">
@@ -2760,7 +2778,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="7:20" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="7:20" ht="62" x14ac:dyDescent="0.35">
       <c r="G23">
         <v>8</v>
       </c>
@@ -4830,7 +4848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/client/src/assets/tracker/task tracker.xlsx
+++ b/client/src/assets/tracker/task tracker.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" tabRatio="896"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" tabRatio="896" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
-    <sheet name="HOME" sheetId="17" r:id="rId2"/>
-    <sheet name="BOOKS" sheetId="19" r:id="rId3"/>
-    <sheet name="MEDIA" sheetId="18" r:id="rId4"/>
-    <sheet name="QURAN" sheetId="20" r:id="rId5"/>
-    <sheet name="BIOGRAPHY" sheetId="21" r:id="rId6"/>
-    <sheet name="CONTACT US" sheetId="22" r:id="rId7"/>
-    <sheet name="ABOUT US" sheetId="23" r:id="rId8"/>
-    <sheet name="ACTIVITY" sheetId="24" r:id="rId9"/>
-    <sheet name="calculations" sheetId="2" state="hidden" r:id="rId10"/>
+    <sheet name="Feature Board" sheetId="1" r:id="rId1"/>
+    <sheet name="Buglist" sheetId="26" r:id="rId2"/>
+    <sheet name="HOME" sheetId="17" r:id="rId3"/>
+    <sheet name="BOOKS" sheetId="19" r:id="rId4"/>
+    <sheet name="MEDIA" sheetId="18" r:id="rId5"/>
+    <sheet name="QURAN" sheetId="20" r:id="rId6"/>
+    <sheet name="BIOGRAPHY" sheetId="21" r:id="rId7"/>
+    <sheet name="CONTACT US" sheetId="22" r:id="rId8"/>
+    <sheet name="ABOUT US" sheetId="23" r:id="rId9"/>
+    <sheet name="ACTIVITY" sheetId="24" r:id="rId10"/>
+    <sheet name="calculations" sheetId="2" state="hidden" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="closed">OFFSET(calculations!$J$16,,,days)</definedName>
@@ -37,15 +38,15 @@
     <definedName name="mindate">calculations!$J$4</definedName>
     <definedName name="opened">OFFSET(calculations!$I$16,,,days)</definedName>
     <definedName name="opened_labels">opened+label_offset</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Issue Tracker'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Feature Board'!$1:$1</definedName>
     <definedName name="priorities">OFFSET(calculations!$T$16,,,calculations!$O$13+1)</definedName>
     <definedName name="prioritiesUnsorted">OFFSET(calculations!$O$15,,,calculations!$O$13+1)</definedName>
     <definedName name="priority">calculations!$J$10</definedName>
     <definedName name="Product_A_Name">[1]Summary!$C$3</definedName>
     <definedName name="Product_B_Name">[1]Summary!$D$3</definedName>
-    <definedName name="RowTitleRegion1..J2" localSheetId="2">'Issue Tracker'!#REF!</definedName>
-    <definedName name="RowTitleRegion1..J2">'Issue Tracker'!#REF!</definedName>
-    <definedName name="Title1" localSheetId="2">Issues[[#Headers],['#]]</definedName>
+    <definedName name="RowTitleRegion1..J2" localSheetId="3">'Feature Board'!#REF!</definedName>
+    <definedName name="RowTitleRegion1..J2">'Feature Board'!#REF!</definedName>
+    <definedName name="Title1" localSheetId="3">Issues[[#Headers],['#]]</definedName>
     <definedName name="Title1">Issues[[#Headers],['#]]</definedName>
     <definedName name="type">calculations!$J$9</definedName>
     <definedName name="types">OFFSET(calculations!$S$16,,,calculations!$N$13+1)</definedName>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="213">
   <si>
     <t>Type</t>
   </si>
@@ -135,9 +136,6 @@
     <t>NOTES</t>
   </si>
   <si>
-    <t>TASK</t>
-  </si>
-  <si>
     <t>Ramzan</t>
   </si>
   <si>
@@ -223,9 +221,6 @@
   </si>
   <si>
     <t>UI / UX Design based page</t>
-  </si>
-  <si>
-    <t>convert css file into scss for better code readabilty</t>
   </si>
   <si>
     <t>Bug</t>
@@ -269,15 +264,6 @@
   <si>
     <t>Local DB setup.
 create json database and angular sevices for all components</t>
-  </si>
-  <si>
-    <t>follow the naming convention</t>
-  </si>
-  <si>
-    <t>Finalize website color , bgcolor and font-family and font-size across the web site for all lang like urdu hindi arbic and english</t>
-  </si>
-  <si>
-    <t>In repo create folder abulfatah and paste all books into this</t>
   </si>
   <si>
     <t>mobile app -  PWA ( https://www.crocs.in/ )</t>
@@ -309,45 +295,6 @@
     </r>
   </si>
   <si>
-    <t>Kanjul Iman</t>
-  </si>
-  <si>
-    <t>Quran</t>
-  </si>
-  <si>
-    <t>Pakisatan</t>
-  </si>
-  <si>
-    <t>Best</t>
-  </si>
-  <si>
-    <t>ok ok normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">books Books page </t>
-  </si>
-  <si>
-    <t>book mobile view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HomePage - on click carusol image click </t>
-  </si>
-  <si>
-    <t>Book mobile view - remove category part and implement as discuused approch oly</t>
-  </si>
-  <si>
-    <t>Add read books from website</t>
-  </si>
-  <si>
-    <t>show 2books in same row</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onclick of of images open it or zoom it </t>
-  </si>
-  <si>
-    <t>remove catroy part and design as per old approach</t>
-  </si>
-  <si>
     <t>Sr. No</t>
   </si>
   <si>
@@ -609,14 +556,182 @@
     <t>BIO</t>
   </si>
   <si>
-    <t>media page isssue</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Bootstrap-based carousel</t>
+  </si>
+  <si>
+    <t>Module cards</t>
+  </si>
+  <si>
+    <t>Al Quran</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Biograhpy</t>
+  </si>
+  <si>
+    <t>Upcoming Events</t>
+  </si>
+  <si>
+    <t>FEEDBACK</t>
+  </si>
+  <si>
+    <t>DONATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core Features </t>
+  </si>
+  <si>
+    <t>Card Title</t>
+  </si>
+  <si>
+    <t>Card Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Time </t>
+  </si>
+  <si>
+    <t>Event Description</t>
+  </si>
+  <si>
+    <t>Event Images</t>
+  </si>
+  <si>
+    <t>Event Links</t>
+  </si>
+  <si>
+    <t>Descriptotion</t>
+  </si>
+  <si>
+    <t>Feedback Form field</t>
+  </si>
+  <si>
+    <t>TITLE:</t>
+  </si>
+  <si>
+    <t>ACCOUNT NO:</t>
+  </si>
+  <si>
+    <t>BRANCH:</t>
+  </si>
+  <si>
+    <t>BRANCH NO:</t>
+  </si>
+  <si>
+    <t>IFSC CODE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sadqat-e-nafila </t>
+  </si>
+  <si>
+    <t>Desciption Text</t>
+  </si>
+  <si>
+    <t>Khwaja Moinuddin Chishti</t>
+  </si>
+  <si>
+    <t>Hazrat Nizamuddin Auliya</t>
+  </si>
+  <si>
+    <t>Hazrat Waris Ali Shah</t>
+  </si>
+  <si>
+    <t>Hazrat Abdul Qadir Jilani</t>
+  </si>
+  <si>
+    <t>Hazrat Bahauddin Naqshband</t>
+  </si>
+  <si>
+    <t>Hazrat Shah Rukn-e-Alam</t>
+  </si>
+  <si>
+    <t>Data Ganj Bakhsh (Hazrat Ali Hujwiri)</t>
+  </si>
+  <si>
+    <t>Baba Fariduddin Ganj Shakar</t>
+  </si>
+  <si>
+    <t>Lal Shahbaz Qalandar – Sehwan Sharif</t>
+  </si>
+  <si>
+    <t>Hazrat Shah Jalal – Sylhet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zakat &amp; fitra ( short description )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rules of Zakat  ( short descption)</t>
+  </si>
+  <si>
+    <t>Suhail</t>
+  </si>
+  <si>
+    <t>Remove unwanted CSS and optimize styles</t>
+  </si>
+  <si>
+    <t>Page fitting and proper alignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centralized font-family </t>
+  </si>
+  <si>
+    <t>Add proper descriptive text</t>
+  </si>
+  <si>
+    <t>Fix header and footer issues</t>
+  </si>
+  <si>
+    <t>Implement search functionality</t>
+  </si>
+  <si>
+    <t>Enhance UI/UX design</t>
+  </si>
+  <si>
+    <t>Bug Name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Dynamic all book and Quran's parawise binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a reusable loader component and used it </t>
+  </si>
+  <si>
+    <t>Books Page : add book reading option in website</t>
+  </si>
+  <si>
+    <t>Book Page : show two books in each row at mobile view like amazon</t>
+  </si>
+  <si>
+    <t>Home Page : slider images not diplaying properly</t>
+  </si>
+  <si>
+    <t>Book Page : removed category option and redesign as discussed</t>
+  </si>
+  <si>
+    <t>media page: redesigned same page</t>
+  </si>
+  <si>
+    <t>Feature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="0"/>
@@ -729,8 +844,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF3B3B3B"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,18 +885,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="3" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.499984740745262"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -794,6 +934,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
@@ -816,7 +982,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -846,14 +1012,68 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -926,6 +1146,11 @@
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF99FF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -968,11 +1193,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Issues" displayName="Issues" ref="B1:J64" totalsRowShown="0" headerRowCellStyle="Heading 2">
-  <autoFilter ref="B1:J64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Issues" displayName="Issues" ref="B1:J52" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="B1:J52"/>
   <tableColumns count="9">
     <tableColumn id="10" name="#" dataCellStyle="Normal"/>
-    <tableColumn id="1" name="TASK" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Feature" dataCellStyle="Normal"/>
     <tableColumn id="2" name="TYPE" dataCellStyle="Normal"/>
     <tableColumn id="3" name="PRIORITY" dataCellStyle="Normal"/>
     <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
@@ -1197,10 +1422,10 @@
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J64"/>
+  <dimension ref="B1:J52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1218,7 +1443,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>17</v>
@@ -1247,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1259,13 +1484,13 @@
         <v>45607</v>
       </c>
       <c r="G2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -1274,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -1286,13 +1511,13 @@
         <v>45608</v>
       </c>
       <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -1301,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1313,13 +1538,13 @@
         <v>45609</v>
       </c>
       <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -1328,7 +1553,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1340,7 +1565,7 @@
         <v>45610</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="3"/>
       <c r="J5" s="2"/>
@@ -1350,7 +1575,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1362,7 +1587,7 @@
         <v>45611</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="3"/>
       <c r="J6" s="2"/>
@@ -1372,7 +1597,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1384,13 +1609,13 @@
         <v>45612</v>
       </c>
       <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -1399,7 +1624,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1411,13 +1636,13 @@
         <v>45613</v>
       </c>
       <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1425,7 +1650,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1437,13 +1662,13 @@
         <v>45614</v>
       </c>
       <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1451,7 +1676,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1463,13 +1688,13 @@
         <v>45615</v>
       </c>
       <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1477,7 +1702,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1489,13 +1714,13 @@
         <v>45731</v>
       </c>
       <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1503,7 +1728,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1515,13 +1740,13 @@
         <v>45731</v>
       </c>
       <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1529,7 +1754,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1541,13 +1766,13 @@
         <v>45731</v>
       </c>
       <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1555,7 +1780,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1567,13 +1792,13 @@
         <v>45731</v>
       </c>
       <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1581,7 +1806,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1593,13 +1818,13 @@
         <v>45731</v>
       </c>
       <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1607,7 +1832,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -1619,13 +1844,13 @@
         <v>45731</v>
       </c>
       <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1633,7 +1858,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -1645,13 +1870,13 @@
         <v>45619</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1659,7 +1884,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -1671,13 +1896,13 @@
         <v>45619</v>
       </c>
       <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1685,7 +1910,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -1697,7 +1922,7 @@
         <v>45619</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -1706,7 +1931,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -1718,7 +1943,7 @@
         <v>45619</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -1727,7 +1952,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -1739,13 +1964,13 @@
         <v>45619</v>
       </c>
       <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1753,7 +1978,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -1765,13 +1990,13 @@
         <v>45619</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1779,7 +2004,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -1791,13 +2016,13 @@
         <v>45619</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1805,7 +2030,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1817,13 +2042,13 @@
         <v>45619</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1831,7 +2056,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
@@ -1843,13 +2068,13 @@
         <v>45619</v>
       </c>
       <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1857,7 +2082,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -1869,13 +2094,13 @@
         <v>45619</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1883,7 +2108,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -1895,7 +2120,7 @@
         <v>45619</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H27" s="3"/>
     </row>
@@ -1904,7 +2129,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -1916,7 +2141,7 @@
         <v>45731</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" s="3"/>
     </row>
@@ -1925,7 +2150,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
@@ -1937,19 +2162,19 @@
         <v>45731</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
         <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E30" t="s">
         <v>15</v>
@@ -1958,58 +2183,60 @@
         <v>45731</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
       </c>
       <c r="F31" s="3">
-        <v>45731</v>
+        <v>45619</v>
       </c>
       <c r="G31" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
         <v>15</v>
       </c>
       <c r="F32" s="3">
-        <v>45731</v>
+        <v>45619</v>
       </c>
       <c r="G32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
@@ -2021,13 +2248,15 @@
         <v>45619</v>
       </c>
       <c r="G33" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="34" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
         <v>61</v>
@@ -2042,15 +2271,15 @@
         <v>45619</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
         <v>62</v>
@@ -2065,18 +2294,18 @@
         <v>45619</v>
       </c>
       <c r="G35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
@@ -2088,18 +2317,18 @@
         <v>45619</v>
       </c>
       <c r="G36" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
         <v>66</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37">
-        <v>37</v>
-      </c>
-      <c r="C37" t="s">
-        <v>64</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
@@ -2111,286 +2340,126 @@
         <v>45619</v>
       </c>
       <c r="G37" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38">
-        <v>38</v>
-      </c>
-      <c r="C38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="3">
-        <v>45619</v>
-      </c>
-      <c r="G38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="F38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39">
-        <v>39</v>
-      </c>
-      <c r="C39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="3">
-        <v>45619</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="F39" s="3"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40">
-        <v>40</v>
-      </c>
-      <c r="C40" t="s">
-        <v>71</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C40" s="21"/>
       <c r="F40" s="3"/>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41">
-        <v>41</v>
-      </c>
-      <c r="C41" t="s">
-        <v>69</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C41" s="21"/>
       <c r="F41" s="3"/>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42">
-        <v>42</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C42" s="21"/>
       <c r="F42" s="3"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43">
-        <v>43</v>
-      </c>
-      <c r="C43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G43" t="s">
-        <v>78</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="F43" s="3"/>
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44">
-        <v>44</v>
-      </c>
-      <c r="C44" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" t="s">
-        <v>83</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C44" s="21"/>
       <c r="F44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45">
-        <v>45</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" t="s">
         <v>84</v>
       </c>
-      <c r="E45" t="s">
-        <v>58</v>
-      </c>
+      <c r="C45" s="21"/>
       <c r="F45" s="3"/>
+      <c r="H45" s="3"/>
     </row>
     <row r="46" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46">
-        <v>46</v>
-      </c>
-      <c r="C46" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" t="s">
         <v>85</v>
       </c>
-      <c r="E46" t="s">
-        <v>58</v>
-      </c>
+      <c r="C46" s="21"/>
       <c r="F46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47">
-        <v>47</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" t="s">
         <v>86</v>
       </c>
-      <c r="E47" t="s">
-        <v>58</v>
-      </c>
+      <c r="C47" s="21"/>
       <c r="F47" s="3"/>
+      <c r="H47" s="3"/>
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48">
-        <v>48</v>
-      </c>
-      <c r="C48" t="s">
-        <v>174</v>
-      </c>
-      <c r="E48" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F48" s="3"/>
+      <c r="H48" s="3"/>
     </row>
     <row r="49" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="F49" s="3"/>
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="F50" s="3"/>
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="F51" s="3"/>
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F52" s="3"/>
       <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53">
-        <v>53</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54">
-        <v>54</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55">
-        <v>55</v>
-      </c>
-      <c r="F55" s="3"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56">
-        <v>56</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57">
-        <v>84</v>
-      </c>
-      <c r="F57" s="3"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58">
-        <v>85</v>
-      </c>
-      <c r="F58" s="3"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59">
-        <v>86</v>
-      </c>
-      <c r="F59" s="3"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60">
-        <v>87</v>
-      </c>
-      <c r="F60" s="3"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61">
-        <v>88</v>
-      </c>
-      <c r="F61" s="3"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62">
-        <v>89</v>
-      </c>
-      <c r="F62" s="3"/>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63">
-        <v>90</v>
-      </c>
-      <c r="F63" s="3"/>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64">
-        <v>91</v>
-      </c>
-      <c r="F64" s="3"/>
-      <c r="H64" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="9">
@@ -2418,6 +2487,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.6640625" style="7"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T80"/>
   <sheetViews>
@@ -2455,7 +2541,7 @@
         <v>7</v>
       </c>
       <c r="J7" t="e">
-        <f>'Issue Tracker'!#REF!</f>
+        <f>'Feature Board'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -2464,7 +2550,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="e">
-        <f>'Issue Tracker'!#REF!</f>
+        <f>'Feature Board'!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="N8">
@@ -2477,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="e">
-        <f>'Issue Tracker'!#REF!</f>
+        <f>'Feature Board'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -2486,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="e">
-        <f>'Issue Tracker'!#REF!</f>
+        <f>'Feature Board'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -2503,11 +2589,11 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="N13">
         <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O13">
         <f>COUNTA(O16:O45)-COUNTIF(O16:O45,NA())</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S13" t="s">
         <v>16</v>
@@ -2639,11 +2725,11 @@
       </c>
       <c r="S18" t="str">
         <f t="array" aca="1" ref="S18" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(3:3)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Add read books from website</v>
+        <v>Bug</v>
       </c>
       <c r="T18" t="str">
         <f t="array" aca="1" ref="T18" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(3:3)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>done</v>
+        <v>High</v>
       </c>
     </row>
     <row r="19" spans="7:20" x14ac:dyDescent="0.35">
@@ -2662,21 +2748,21 @@
         <f>J18+COUNTIFS(Issues[CLOSED ON],H19,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
-      <c r="N19" t="str">
+      <c r="N19" t="e">
         <f t="array" ref="N19">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N18, Issues[TYPE]),0))</f>
-        <v>Quran</v>
-      </c>
-      <c r="O19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O19" t="e">
         <f t="array" ref="O19">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O18,Issues[PRIORITY]),0))</f>
-        <v>Pakisatan</v>
+        <v>#N/A</v>
       </c>
       <c r="S19" t="str">
         <f t="array" aca="1" ref="S19" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(4:4)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Bug</v>
+        <v>Type 2</v>
       </c>
       <c r="T19" t="str">
         <f t="array" aca="1" ref="T19" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(4:4)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>High</v>
+        <v>Medium</v>
       </c>
     </row>
     <row r="20" spans="7:20" ht="93" x14ac:dyDescent="0.35">
@@ -2695,21 +2781,21 @@
         <f>J19+COUNTIFS(Issues[CLOSED ON],H20,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
-      <c r="N20" t="str">
+      <c r="N20" t="e">
         <f t="array" ref="N20">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N19, Issues[TYPE]),0))</f>
-        <v>Add read books from website</v>
-      </c>
-      <c r="O20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O20" t="e">
         <f t="array" ref="O20">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O19,Issues[PRIORITY]),0))</f>
-        <v>done</v>
-      </c>
-      <c r="S20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S20" t="e">
         <f t="array" aca="1" ref="S20" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(5:5)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v xml:space="preserve">onclick of of images open it or zoom it </v>
-      </c>
-      <c r="T20" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="T20" t="e">
         <f t="array" aca="1" ref="T20" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(5:5)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>Medium</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="21" spans="7:20" ht="31" x14ac:dyDescent="0.35">
@@ -2728,21 +2814,21 @@
         <f>J20+COUNTIFS(Issues[CLOSED ON],H21,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
-      <c r="N21" t="str">
+      <c r="N21" t="e">
         <f t="array" ref="N21">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N20, Issues[TYPE]),0))</f>
-        <v>show 2books in same row</v>
+        <v>#N/A</v>
       </c>
       <c r="O21" t="e">
         <f t="array" ref="O21">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O20,Issues[PRIORITY]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S21" t="str">
+      <c r="S21" t="e">
         <f t="array" aca="1" ref="S21" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(6:6)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Quran</v>
-      </c>
-      <c r="T21" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="T21" t="e">
         <f t="array" aca="1" ref="T21" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(6:6)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>Pakisatan</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="22" spans="7:20" ht="139.5" x14ac:dyDescent="0.35">
@@ -2761,17 +2847,17 @@
         <f>J21+COUNTIFS(Issues[CLOSED ON],H22,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
-      <c r="N22" t="str">
+      <c r="N22" t="e">
         <f t="array" ref="N22">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N21, Issues[TYPE]),0))</f>
-        <v xml:space="preserve">onclick of of images open it or zoom it </v>
+        <v>#N/A</v>
       </c>
       <c r="O22" t="e">
         <f t="array" ref="O22">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O21,Issues[PRIORITY]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S22" t="str">
+      <c r="S22" t="e">
         <f t="array" aca="1" ref="S22" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(7:7)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>remove catroy part and design as per old approach</v>
+        <v>#NUM!</v>
       </c>
       <c r="T22" t="e">
         <f t="array" aca="1" ref="T22" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(7:7)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -2794,17 +2880,17 @@
         <f>J22+COUNTIFS(Issues[CLOSED ON],H23,Issues[TYPE],type,Issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
-      <c r="N23" t="str">
+      <c r="N23" t="e">
         <f t="array" ref="N23">INDEX(Issues[TYPE],MATCH(0,COUNTIF(N$15:N22, Issues[TYPE]),0))</f>
-        <v>remove catroy part and design as per old approach</v>
+        <v>#N/A</v>
       </c>
       <c r="O23" t="e">
         <f t="array" ref="O23">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O22,Issues[PRIORITY]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S23" t="str">
+      <c r="S23" t="e">
         <f t="array" aca="1" ref="S23" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(8:8)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>show 2books in same row</v>
+        <v>#NUM!</v>
       </c>
       <c r="T23" t="e">
         <f t="array" aca="1" ref="T23" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(8:8)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -2835,9 +2921,9 @@
         <f t="array" ref="O24">INDEX(Issues[PRIORITY],MATCH(0,COUNTIF(O$15:O23,Issues[PRIORITY]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S24" t="str">
+      <c r="S24" t="e">
         <f t="array" aca="1" ref="S24" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(9:9)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Type 2</v>
+        <v>#NUM!</v>
       </c>
       <c r="T24" t="e">
         <f t="array" aca="1" ref="T24" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(9:9)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -4139,6 +4225,834 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.08203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="67.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="31.08203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="37.4140625" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="22">
+        <v>7</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="22">
+        <v>8</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="22">
+        <v>9</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="22">
+        <v>10</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="22">
+        <v>11</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="22">
+        <v>12</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="22">
+        <v>13</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="22">
+        <v>14</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="22">
+        <v>15</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="14"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="14"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="14"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="14"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="14"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="14"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="14"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="13"/>
+    <col min="2" max="3" width="38" style="13" customWidth="1"/>
+    <col min="4" max="4" width="57.4140625" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="24">
+        <v>2</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="26"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="27">
+        <v>3</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="29"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="30"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="25"/>
+      <c r="B22" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="30"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="25"/>
+      <c r="B23" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="30"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="25"/>
+      <c r="B24" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="30"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="27">
+        <v>4</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="29"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="25"/>
+      <c r="B26" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="30"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="25"/>
+      <c r="B27" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="30"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="25"/>
+      <c r="B28" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="30"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="14"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="16">
+        <v>5</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="14"/>
+      <c r="C48" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="14"/>
+      <c r="C49" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D49" s="14"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="D72" s="14"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="D73" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4155,24 +5069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="16384" width="8.6640625" style="7"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
@@ -4192,573 +5089,573 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>92</v>
+      <c r="A1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>93</v>
+      <c r="B2" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>97</v>
+      <c r="B3" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>100</v>
+      <c r="B4" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>103</v>
+      <c r="B5" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>106</v>
+      <c r="B6" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>109</v>
+      <c r="B7" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>106</v>
+      <c r="B8" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>112</v>
+      <c r="B9" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>115</v>
+      <c r="B10" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>118</v>
+      <c r="B11" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>120</v>
+      <c r="B12" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>123</v>
+      <c r="B13" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>127</v>
+      <c r="B14" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>130</v>
+      <c r="B15" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>134</v>
+      <c r="B16" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>137</v>
+      <c r="B17" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>140</v>
+      <c r="B18" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>143</v>
+      <c r="B19" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>146</v>
+      <c r="B20" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>148</v>
+      <c r="B21" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>151</v>
+      <c r="B22" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>154</v>
+      <c r="B23" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="F23" s="10" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>156</v>
+      <c r="B24" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>158</v>
+      <c r="B25" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>160</v>
+      <c r="B26" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>163</v>
+      <c r="B27" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>166</v>
+      <c r="B28" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>168</v>
+      <c r="B29" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>170</v>
+      <c r="B30" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4770,7 +5667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4787,7 +5684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4802,7 +5699,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4810,7 +5707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4827,7 +5724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4842,21 +5739,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="16384" width="8.6640625" style="7"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/client/src/assets/tracker/task tracker.xlsx
+++ b/client/src/assets/tracker/task tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" tabRatio="896" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" tabRatio="896" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Board" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="215">
   <si>
     <t>Type</t>
   </si>
@@ -725,6 +725,12 @@
   </si>
   <si>
     <t>Feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book Features </t>
+  </si>
+  <si>
+    <t>code links</t>
   </si>
 </sst>
 </file>
@@ -822,29 +828,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1" tint="0.14999847407452621"/>
       <name val="Calibri"/>
@@ -863,8 +846,28 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -886,6 +889,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,7 +991,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1007,72 +1016,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1424,7 +1464,7 @@
   </sheetPr>
   <dimension ref="B1:J52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2350,7 +2390,7 @@
       <c r="B38">
         <v>50</v>
       </c>
-      <c r="C38" s="21"/>
+      <c r="C38" s="17"/>
       <c r="F38" s="3"/>
       <c r="H38" s="3"/>
     </row>
@@ -2358,7 +2398,7 @@
       <c r="B39">
         <v>51</v>
       </c>
-      <c r="C39" s="21"/>
+      <c r="C39" s="17"/>
       <c r="F39" s="3"/>
       <c r="H39" s="3"/>
     </row>
@@ -2366,7 +2406,7 @@
       <c r="B40">
         <v>52</v>
       </c>
-      <c r="C40" s="21"/>
+      <c r="C40" s="17"/>
       <c r="F40" s="3"/>
       <c r="H40" s="3"/>
     </row>
@@ -2374,7 +2414,7 @@
       <c r="B41">
         <v>53</v>
       </c>
-      <c r="C41" s="21"/>
+      <c r="C41" s="17"/>
       <c r="F41" s="3"/>
       <c r="H41" s="3"/>
     </row>
@@ -2382,7 +2422,7 @@
       <c r="B42">
         <v>54</v>
       </c>
-      <c r="C42" s="21"/>
+      <c r="C42" s="17"/>
       <c r="F42" s="3"/>
       <c r="H42" s="3"/>
     </row>
@@ -2390,7 +2430,7 @@
       <c r="B43">
         <v>55</v>
       </c>
-      <c r="C43" s="21"/>
+      <c r="C43" s="17"/>
       <c r="F43" s="3"/>
       <c r="H43" s="3"/>
     </row>
@@ -2398,7 +2438,7 @@
       <c r="B44">
         <v>56</v>
       </c>
-      <c r="C44" s="21"/>
+      <c r="C44" s="17"/>
       <c r="F44" s="3"/>
       <c r="H44" s="3"/>
     </row>
@@ -2406,7 +2446,7 @@
       <c r="B45">
         <v>84</v>
       </c>
-      <c r="C45" s="21"/>
+      <c r="C45" s="17"/>
       <c r="F45" s="3"/>
       <c r="H45" s="3"/>
     </row>
@@ -2414,7 +2454,7 @@
       <c r="B46">
         <v>85</v>
       </c>
-      <c r="C46" s="21"/>
+      <c r="C46" s="17"/>
       <c r="F46" s="3"/>
       <c r="H46" s="3"/>
     </row>
@@ -2422,7 +2462,7 @@
       <c r="B47">
         <v>86</v>
       </c>
-      <c r="C47" s="21"/>
+      <c r="C47" s="17"/>
       <c r="F47" s="3"/>
       <c r="H47" s="3"/>
     </row>
@@ -4228,259 +4268,259 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.08203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="67.5" style="13" customWidth="1"/>
-    <col min="3" max="3" width="31.08203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="37.4140625" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="13"/>
+    <col min="1" max="1" width="9.08203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="67.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="31.08203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="37.4140625" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="22">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="22">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="22">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="22">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="22">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="22">
+      <c r="A7" s="18">
         <v>7</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="22"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="22">
+      <c r="A8" s="18">
         <v>8</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="22">
+      <c r="A9" s="18">
         <v>9</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="22">
+      <c r="A10" s="18">
         <v>10</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="22">
+      <c r="A11" s="18">
         <v>11</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="22">
+      <c r="A12" s="18">
         <v>12</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="22">
+      <c r="A13" s="18">
         <v>13</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="22">
+      <c r="A14" s="18">
         <v>14</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="22">
+      <c r="A15" s="18">
         <v>15</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="18"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="18"/>
+      <c r="A20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="14"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="18"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="18"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="18"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="18"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="14"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="18"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="14"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="18"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="14"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="18"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4491,560 +4531,560 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="13"/>
-    <col min="2" max="3" width="38" style="13" customWidth="1"/>
-    <col min="4" max="4" width="57.4140625" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="13"/>
+    <col min="1" max="1" width="8.6640625" style="9"/>
+    <col min="2" max="3" width="38" style="9" customWidth="1"/>
+    <col min="4" max="4" width="57.4140625" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="24">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="24">
+      <c r="A14" s="20">
         <v>2</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="27">
+      <c r="A20" s="23">
         <v>3</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="30"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="25"/>
-      <c r="B22" s="31" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="30"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="26"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="25"/>
-      <c r="B23" s="31" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="30"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="26"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="25"/>
-      <c r="B24" s="31" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="30"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="26"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="27">
+      <c r="A25" s="23">
         <v>4</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="25"/>
-      <c r="B26" s="31" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="30"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="25"/>
-      <c r="B27" s="31" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="30"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="26"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="25"/>
-      <c r="B28" s="31" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="30"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="14"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="18"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="16">
+      <c r="A30" s="12">
         <v>5</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D30" s="17"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D33" s="14"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14" t="s">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D34" s="14"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D35" s="14"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14" t="s">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D36" s="14"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D37" s="14"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14" t="s">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D39" s="14"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14" t="s">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D40" s="14"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14" t="s">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D41" s="14"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14" t="s">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D42" s="14"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14" t="s">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D43" s="14"/>
+      <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14" t="s">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D45" s="14"/>
+      <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14" t="s">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D46" s="14"/>
+      <c r="D46" s="10"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14" t="s">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D47" s="14"/>
+      <c r="D47" s="10"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="14"/>
-      <c r="C48" s="14" t="s">
+      <c r="A48" s="10"/>
+      <c r="C48" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D48" s="14"/>
+      <c r="D48" s="10"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="14"/>
-      <c r="C49" s="14" t="s">
+      <c r="A49" s="10"/>
+      <c r="C49" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D49" s="14"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14" t="s">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
+      <c r="A53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
+      <c r="A54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
+      <c r="A55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="D72" s="14"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="D72" s="10"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="D73" s="14"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="D73" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5054,27 +5094,202 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="38.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="7"/>
+    <col min="1" max="16384" width="38.83203125" style="7"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="21"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="26"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="26"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="21"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="26"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="21"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="26"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="21"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="26"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="21"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="26"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="21"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="21"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="26"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="21"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="26"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5085,583 +5300,641 @@
     <col min="4" max="4" width="23.5" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.75" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.9140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="7"/>
+    <col min="7" max="7" width="20.83203125" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
+      <c r="G1" s="35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="42"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B3" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F3" s="39" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B4" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F4" s="39" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F5" s="39" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B6" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E6" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F6" s="39" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B7" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D7" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E7" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F7" s="39" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B8" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F8" s="39" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B9" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D9" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
+      <c r="E9" s="28"/>
+      <c r="F9" s="39" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B10" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E10" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F10" s="39" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B11" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D11" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E11" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F11" s="39" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B12" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D12" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E12" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F12" s="39" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="28">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B13" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
+      <c r="D13" s="28"/>
+      <c r="E13" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F13" s="39" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B14" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <v>13</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
+        <v>14</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
+        <v>15</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
+        <v>16</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
+        <v>17</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="28">
+        <v>18</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="28">
+        <v>1</v>
+      </c>
+      <c r="B22" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C22" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F22" s="39" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="28">
+        <v>2</v>
+      </c>
+      <c r="B23" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C23" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F23" s="39" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="28">
+        <v>3</v>
+      </c>
+      <c r="B24" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C24" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D24" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E24" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F24" s="39" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="28">
+        <v>4</v>
+      </c>
+      <c r="B25" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C25" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D25" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E25" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F25" s="39" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="28">
+        <v>5</v>
+      </c>
+      <c r="B26" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C26" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F26" s="39" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="28">
+        <v>6</v>
+      </c>
+      <c r="B27" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C27" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
+      <c r="D27" s="28"/>
+      <c r="E27" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F27" s="39" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="28">
+        <v>7</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="F28" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="28">
+        <v>8</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="D29" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="F29" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="28">
+        <v>9</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="F30" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="28">
+        <v>10</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="D31" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="F31" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="28">
+        <v>11</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8" t="s">
+      <c r="D32" s="28"/>
+      <c r="E32" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="8">
-        <v>27</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F28" s="9" t="s">
+      <c r="F32" s="39" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="8">
-        <v>29</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>154</v>
-      </c>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G33" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F24" r:id="rId1"/>
-    <hyperlink ref="F23" r:id="rId2"/>
+    <hyperlink ref="F29" r:id="rId1"/>
+    <hyperlink ref="F17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/client/src/assets/tracker/task tracker.xlsx
+++ b/client/src/assets/tracker/task tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" tabRatio="896" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" tabRatio="896" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Board" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="215">
   <si>
     <t>Type</t>
   </si>
@@ -1464,7 +1464,7 @@
   </sheetPr>
   <dimension ref="B1:J52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4268,7 +4268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5288,8 +5288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A32"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A1:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5942,17 +5942,387 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="7"/>
+    <col min="1" max="1" width="5.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.4140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="7"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="42"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="28">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
+        <v>2</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
+        <v>3</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
+        <v>4</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
+        <v>5</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>6</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>7</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
+        <v>8</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>9</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>10</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="28">
+        <v>11</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
+        <v>12</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <v>13</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
+        <v>14</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
+        <v>15</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
+        <v>16</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
+        <v>17</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="28">
+        <v>18</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="28">
+        <v>1</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="28">
+        <v>2</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="28">
+        <v>3</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="28">
+        <v>4</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="28">
+        <v>5</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="28">
+        <v>6</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="28">
+        <v>7</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="28">
+        <v>8</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="28">
+        <v>9</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="28">
+        <v>10</v>
+      </c>
+      <c r="B31" s="29"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="28">
+        <v>11</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/client/src/assets/tracker/task tracker.xlsx
+++ b/client/src/assets/tracker/task tracker.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="379">
   <si>
     <t>Type</t>
   </si>
@@ -731,6 +731,498 @@
   </si>
   <si>
     <t>code links</t>
+  </si>
+  <si>
+    <t>Bayan</t>
+  </si>
+  <si>
+    <t>Old Bayan</t>
+  </si>
+  <si>
+    <t>Muharram</t>
+  </si>
+  <si>
+    <t>Safar</t>
+  </si>
+  <si>
+    <t>Rabi al-Awwal</t>
+  </si>
+  <si>
+    <t>Rabi al-Thani</t>
+  </si>
+  <si>
+    <t>Jumada al-Awwal</t>
+  </si>
+  <si>
+    <t>Jumada al-Thani</t>
+  </si>
+  <si>
+    <t>Rajab</t>
+  </si>
+  <si>
+    <t>Shaban</t>
+  </si>
+  <si>
+    <t>Ramadan</t>
+  </si>
+  <si>
+    <t>Shawwal</t>
+  </si>
+  <si>
+    <t>Dhu al-Qadah</t>
+  </si>
+  <si>
+    <t>Dhu al-Hijjah</t>
+  </si>
+  <si>
+    <t>List of Para</t>
+  </si>
+  <si>
+    <t>Al-Fatiha (The Opening)</t>
+  </si>
+  <si>
+    <t>Al-Baqarah (The Cow)</t>
+  </si>
+  <si>
+    <t>Aal-E-Imran (The Family of Imran)</t>
+  </si>
+  <si>
+    <t>An-Nisa (The Women)</t>
+  </si>
+  <si>
+    <t>Al-Ma'idah (The Table Spread)</t>
+  </si>
+  <si>
+    <t>Al-An'am (The Cattle)</t>
+  </si>
+  <si>
+    <t>Al-A'raf (The Heights)</t>
+  </si>
+  <si>
+    <t>Al-Anfal (The Spoils of War)</t>
+  </si>
+  <si>
+    <t>At-Tawbah (The Repentance)</t>
+  </si>
+  <si>
+    <t>Yunus (Jonah)</t>
+  </si>
+  <si>
+    <t>Hud (Hud)</t>
+  </si>
+  <si>
+    <t>Yusuf (Joseph)</t>
+  </si>
+  <si>
+    <t>Ar-Ra'd (The Thunder)</t>
+  </si>
+  <si>
+    <t>Ibrahim (Abraham)</t>
+  </si>
+  <si>
+    <t>Al-Hijr (The Rocky Tract)</t>
+  </si>
+  <si>
+    <t>An-Nahl (The Bee)</t>
+  </si>
+  <si>
+    <t>Al-Isra (The Night Journey)</t>
+  </si>
+  <si>
+    <t>Al-Kahf (The Cave)</t>
+  </si>
+  <si>
+    <t>Maryam (Mary)</t>
+  </si>
+  <si>
+    <t>Ta-Ha (Ta-Ha)</t>
+  </si>
+  <si>
+    <t>Al-Anbiya (The Prophets)</t>
+  </si>
+  <si>
+    <t>Al-Hajj (The Pilgrimage)</t>
+  </si>
+  <si>
+    <t>Al-Mu’minun (The Believers)</t>
+  </si>
+  <si>
+    <t>An-Nur (The Light)</t>
+  </si>
+  <si>
+    <t>Al-Furqan (The Criterion)</t>
+  </si>
+  <si>
+    <t>Ash-Shu'ara (The Poets)</t>
+  </si>
+  <si>
+    <t>An-Naml (The Ant)</t>
+  </si>
+  <si>
+    <t>Al-Qasas (The Stories)</t>
+  </si>
+  <si>
+    <t>Al-Ankabut (The Spider)</t>
+  </si>
+  <si>
+    <t>Ar-Rum (The Romans)</t>
+  </si>
+  <si>
+    <t>Luqman (Luqman)</t>
+  </si>
+  <si>
+    <t>As-Sajda (The Prostration)</t>
+  </si>
+  <si>
+    <t>Al-Ahzab (The Confederates)</t>
+  </si>
+  <si>
+    <t>Saba (Sheba)</t>
+  </si>
+  <si>
+    <t>Fatir (The Originator)</t>
+  </si>
+  <si>
+    <t>Ya-Sin (Ya-Sin)</t>
+  </si>
+  <si>
+    <t>As-Saffat (Those who set the Ranks)</t>
+  </si>
+  <si>
+    <t>Sad (Sad)</t>
+  </si>
+  <si>
+    <t>Az-Zumar (The Groups)</t>
+  </si>
+  <si>
+    <t>Ghafir (The Forgiver)</t>
+  </si>
+  <si>
+    <t>Fussilat (Explained in Detail)</t>
+  </si>
+  <si>
+    <t>Ash-Shura (The Consultation)</t>
+  </si>
+  <si>
+    <t>Az-Zukhruf (The Gold Adornments)</t>
+  </si>
+  <si>
+    <t>Ad-Dukhan (The Smoke)</t>
+  </si>
+  <si>
+    <t>Al-Jathiya (The Crouching)</t>
+  </si>
+  <si>
+    <t>Al-Ahqaf (The Wind-Curved Sandhills)</t>
+  </si>
+  <si>
+    <t>Muhammad (Muhammad)</t>
+  </si>
+  <si>
+    <t>Al-Fath (The Victory)</t>
+  </si>
+  <si>
+    <t>Al-Hujurat (The Rooms)</t>
+  </si>
+  <si>
+    <t>Qaf (Qaf)</t>
+  </si>
+  <si>
+    <t>Adh-Dhariyat (The Winnowing Winds)</t>
+  </si>
+  <si>
+    <t>At-Tur (The Mount)</t>
+  </si>
+  <si>
+    <t>An-Najm (The Star)</t>
+  </si>
+  <si>
+    <t>Al-Qamar (The Moon)</t>
+  </si>
+  <si>
+    <t>Ar-Rahman (The Beneficent)</t>
+  </si>
+  <si>
+    <t>Al-Waqia (The Inevitable)</t>
+  </si>
+  <si>
+    <t>Al-Hadid (The Iron)</t>
+  </si>
+  <si>
+    <t>Al-Mujadila (The Pleading Woman)</t>
+  </si>
+  <si>
+    <t>Al-Hashr (The Exile)</t>
+  </si>
+  <si>
+    <t>Al-Mumtahina (She that is to be examined)</t>
+  </si>
+  <si>
+    <t>As-Saff (The Ranks)</t>
+  </si>
+  <si>
+    <t>Al-Jumu'a (The Congregation)</t>
+  </si>
+  <si>
+    <t>Al-Munafiqun (The Hypocrites)</t>
+  </si>
+  <si>
+    <t>At-Taghabun (The Mutual Disillusion)</t>
+  </si>
+  <si>
+    <t>At-Talaq (The Divorce)</t>
+  </si>
+  <si>
+    <t>At-Tahrim (The Prohibition)</t>
+  </si>
+  <si>
+    <t>Al-Mulk (The Sovereignty)</t>
+  </si>
+  <si>
+    <t>Al-Qalam (The Pen)</t>
+  </si>
+  <si>
+    <t>Al-Haaqqa (The Reality)</t>
+  </si>
+  <si>
+    <t>Al-Ma'arij (The Ascending Stairways)</t>
+  </si>
+  <si>
+    <t>Nuh (Noah)</t>
+  </si>
+  <si>
+    <t>Al-Jinn (The Jinn)</t>
+  </si>
+  <si>
+    <t>Al-Muzzammil (The Enshrouded One)</t>
+  </si>
+  <si>
+    <t>Al-Muddathir (The Cloaked One)</t>
+  </si>
+  <si>
+    <t>Al-Qiyama (The Resurrection)</t>
+  </si>
+  <si>
+    <t>Al-Insan (Man)</t>
+  </si>
+  <si>
+    <t>Al-Mursalat (The Emissaries)</t>
+  </si>
+  <si>
+    <t>An-Naba (The Tidings)</t>
+  </si>
+  <si>
+    <t>An-Nazi'at (Those who drag forth)</t>
+  </si>
+  <si>
+    <t>Abasa (He frowned)</t>
+  </si>
+  <si>
+    <t>At-Takwir (The Overthrowing)</t>
+  </si>
+  <si>
+    <t>Al-Infitar (The Cleaving)</t>
+  </si>
+  <si>
+    <t>Al-Mutaffifin (Defrauding)</t>
+  </si>
+  <si>
+    <t>Al-Inshiqaq (The Splitting)</t>
+  </si>
+  <si>
+    <t>Al-Buruj (The Mansions of the Stars)</t>
+  </si>
+  <si>
+    <t>At-Tariq (The Morning Star)</t>
+  </si>
+  <si>
+    <t>Al-A'la (The Most High)</t>
+  </si>
+  <si>
+    <t>Al-Ghashiya (The Overwhelming)</t>
+  </si>
+  <si>
+    <t>Al-Fajr (The Dawn)</t>
+  </si>
+  <si>
+    <t>Al-Balad (The City)</t>
+  </si>
+  <si>
+    <t>Ash-Shams (The Sun)</t>
+  </si>
+  <si>
+    <t>Al-Lail (The Night)</t>
+  </si>
+  <si>
+    <t>Ad-Duha (The Morning Hours)</t>
+  </si>
+  <si>
+    <t>Ash-Sharh (The Relief)</t>
+  </si>
+  <si>
+    <t>At-Tin (The Fig)</t>
+  </si>
+  <si>
+    <t>Al-'Alaq (The Clot)</t>
+  </si>
+  <si>
+    <t>Al-Qadr (The Power)</t>
+  </si>
+  <si>
+    <t>Al-Bayyina (The Clear Proof)</t>
+  </si>
+  <si>
+    <t>Az-Zalzala (The Earthquake)</t>
+  </si>
+  <si>
+    <t>Al-Adiyat (The Courser)</t>
+  </si>
+  <si>
+    <t>Al-Qari'a (The Calamity)</t>
+  </si>
+  <si>
+    <t>At-Takathur (The Rivalry in World Increase)</t>
+  </si>
+  <si>
+    <t>Al-Asr (The Declining Day)</t>
+  </si>
+  <si>
+    <t>Al-Humaza (The Traducer)</t>
+  </si>
+  <si>
+    <t>Al-Fil (The Elephant)</t>
+  </si>
+  <si>
+    <t>Quraysh (Quraysh)</t>
+  </si>
+  <si>
+    <t>Al-Ma'un (The Small Kindnesses)</t>
+  </si>
+  <si>
+    <t>Al-Kawthar (The Abundance)</t>
+  </si>
+  <si>
+    <t>Al-Kafirun (The Disbelievers)</t>
+  </si>
+  <si>
+    <t>An-Nasr (The Divine Support)</t>
+  </si>
+  <si>
+    <t>Al-Masad (The Palm Fiber)</t>
+  </si>
+  <si>
+    <t>Al-Ikhlas (The Sincerity)</t>
+  </si>
+  <si>
+    <t>Al-Falaq (The Daybreak)</t>
+  </si>
+  <si>
+    <t>An-Nas (The Mankind)</t>
+  </si>
+  <si>
+    <t>English Title</t>
+  </si>
+  <si>
+    <t>Arabic Title</t>
+  </si>
+  <si>
+    <t>Alif Lam Meem</t>
+  </si>
+  <si>
+    <t>Sayaqool</t>
+  </si>
+  <si>
+    <t>Tilka Rusul</t>
+  </si>
+  <si>
+    <t>Lan Tana Loo</t>
+  </si>
+  <si>
+    <t>Wal Mohsanat</t>
+  </si>
+  <si>
+    <t>Ya Ayyuha Ladhina Aamanu</t>
+  </si>
+  <si>
+    <t>Wa Iza Samiu</t>
+  </si>
+  <si>
+    <t>Wa Lau Annana</t>
+  </si>
+  <si>
+    <t>Qalal Malao</t>
+  </si>
+  <si>
+    <t>Wa A’lamu</t>
+  </si>
+  <si>
+    <t>Yatazeroon</t>
+  </si>
+  <si>
+    <t>Wa Mamin Da’abat</t>
+  </si>
+  <si>
+    <t>Wa Ma Ubrioo</t>
+  </si>
+  <si>
+    <t>Rubama</t>
+  </si>
+  <si>
+    <t>Subhanallazi</t>
+  </si>
+  <si>
+    <t>Qal Alam</t>
+  </si>
+  <si>
+    <t>Aqtarabat</t>
+  </si>
+  <si>
+    <t>Qadd Aflaha</t>
+  </si>
+  <si>
+    <t>Wa Qalallazina</t>
+  </si>
+  <si>
+    <t>A’man Khalaq</t>
+  </si>
+  <si>
+    <t>Utlu Ma Uhiya</t>
+  </si>
+  <si>
+    <t>Wa Manyaqnut</t>
+  </si>
+  <si>
+    <t>Wa Mali</t>
+  </si>
+  <si>
+    <t>Faman Azlam</t>
+  </si>
+  <si>
+    <t>Elahe Yuruddu</t>
+  </si>
+  <si>
+    <t>Ha Meem</t>
+  </si>
+  <si>
+    <t>Qala Fama Khatbukum</t>
+  </si>
+  <si>
+    <t>Qadd Sami Allah</t>
+  </si>
+  <si>
+    <t>Tabarakallazi</t>
+  </si>
+  <si>
+    <t>Amma Yatasa’aloon</t>
+  </si>
+  <si>
+    <t>List of Surah  Name ( English )</t>
+  </si>
+  <si>
+    <t>List of Surah Name ( arabic )</t>
+  </si>
+  <si>
+    <t>Madini /Makki</t>
   </si>
 </sst>
 </file>
@@ -911,7 +1403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -969,6 +1461,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
@@ -991,7 +1507,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1082,6 +1598,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1114,6 +1631,22 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2529,8 +3062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5286,10 +5819,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A1:G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5304,39 +5837,39 @@
     <col min="8" max="16384" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="36" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="42"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
@@ -5352,7 +5885,7 @@
       <c r="E3" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="40" t="s">
         <v>78</v>
       </c>
       <c r="G3" s="8"/>
@@ -5371,7 +5904,7 @@
       <c r="E4" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="40" t="s">
         <v>81</v>
       </c>
       <c r="G4" s="8"/>
@@ -5390,7 +5923,7 @@
       <c r="E5" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="40" t="s">
         <v>84</v>
       </c>
       <c r="G5" s="8"/>
@@ -5411,7 +5944,7 @@
       <c r="E6" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="40" t="s">
         <v>87</v>
       </c>
       <c r="G6" s="8"/>
@@ -5432,7 +5965,7 @@
       <c r="E7" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="40" t="s">
         <v>90</v>
       </c>
       <c r="G7" s="8"/>
@@ -5451,7 +5984,7 @@
       <c r="E8" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="40" t="s">
         <v>92</v>
       </c>
       <c r="G8" s="8"/>
@@ -5470,7 +6003,7 @@
         <v>86</v>
       </c>
       <c r="E9" s="28"/>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="40" t="s">
         <v>93</v>
       </c>
       <c r="G9" s="8"/>
@@ -5491,7 +6024,7 @@
       <c r="E10" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="40" t="s">
         <v>96</v>
       </c>
       <c r="G10" s="8"/>
@@ -5512,7 +6045,7 @@
       <c r="E11" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="40" t="s">
         <v>99</v>
       </c>
       <c r="G11" s="8"/>
@@ -5533,7 +6066,7 @@
       <c r="E12" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="40" t="s">
         <v>101</v>
       </c>
       <c r="G12" s="8"/>
@@ -5552,7 +6085,7 @@
       <c r="E13" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="40" t="s">
         <v>104</v>
       </c>
       <c r="G13" s="8"/>
@@ -5571,7 +6104,7 @@
       <c r="E14" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="40" t="s">
         <v>127</v>
       </c>
       <c r="G14" s="8"/>
@@ -5590,7 +6123,7 @@
       <c r="E15" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="40" t="s">
         <v>129</v>
       </c>
       <c r="G15" s="8"/>
@@ -5609,7 +6142,7 @@
       <c r="E16" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="40" t="s">
         <v>132</v>
       </c>
       <c r="G16" s="8"/>
@@ -5630,7 +6163,7 @@
       <c r="E17" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="41" t="s">
         <v>137</v>
       </c>
       <c r="G17" s="8"/>
@@ -5651,7 +6184,7 @@
       <c r="E18" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="40" t="s">
         <v>147</v>
       </c>
       <c r="G18" s="8"/>
@@ -5672,7 +6205,7 @@
       <c r="E19" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="40" t="s">
         <v>151</v>
       </c>
       <c r="G19" s="8"/>
@@ -5693,21 +6226,21 @@
       <c r="E20" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="40" t="s">
         <v>154</v>
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33" t="s">
+    <row r="21" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
@@ -5723,7 +6256,7 @@
       <c r="E22" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="40" t="s">
         <v>108</v>
       </c>
       <c r="G22" s="8"/>
@@ -5742,7 +6275,7 @@
       <c r="E23" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="40" t="s">
         <v>111</v>
       </c>
       <c r="G23" s="8"/>
@@ -5763,7 +6296,7 @@
       <c r="E24" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="40" t="s">
         <v>115</v>
       </c>
       <c r="G24" s="8"/>
@@ -5784,7 +6317,7 @@
       <c r="E25" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="40" t="s">
         <v>118</v>
       </c>
       <c r="G25" s="8"/>
@@ -5803,7 +6336,7 @@
       <c r="E26" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="40" t="s">
         <v>121</v>
       </c>
       <c r="G26" s="8"/>
@@ -5822,7 +6355,7 @@
       <c r="E27" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="40" t="s">
         <v>124</v>
       </c>
       <c r="G27" s="8"/>
@@ -5843,7 +6376,7 @@
       <c r="E28" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="F28" s="39" t="s">
+      <c r="F28" s="40" t="s">
         <v>135</v>
       </c>
       <c r="G28" s="8"/>
@@ -5864,7 +6397,7 @@
       <c r="E29" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="F29" s="41" t="s">
         <v>139</v>
       </c>
       <c r="G29" s="8"/>
@@ -5883,7 +6416,7 @@
       <c r="E30" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="40" t="s">
         <v>141</v>
       </c>
       <c r="G30" s="8"/>
@@ -5904,7 +6437,7 @@
       <c r="E31" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="40" t="s">
         <v>144</v>
       </c>
       <c r="G31" s="8"/>
@@ -5923,13 +6456,290 @@
       <c r="E32" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="F32" s="39" t="s">
+      <c r="F32" s="40" t="s">
         <v>149</v>
       </c>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G33" s="8"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="43"/>
+      <c r="B33" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="43"/>
+      <c r="B35" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="43"/>
+      <c r="B37" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="43"/>
+      <c r="B39" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="43"/>
+      <c r="B41" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="43"/>
+      <c r="B43" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="43"/>
+      <c r="B45" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="43"/>
+      <c r="B47" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="43"/>
+      <c r="B49" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="43"/>
+      <c r="B51" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="43"/>
+      <c r="B53" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="43"/>
+      <c r="B55" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="43"/>
+      <c r="B57" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="43"/>
+      <c r="B59" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5942,17 +6752,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:O191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.25" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.08203125" style="7" customWidth="1"/>
     <col min="4" max="4" width="20.4140625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.33203125" style="7" bestFit="1" customWidth="1"/>
@@ -5961,366 +6771,2770 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="35" t="s">
+      <c r="B1" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="36" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="42"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="29" t="s">
+        <v>230</v>
+      </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="39"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="29" t="s">
+        <v>231</v>
+      </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
-      <c r="F4" s="39"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>3</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="29" t="s">
+        <v>232</v>
+      </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
-      <c r="F5" s="39"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>4</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="29" t="s">
+        <v>233</v>
+      </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="39"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>5</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="29" t="s">
+        <v>234</v>
+      </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="39"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>6</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="29" t="s">
+        <v>235</v>
+      </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
-      <c r="F8" s="39"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>7</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="29" t="s">
+        <v>236</v>
+      </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
-      <c r="F9" s="39"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>8</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="29" t="s">
+        <v>237</v>
+      </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="39"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>9</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="29" t="s">
+        <v>238</v>
+      </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
-      <c r="F11" s="39"/>
+      <c r="F11" s="40"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>10</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="29" t="s">
+        <v>239</v>
+      </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
-      <c r="F12" s="39"/>
+      <c r="F12" s="40"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>11</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="29" t="s">
+        <v>240</v>
+      </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
-      <c r="F13" s="39"/>
+      <c r="F13" s="40"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>12</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="29" t="s">
+        <v>241</v>
+      </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
-      <c r="F14" s="39"/>
+      <c r="F14" s="40"/>
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>13</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="29" t="s">
+        <v>242</v>
+      </c>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
-      <c r="F15" s="39"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>14</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="29" t="s">
+        <v>243</v>
+      </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
-      <c r="F16" s="39"/>
+      <c r="F16" s="40"/>
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>15</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="29" t="s">
+        <v>244</v>
+      </c>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
-      <c r="F17" s="40"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>16</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="29" t="s">
+        <v>245</v>
+      </c>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
-      <c r="F18" s="39"/>
+      <c r="F18" s="40"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>17</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="29" t="s">
+        <v>246</v>
+      </c>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="39"/>
+      <c r="F19" s="40"/>
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>18</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="29" t="s">
+        <v>247</v>
+      </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
-      <c r="F20" s="39"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
+      <c r="A21" s="28">
+        <v>19</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>248</v>
+      </c>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
-      <c r="F21" s="39"/>
+      <c r="F21" s="40"/>
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
-        <v>1</v>
-      </c>
-      <c r="B22" s="29"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>249</v>
+      </c>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
-      <c r="F22" s="39"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
-        <v>2</v>
-      </c>
-      <c r="B23" s="29"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>250</v>
+      </c>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
-      <c r="F23" s="39"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
-        <v>3</v>
-      </c>
-      <c r="B24" s="29"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>251</v>
+      </c>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
-      <c r="F24" s="39"/>
+      <c r="F24" s="40"/>
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
-        <v>4</v>
-      </c>
-      <c r="B25" s="29"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>252</v>
+      </c>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
-      <c r="F25" s="39"/>
+      <c r="F25" s="40"/>
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
-        <v>5</v>
-      </c>
-      <c r="B26" s="29"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>253</v>
+      </c>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
-      <c r="F26" s="39"/>
+      <c r="F26" s="40"/>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
-        <v>6</v>
-      </c>
-      <c r="B27" s="29"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>254</v>
+      </c>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
-      <c r="F27" s="39"/>
+      <c r="F27" s="40"/>
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
-        <v>7</v>
-      </c>
-      <c r="B28" s="29"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>255</v>
+      </c>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
-      <c r="F28" s="39"/>
+      <c r="F28" s="40"/>
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
-        <v>8</v>
-      </c>
-      <c r="B29" s="29"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>256</v>
+      </c>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
-      <c r="F29" s="40"/>
+      <c r="F29" s="41"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="28">
-        <v>9</v>
-      </c>
-      <c r="B30" s="29"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>257</v>
+      </c>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
-      <c r="F30" s="39"/>
+      <c r="F30" s="40"/>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
-        <v>10</v>
-      </c>
-      <c r="B31" s="29"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>258</v>
+      </c>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
-      <c r="F31" s="39"/>
+      <c r="F31" s="40"/>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
-        <v>11</v>
-      </c>
-      <c r="B32" s="29"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>259</v>
+      </c>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
-      <c r="F32" s="39"/>
+      <c r="F32" s="40"/>
       <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="28">
+        <v>31</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="28">
+        <v>32</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="28">
+        <v>33</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="28">
+        <v>34</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="28">
+        <v>35</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="28">
+        <v>36</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="28">
+        <v>37</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="28">
+        <v>38</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="28">
+        <v>39</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="28">
+        <v>40</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="28">
+        <v>41</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="28">
+        <v>42</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="28">
+        <v>43</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="28">
+        <v>44</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="28">
+        <v>45</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="28">
+        <v>46</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="28">
+        <v>47</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>48</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="28">
+        <v>49</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="28">
+        <v>50</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="28">
+        <v>51</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="28">
+        <v>52</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="28">
+        <v>53</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="28">
+        <v>54</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="28">
+        <v>55</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="28">
+        <v>56</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="28">
+        <v>57</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="28">
+        <v>58</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="28">
+        <v>59</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="28">
+        <v>60</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="28">
+        <v>61</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="28">
+        <v>62</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="28">
+        <v>63</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="28">
+        <v>64</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="28">
+        <v>65</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="28">
+        <v>66</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="28">
+        <v>67</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="28">
+        <v>68</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="28">
+        <v>69</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="28">
+        <v>70</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="28">
+        <v>71</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="28">
+        <v>72</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="28">
+        <v>73</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="28">
+        <v>74</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="28">
+        <v>75</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="28">
+        <v>76</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="28">
+        <v>77</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="28">
+        <v>78</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="28">
+        <v>79</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="28">
+        <v>80</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="28">
+        <v>81</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="28">
+        <v>82</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="28">
+        <v>83</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="28">
+        <v>84</v>
+      </c>
+      <c r="B86" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="28">
+        <v>85</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="28">
+        <v>86</v>
+      </c>
+      <c r="B88" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="28">
+        <v>87</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="28">
+        <v>88</v>
+      </c>
+      <c r="B90" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="28">
+        <v>89</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="40"/>
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="28">
+        <v>90</v>
+      </c>
+      <c r="B92" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="8"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="28">
+        <v>91</v>
+      </c>
+      <c r="B93" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="40"/>
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="28">
+        <v>92</v>
+      </c>
+      <c r="B94" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="28">
+        <v>93</v>
+      </c>
+      <c r="B95" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="28">
+        <v>94</v>
+      </c>
+      <c r="B96" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="8"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="28">
+        <v>95</v>
+      </c>
+      <c r="B97" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="8"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="28">
+        <v>96</v>
+      </c>
+      <c r="B98" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="28">
+        <v>97</v>
+      </c>
+      <c r="B99" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="8"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="28">
+        <v>98</v>
+      </c>
+      <c r="B100" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="40"/>
+      <c r="G100" s="8"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="28">
+        <v>99</v>
+      </c>
+      <c r="B101" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="40"/>
+      <c r="G101" s="8"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="28">
+        <v>100</v>
+      </c>
+      <c r="B102" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="8"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="28">
+        <v>101</v>
+      </c>
+      <c r="B103" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="8"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="28">
+        <v>102</v>
+      </c>
+      <c r="B104" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="8"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="28">
+        <v>103</v>
+      </c>
+      <c r="B105" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="8"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="28">
+        <v>104</v>
+      </c>
+      <c r="B106" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="40"/>
+      <c r="G106" s="8"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="28">
+        <v>105</v>
+      </c>
+      <c r="B107" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="40"/>
+      <c r="G107" s="8"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="28">
+        <v>106</v>
+      </c>
+      <c r="B108" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="40"/>
+      <c r="G108" s="8"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="28">
+        <v>107</v>
+      </c>
+      <c r="B109" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="40"/>
+      <c r="G109" s="8"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="28">
+        <v>108</v>
+      </c>
+      <c r="B110" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="40"/>
+      <c r="G110" s="8"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="28">
+        <v>109</v>
+      </c>
+      <c r="B111" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="40"/>
+      <c r="G111" s="8"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="28">
+        <v>110</v>
+      </c>
+      <c r="B112" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="40"/>
+      <c r="G112" s="8"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="28">
+        <v>111</v>
+      </c>
+      <c r="B113" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="40"/>
+      <c r="G113" s="8"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="45">
+        <v>112</v>
+      </c>
+      <c r="B114" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="C114" s="45"/>
+      <c r="D114" s="45"/>
+      <c r="E114" s="45"/>
+      <c r="F114" s="47"/>
+      <c r="G114" s="48"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="28">
+        <v>113</v>
+      </c>
+      <c r="B115" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="28">
+        <v>114</v>
+      </c>
+      <c r="B116" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A117" s="31"/>
+      <c r="B117" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="C117" s="31"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="43"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="28">
+        <v>1</v>
+      </c>
+      <c r="B118" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="28">
+        <v>2</v>
+      </c>
+      <c r="B119" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="28">
+        <v>3</v>
+      </c>
+      <c r="B120" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="28">
+        <v>4</v>
+      </c>
+      <c r="B121" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="28">
+        <v>5</v>
+      </c>
+      <c r="B122" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="28">
+        <v>6</v>
+      </c>
+      <c r="B123" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="28">
+        <v>7</v>
+      </c>
+      <c r="B124" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="28">
+        <v>8</v>
+      </c>
+      <c r="B125" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="28">
+        <v>9</v>
+      </c>
+      <c r="B126" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="28">
+        <v>10</v>
+      </c>
+      <c r="B127" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="28">
+        <v>11</v>
+      </c>
+      <c r="B128" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="28">
+        <v>12</v>
+      </c>
+      <c r="B129" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="28">
+        <v>13</v>
+      </c>
+      <c r="B130" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="28">
+        <v>14</v>
+      </c>
+      <c r="B131" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="28">
+        <v>15</v>
+      </c>
+      <c r="B132" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="28">
+        <v>16</v>
+      </c>
+      <c r="B133" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="28">
+        <v>17</v>
+      </c>
+      <c r="B134" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="28">
+        <v>18</v>
+      </c>
+      <c r="B135" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="28">
+        <v>19</v>
+      </c>
+      <c r="B136" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="28">
+        <v>20</v>
+      </c>
+      <c r="B137" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="28">
+        <v>21</v>
+      </c>
+      <c r="B138" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="28">
+        <v>22</v>
+      </c>
+      <c r="B139" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="28">
+        <v>23</v>
+      </c>
+      <c r="B140" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="28">
+        <v>24</v>
+      </c>
+      <c r="B141" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="28">
+        <v>25</v>
+      </c>
+      <c r="B142" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="28">
+        <v>26</v>
+      </c>
+      <c r="B143" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="28">
+        <v>27</v>
+      </c>
+      <c r="B144" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="8"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A145" s="28">
+        <v>28</v>
+      </c>
+      <c r="B145" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A146" s="28">
+        <v>29</v>
+      </c>
+      <c r="B146" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A147" s="28">
+        <v>30</v>
+      </c>
+      <c r="B147" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="48"/>
+      <c r="H147" s="48"/>
+      <c r="I147" s="48"/>
+      <c r="J147" s="48"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A148" s="44"/>
+      <c r="B148" s="49"/>
+      <c r="C148" s="44"/>
+      <c r="D148" s="44"/>
+      <c r="E148" s="44"/>
+      <c r="F148" s="44"/>
+      <c r="G148" s="44"/>
+      <c r="H148" s="44"/>
+      <c r="I148" s="44"/>
+      <c r="J148" s="44"/>
+      <c r="K148" s="44"/>
+      <c r="L148" s="44"/>
+      <c r="M148" s="44"/>
+      <c r="N148" s="44"/>
+      <c r="O148" s="44"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A149" s="44"/>
+      <c r="B149" s="49"/>
+      <c r="C149" s="44"/>
+      <c r="D149" s="44"/>
+      <c r="E149" s="44"/>
+      <c r="F149" s="44"/>
+      <c r="G149" s="44"/>
+      <c r="H149" s="44"/>
+      <c r="I149" s="44"/>
+      <c r="J149" s="44"/>
+      <c r="K149" s="44"/>
+      <c r="L149" s="44"/>
+      <c r="M149" s="44"/>
+      <c r="N149" s="44"/>
+      <c r="O149" s="44"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A150" s="44"/>
+      <c r="B150" s="49"/>
+      <c r="C150" s="44"/>
+      <c r="D150" s="44"/>
+      <c r="E150" s="44"/>
+      <c r="F150" s="44"/>
+      <c r="G150" s="44"/>
+      <c r="H150" s="44"/>
+      <c r="I150" s="44"/>
+      <c r="J150" s="44"/>
+      <c r="K150" s="44"/>
+      <c r="L150" s="44"/>
+      <c r="M150" s="44"/>
+      <c r="N150" s="44"/>
+      <c r="O150" s="44"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A151" s="44"/>
+      <c r="B151" s="49"/>
+      <c r="C151" s="44"/>
+      <c r="D151" s="44"/>
+      <c r="E151" s="44"/>
+      <c r="F151" s="44"/>
+      <c r="G151" s="44"/>
+      <c r="H151" s="44"/>
+      <c r="I151" s="44"/>
+      <c r="J151" s="44"/>
+      <c r="K151" s="44"/>
+      <c r="L151" s="44"/>
+      <c r="M151" s="44"/>
+      <c r="N151" s="44"/>
+      <c r="O151" s="44"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A152" s="44"/>
+      <c r="B152" s="49"/>
+      <c r="C152" s="44"/>
+      <c r="D152" s="44"/>
+      <c r="E152" s="44"/>
+      <c r="F152" s="44"/>
+      <c r="G152" s="44"/>
+      <c r="H152" s="44"/>
+      <c r="I152" s="44"/>
+      <c r="J152" s="44"/>
+      <c r="K152" s="44"/>
+      <c r="L152" s="44"/>
+      <c r="M152" s="44"/>
+      <c r="N152" s="44"/>
+      <c r="O152" s="44"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A153" s="44"/>
+      <c r="B153" s="49"/>
+      <c r="C153" s="44"/>
+      <c r="D153" s="44"/>
+      <c r="E153" s="44"/>
+      <c r="F153" s="44"/>
+      <c r="G153" s="44"/>
+      <c r="H153" s="44"/>
+      <c r="I153" s="44"/>
+      <c r="J153" s="44"/>
+      <c r="K153" s="44"/>
+      <c r="L153" s="44"/>
+      <c r="M153" s="44"/>
+      <c r="N153" s="44"/>
+      <c r="O153" s="44"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A154" s="44"/>
+      <c r="B154" s="49"/>
+      <c r="C154" s="44"/>
+      <c r="D154" s="44"/>
+      <c r="E154" s="44"/>
+      <c r="F154" s="44"/>
+      <c r="G154" s="44"/>
+      <c r="H154" s="44"/>
+      <c r="I154" s="44"/>
+      <c r="J154" s="44"/>
+      <c r="K154" s="44"/>
+      <c r="L154" s="44"/>
+      <c r="M154" s="44"/>
+      <c r="N154" s="44"/>
+      <c r="O154" s="44"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A155" s="44"/>
+      <c r="B155" s="49"/>
+      <c r="C155" s="44"/>
+      <c r="D155" s="44"/>
+      <c r="E155" s="44"/>
+      <c r="F155" s="44"/>
+      <c r="G155" s="44"/>
+      <c r="H155" s="44"/>
+      <c r="I155" s="44"/>
+      <c r="J155" s="44"/>
+      <c r="K155" s="44"/>
+      <c r="L155" s="44"/>
+      <c r="M155" s="44"/>
+      <c r="N155" s="44"/>
+      <c r="O155" s="44"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A156" s="44"/>
+      <c r="B156" s="49"/>
+      <c r="C156" s="44"/>
+      <c r="D156" s="44"/>
+      <c r="E156" s="44"/>
+      <c r="F156" s="44"/>
+      <c r="G156" s="44"/>
+      <c r="H156" s="44"/>
+      <c r="I156" s="44"/>
+      <c r="J156" s="44"/>
+      <c r="K156" s="44"/>
+      <c r="L156" s="44"/>
+      <c r="M156" s="44"/>
+      <c r="N156" s="44"/>
+      <c r="O156" s="44"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A157" s="44"/>
+      <c r="B157" s="49"/>
+      <c r="C157" s="44"/>
+      <c r="D157" s="44"/>
+      <c r="E157" s="44"/>
+      <c r="F157" s="44"/>
+      <c r="G157" s="44"/>
+      <c r="H157" s="44"/>
+      <c r="I157" s="44"/>
+      <c r="J157" s="44"/>
+      <c r="K157" s="44"/>
+      <c r="L157" s="44"/>
+      <c r="M157" s="44"/>
+      <c r="N157" s="44"/>
+      <c r="O157" s="44"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A158" s="44"/>
+      <c r="B158" s="49"/>
+      <c r="C158" s="44"/>
+      <c r="D158" s="44"/>
+      <c r="E158" s="44"/>
+      <c r="F158" s="44"/>
+      <c r="G158" s="44"/>
+      <c r="H158" s="44"/>
+      <c r="I158" s="44"/>
+      <c r="J158" s="44"/>
+      <c r="K158" s="44"/>
+      <c r="L158" s="44"/>
+      <c r="M158" s="44"/>
+      <c r="N158" s="44"/>
+      <c r="O158" s="44"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A159" s="44"/>
+      <c r="B159" s="49"/>
+      <c r="C159" s="44"/>
+      <c r="D159" s="44"/>
+      <c r="E159" s="44"/>
+      <c r="F159" s="44"/>
+      <c r="G159" s="44"/>
+      <c r="H159" s="44"/>
+      <c r="I159" s="44"/>
+      <c r="J159" s="44"/>
+      <c r="K159" s="44"/>
+      <c r="L159" s="44"/>
+      <c r="M159" s="44"/>
+      <c r="N159" s="44"/>
+      <c r="O159" s="44"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A160" s="44"/>
+      <c r="B160" s="49"/>
+      <c r="C160" s="44"/>
+      <c r="D160" s="44"/>
+      <c r="E160" s="44"/>
+      <c r="F160" s="44"/>
+      <c r="G160" s="44"/>
+      <c r="H160" s="44"/>
+      <c r="I160" s="44"/>
+      <c r="J160" s="44"/>
+      <c r="K160" s="44"/>
+      <c r="L160" s="44"/>
+      <c r="M160" s="44"/>
+      <c r="N160" s="44"/>
+      <c r="O160" s="44"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A161" s="44"/>
+      <c r="B161" s="49"/>
+      <c r="C161" s="44"/>
+      <c r="D161" s="44"/>
+      <c r="E161" s="44"/>
+      <c r="F161" s="44"/>
+      <c r="G161" s="44"/>
+      <c r="H161" s="44"/>
+      <c r="I161" s="44"/>
+      <c r="J161" s="44"/>
+      <c r="K161" s="44"/>
+      <c r="L161" s="44"/>
+      <c r="M161" s="44"/>
+      <c r="N161" s="44"/>
+      <c r="O161" s="44"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A162" s="44"/>
+      <c r="B162" s="49"/>
+      <c r="C162" s="44"/>
+      <c r="D162" s="44"/>
+      <c r="E162" s="44"/>
+      <c r="F162" s="44"/>
+      <c r="G162" s="44"/>
+      <c r="H162" s="44"/>
+      <c r="I162" s="44"/>
+      <c r="J162" s="44"/>
+      <c r="K162" s="44"/>
+      <c r="L162" s="44"/>
+      <c r="M162" s="44"/>
+      <c r="N162" s="44"/>
+      <c r="O162" s="44"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A163" s="44"/>
+      <c r="B163" s="49"/>
+      <c r="C163" s="44"/>
+      <c r="D163" s="44"/>
+      <c r="E163" s="44"/>
+      <c r="F163" s="44"/>
+      <c r="G163" s="44"/>
+      <c r="H163" s="44"/>
+      <c r="I163" s="44"/>
+      <c r="J163" s="44"/>
+      <c r="K163" s="44"/>
+      <c r="L163" s="44"/>
+      <c r="M163" s="44"/>
+      <c r="N163" s="44"/>
+      <c r="O163" s="44"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A164" s="44"/>
+      <c r="B164" s="49"/>
+      <c r="C164" s="44"/>
+      <c r="D164" s="44"/>
+      <c r="E164" s="44"/>
+      <c r="F164" s="44"/>
+      <c r="G164" s="44"/>
+      <c r="H164" s="44"/>
+      <c r="I164" s="44"/>
+      <c r="J164" s="44"/>
+      <c r="K164" s="44"/>
+      <c r="L164" s="44"/>
+      <c r="M164" s="44"/>
+      <c r="N164" s="44"/>
+      <c r="O164" s="44"/>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A165" s="44"/>
+      <c r="B165" s="49"/>
+      <c r="C165" s="44"/>
+      <c r="D165" s="44"/>
+      <c r="E165" s="44"/>
+      <c r="F165" s="44"/>
+      <c r="G165" s="44"/>
+      <c r="H165" s="44"/>
+      <c r="I165" s="44"/>
+      <c r="J165" s="44"/>
+      <c r="K165" s="44"/>
+      <c r="L165" s="44"/>
+      <c r="M165" s="44"/>
+      <c r="N165" s="44"/>
+      <c r="O165" s="44"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A166" s="44"/>
+      <c r="B166" s="49"/>
+      <c r="C166" s="44"/>
+      <c r="D166" s="44"/>
+      <c r="E166" s="44"/>
+      <c r="F166" s="44"/>
+      <c r="G166" s="44"/>
+      <c r="H166" s="44"/>
+      <c r="I166" s="44"/>
+      <c r="J166" s="44"/>
+      <c r="K166" s="44"/>
+      <c r="L166" s="44"/>
+      <c r="M166" s="44"/>
+      <c r="N166" s="44"/>
+      <c r="O166" s="44"/>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A167" s="44"/>
+      <c r="B167" s="49"/>
+      <c r="C167" s="44"/>
+      <c r="D167" s="44"/>
+      <c r="E167" s="44"/>
+      <c r="F167" s="44"/>
+      <c r="G167" s="44"/>
+      <c r="H167" s="44"/>
+      <c r="I167" s="44"/>
+      <c r="J167" s="44"/>
+      <c r="K167" s="44"/>
+      <c r="L167" s="44"/>
+      <c r="M167" s="44"/>
+      <c r="N167" s="44"/>
+      <c r="O167" s="44"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A168" s="44"/>
+      <c r="B168" s="49"/>
+      <c r="C168" s="44"/>
+      <c r="D168" s="44"/>
+      <c r="E168" s="44"/>
+      <c r="F168" s="44"/>
+      <c r="G168" s="44"/>
+      <c r="H168" s="44"/>
+      <c r="I168" s="44"/>
+      <c r="J168" s="44"/>
+      <c r="K168" s="44"/>
+      <c r="L168" s="44"/>
+      <c r="M168" s="44"/>
+      <c r="N168" s="44"/>
+      <c r="O168" s="44"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A169" s="44"/>
+      <c r="B169" s="49"/>
+      <c r="C169" s="44"/>
+      <c r="D169" s="44"/>
+      <c r="E169" s="44"/>
+      <c r="F169" s="44"/>
+      <c r="G169" s="44"/>
+      <c r="H169" s="44"/>
+      <c r="I169" s="44"/>
+      <c r="J169" s="44"/>
+      <c r="K169" s="44"/>
+      <c r="L169" s="44"/>
+      <c r="M169" s="44"/>
+      <c r="N169" s="44"/>
+      <c r="O169" s="44"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A170" s="44"/>
+      <c r="B170" s="49"/>
+      <c r="C170" s="44"/>
+      <c r="D170" s="44"/>
+      <c r="E170" s="44"/>
+      <c r="F170" s="44"/>
+      <c r="G170" s="44"/>
+      <c r="H170" s="44"/>
+      <c r="I170" s="44"/>
+      <c r="J170" s="44"/>
+      <c r="K170" s="44"/>
+      <c r="L170" s="44"/>
+      <c r="M170" s="44"/>
+      <c r="N170" s="44"/>
+      <c r="O170" s="44"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A171" s="44"/>
+      <c r="B171" s="49"/>
+      <c r="C171" s="44"/>
+      <c r="D171" s="44"/>
+      <c r="E171" s="44"/>
+      <c r="F171" s="44"/>
+      <c r="G171" s="44"/>
+      <c r="H171" s="44"/>
+      <c r="I171" s="44"/>
+      <c r="J171" s="44"/>
+      <c r="K171" s="44"/>
+      <c r="L171" s="44"/>
+      <c r="M171" s="44"/>
+      <c r="N171" s="44"/>
+      <c r="O171" s="44"/>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A172" s="44"/>
+      <c r="B172" s="49"/>
+      <c r="C172" s="44"/>
+      <c r="D172" s="44"/>
+      <c r="E172" s="44"/>
+      <c r="F172" s="44"/>
+      <c r="G172" s="44"/>
+      <c r="H172" s="44"/>
+      <c r="I172" s="44"/>
+      <c r="J172" s="44"/>
+      <c r="K172" s="44"/>
+      <c r="L172" s="44"/>
+      <c r="M172" s="44"/>
+      <c r="N172" s="44"/>
+      <c r="O172" s="44"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A173" s="44"/>
+      <c r="B173" s="49"/>
+      <c r="C173" s="44"/>
+      <c r="D173" s="44"/>
+      <c r="E173" s="44"/>
+      <c r="F173" s="44"/>
+      <c r="G173" s="44"/>
+      <c r="H173" s="44"/>
+      <c r="I173" s="44"/>
+      <c r="J173" s="44"/>
+      <c r="K173" s="44"/>
+      <c r="L173" s="44"/>
+      <c r="M173" s="44"/>
+      <c r="N173" s="44"/>
+      <c r="O173" s="44"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A174" s="44"/>
+      <c r="B174" s="49"/>
+      <c r="C174" s="44"/>
+      <c r="D174" s="44"/>
+      <c r="E174" s="44"/>
+      <c r="F174" s="44"/>
+      <c r="G174" s="44"/>
+      <c r="H174" s="44"/>
+      <c r="I174" s="44"/>
+      <c r="J174" s="44"/>
+      <c r="K174" s="44"/>
+      <c r="L174" s="44"/>
+      <c r="M174" s="44"/>
+      <c r="N174" s="44"/>
+      <c r="O174" s="44"/>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A175" s="44"/>
+      <c r="B175" s="49"/>
+      <c r="C175" s="44"/>
+      <c r="D175" s="44"/>
+      <c r="E175" s="44"/>
+      <c r="F175" s="44"/>
+      <c r="G175" s="44"/>
+      <c r="H175" s="44"/>
+      <c r="I175" s="44"/>
+      <c r="J175" s="44"/>
+      <c r="K175" s="44"/>
+      <c r="L175" s="44"/>
+      <c r="M175" s="44"/>
+      <c r="N175" s="44"/>
+      <c r="O175" s="44"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A176" s="44"/>
+      <c r="B176" s="49"/>
+      <c r="C176" s="44"/>
+      <c r="D176" s="44"/>
+      <c r="E176" s="44"/>
+      <c r="F176" s="44"/>
+      <c r="G176" s="44"/>
+      <c r="H176" s="44"/>
+      <c r="I176" s="44"/>
+      <c r="J176" s="44"/>
+      <c r="K176" s="44"/>
+      <c r="L176" s="44"/>
+      <c r="M176" s="44"/>
+      <c r="N176" s="44"/>
+      <c r="O176" s="44"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A177" s="44"/>
+      <c r="B177" s="49"/>
+      <c r="C177" s="44"/>
+      <c r="D177" s="44"/>
+      <c r="E177" s="44"/>
+      <c r="F177" s="44"/>
+      <c r="G177" s="44"/>
+      <c r="H177" s="44"/>
+      <c r="I177" s="44"/>
+      <c r="J177" s="44"/>
+      <c r="K177" s="44"/>
+      <c r="L177" s="44"/>
+      <c r="M177" s="44"/>
+      <c r="N177" s="44"/>
+      <c r="O177" s="44"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A178" s="44"/>
+      <c r="B178" s="44"/>
+      <c r="C178" s="44"/>
+      <c r="D178" s="44"/>
+      <c r="E178" s="44"/>
+      <c r="F178" s="44"/>
+      <c r="G178" s="44"/>
+      <c r="H178" s="44"/>
+      <c r="I178" s="44"/>
+      <c r="J178" s="44"/>
+      <c r="K178" s="44"/>
+      <c r="L178" s="44"/>
+      <c r="M178" s="44"/>
+      <c r="N178" s="44"/>
+      <c r="O178" s="44"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A179" s="44"/>
+      <c r="B179" s="44"/>
+      <c r="C179" s="44"/>
+      <c r="D179" s="44"/>
+      <c r="E179" s="44"/>
+      <c r="F179" s="44"/>
+      <c r="G179" s="44"/>
+      <c r="H179" s="44"/>
+      <c r="I179" s="44"/>
+      <c r="J179" s="44"/>
+      <c r="K179" s="44"/>
+      <c r="L179" s="44"/>
+      <c r="M179" s="44"/>
+      <c r="N179" s="44"/>
+      <c r="O179" s="44"/>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A180" s="44"/>
+      <c r="B180" s="44"/>
+      <c r="C180" s="44"/>
+      <c r="D180" s="44"/>
+      <c r="E180" s="44"/>
+      <c r="F180" s="44"/>
+      <c r="G180" s="44"/>
+      <c r="H180" s="44"/>
+      <c r="I180" s="44"/>
+      <c r="J180" s="44"/>
+      <c r="K180" s="44"/>
+      <c r="L180" s="44"/>
+      <c r="M180" s="44"/>
+      <c r="N180" s="44"/>
+      <c r="O180" s="44"/>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A181" s="44"/>
+      <c r="B181" s="44"/>
+      <c r="C181" s="44"/>
+      <c r="D181" s="44"/>
+      <c r="E181" s="44"/>
+      <c r="F181" s="44"/>
+      <c r="G181" s="44"/>
+      <c r="H181" s="44"/>
+      <c r="I181" s="44"/>
+      <c r="J181" s="44"/>
+      <c r="K181" s="44"/>
+      <c r="L181" s="44"/>
+      <c r="M181" s="44"/>
+      <c r="N181" s="44"/>
+      <c r="O181" s="44"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A182" s="44"/>
+      <c r="B182" s="44"/>
+      <c r="C182" s="44"/>
+      <c r="D182" s="44"/>
+      <c r="E182" s="44"/>
+      <c r="F182" s="44"/>
+      <c r="G182" s="44"/>
+      <c r="H182" s="44"/>
+      <c r="I182" s="44"/>
+      <c r="J182" s="44"/>
+      <c r="K182" s="44"/>
+      <c r="L182" s="44"/>
+      <c r="M182" s="44"/>
+      <c r="N182" s="44"/>
+      <c r="O182" s="44"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A183" s="44"/>
+      <c r="B183" s="44"/>
+      <c r="C183" s="44"/>
+      <c r="D183" s="44"/>
+      <c r="E183" s="44"/>
+      <c r="F183" s="44"/>
+      <c r="G183" s="44"/>
+      <c r="H183" s="44"/>
+      <c r="I183" s="44"/>
+      <c r="J183" s="44"/>
+      <c r="K183" s="44"/>
+      <c r="L183" s="44"/>
+      <c r="M183" s="44"/>
+      <c r="N183" s="44"/>
+      <c r="O183" s="44"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A184" s="44"/>
+      <c r="B184" s="44"/>
+      <c r="C184" s="44"/>
+      <c r="D184" s="44"/>
+      <c r="E184" s="44"/>
+      <c r="F184" s="44"/>
+      <c r="G184" s="44"/>
+      <c r="H184" s="44"/>
+      <c r="I184" s="44"/>
+      <c r="J184" s="44"/>
+      <c r="K184" s="44"/>
+      <c r="L184" s="44"/>
+      <c r="M184" s="44"/>
+      <c r="N184" s="44"/>
+      <c r="O184" s="44"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A185" s="44"/>
+      <c r="B185" s="44"/>
+      <c r="C185" s="44"/>
+      <c r="D185" s="44"/>
+      <c r="E185" s="44"/>
+      <c r="F185" s="44"/>
+      <c r="G185" s="44"/>
+      <c r="H185" s="44"/>
+      <c r="I185" s="44"/>
+      <c r="J185" s="44"/>
+      <c r="K185" s="44"/>
+      <c r="L185" s="44"/>
+      <c r="M185" s="44"/>
+      <c r="N185" s="44"/>
+      <c r="O185" s="44"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A186" s="44"/>
+      <c r="B186" s="44"/>
+      <c r="C186" s="44"/>
+      <c r="D186" s="44"/>
+      <c r="E186" s="44"/>
+      <c r="F186" s="44"/>
+      <c r="G186" s="44"/>
+      <c r="H186" s="44"/>
+      <c r="I186" s="44"/>
+      <c r="J186" s="44"/>
+      <c r="K186" s="44"/>
+      <c r="L186" s="44"/>
+      <c r="M186" s="44"/>
+      <c r="N186" s="44"/>
+      <c r="O186" s="44"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A187" s="44"/>
+      <c r="B187" s="44"/>
+      <c r="C187" s="44"/>
+      <c r="D187" s="44"/>
+      <c r="E187" s="44"/>
+      <c r="F187" s="44"/>
+      <c r="G187" s="44"/>
+      <c r="H187" s="44"/>
+      <c r="I187" s="44"/>
+      <c r="J187" s="44"/>
+      <c r="K187" s="44"/>
+      <c r="L187" s="44"/>
+      <c r="M187" s="44"/>
+      <c r="N187" s="44"/>
+      <c r="O187" s="44"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A188" s="44"/>
+      <c r="B188" s="44"/>
+      <c r="C188" s="44"/>
+      <c r="D188" s="44"/>
+      <c r="E188" s="44"/>
+      <c r="F188" s="44"/>
+      <c r="G188" s="44"/>
+      <c r="H188" s="44"/>
+      <c r="I188" s="44"/>
+      <c r="J188" s="44"/>
+      <c r="K188" s="44"/>
+      <c r="L188" s="44"/>
+      <c r="M188" s="44"/>
+      <c r="N188" s="44"/>
+      <c r="O188" s="44"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A189" s="44"/>
+      <c r="B189" s="44"/>
+      <c r="C189" s="44"/>
+      <c r="D189" s="44"/>
+      <c r="E189" s="44"/>
+      <c r="F189" s="44"/>
+      <c r="G189" s="44"/>
+      <c r="H189" s="44"/>
+      <c r="I189" s="44"/>
+      <c r="J189" s="44"/>
+      <c r="K189" s="44"/>
+      <c r="L189" s="44"/>
+      <c r="M189" s="44"/>
+      <c r="N189" s="44"/>
+      <c r="O189" s="44"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A190" s="44"/>
+      <c r="B190" s="44"/>
+      <c r="C190" s="44"/>
+      <c r="D190" s="44"/>
+      <c r="E190" s="44"/>
+      <c r="F190" s="44"/>
+      <c r="G190" s="44"/>
+      <c r="H190" s="44"/>
+      <c r="I190" s="44"/>
+      <c r="J190" s="44"/>
+      <c r="K190" s="44"/>
+      <c r="L190" s="44"/>
+      <c r="M190" s="44"/>
+      <c r="N190" s="44"/>
+      <c r="O190" s="44"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A191" s="44"/>
+      <c r="B191" s="44"/>
+      <c r="C191" s="44"/>
+      <c r="D191" s="44"/>
+      <c r="E191" s="44"/>
+      <c r="F191" s="44"/>
+      <c r="G191" s="44"/>
+      <c r="H191" s="44"/>
+      <c r="I191" s="44"/>
+      <c r="J191" s="44"/>
+      <c r="K191" s="44"/>
+      <c r="L191" s="44"/>
+      <c r="M191" s="44"/>
+      <c r="N191" s="44"/>
+      <c r="O191" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6332,7 +9546,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/client/src/assets/tracker/task tracker.xlsx
+++ b/client/src/assets/tracker/task tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" tabRatio="896"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" tabRatio="896" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Board" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="383">
   <si>
     <t>Type</t>
   </si>
@@ -1221,6 +1221,18 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>Quran Page - Audio not working properly ( old audio and time prgressbar issue )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quran Page - URL isssue ( on url bar all path showing ) </t>
+  </si>
+  <si>
+    <t>Audio Link</t>
+  </si>
+  <si>
+    <t>File Name</t>
   </si>
 </sst>
 </file>
@@ -1931,18 +1943,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Issues" displayName="Issues" ref="B1:J52" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowCellStyle="Heading 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Issues" displayName="Issues" ref="B1:J52" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowCellStyle="Heading 2">
   <autoFilter ref="B1:J52"/>
   <tableColumns count="9">
-    <tableColumn id="10" name="#" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="1" name="Feature" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="TYPE" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="PRIORITY" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="OPENED ON" dataDxfId="6" dataCellStyle="Date"/>
-    <tableColumn id="5" name="OPENED BY" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="CLOSED ON" dataDxfId="4" dataCellStyle="Date"/>
-    <tableColumn id="8" name="CLOSED BY" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="9" name="NOTES" dataDxfId="2"/>
+    <tableColumn id="10" name="#" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Feature" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="TYPE" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="PRIORITY" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="OPENED ON" dataDxfId="4" dataCellStyle="Date"/>
+    <tableColumn id="5" name="OPENED BY" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="CLOSED ON" dataDxfId="2" dataCellStyle="Date"/>
+    <tableColumn id="8" name="CLOSED BY" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="NOTES" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Project Issue Tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2162,7 +2174,7 @@
   </sheetPr>
   <dimension ref="B1:J52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3562,7 +3574,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="18" spans="7:20" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G18">
         <v>3</v>
       </c>
@@ -3595,7 +3607,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="19" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="7:20" ht="31" x14ac:dyDescent="0.35">
       <c r="G19">
         <v>4</v>
       </c>
@@ -3628,7 +3640,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="20" spans="7:20" ht="93" x14ac:dyDescent="0.35">
+    <row r="20" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G20">
         <v>5</v>
       </c>
@@ -3661,7 +3673,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="21" spans="7:20" ht="31" x14ac:dyDescent="0.35">
+    <row r="21" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G21">
         <v>6</v>
       </c>
@@ -3694,7 +3706,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="22" spans="7:20" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G22">
         <v>7</v>
       </c>
@@ -3727,7 +3739,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="7:20" ht="62" x14ac:dyDescent="0.35">
+    <row r="23" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G23">
         <v>8</v>
       </c>
@@ -5091,8 +5103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5274,15 +5286,19 @@
       </c>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>379</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>380</v>
+      </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
@@ -5354,7 +5370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -6111,8 +6127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7044,8 +7060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7077,10 +7093,10 @@
         <v>72</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>73</v>
+        <v>381</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>213</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -9875,8 +9891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
